--- a/testinstance.xlsx
+++ b/testinstance.xlsx
@@ -5,13 +5,14 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="travel time matrix" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="5passenger parameters" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="10passenger parameters" sheetId="3" state="visible" r:id="rId4"/>
     <sheet name="20passenger parameters" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="240passenger parameters" sheetId="5" state="visible" r:id="rId6"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="12">
   <si>
     <t xml:space="preserve">Passenger ID</t>
   </si>
@@ -171,10 +172,10 @@
   <dimension ref="A1:L25"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
+      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1"/>
@@ -694,11 +695,11 @@
   </sheetPr>
   <dimension ref="A1:K6"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="104" zoomScaleNormal="104" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="104" zoomScaleNormal="104" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.84"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.58"/>
@@ -710,7 +711,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="45.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="47.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="26.05"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="34.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="34.64"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -945,7 +946,7 @@
       <selection pane="topLeft" activeCell="K1" activeCellId="0" sqref="K1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -1351,10 +1352,10 @@
   <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F26" activeCellId="0" sqref="F26"/>
+      <selection pane="topLeft" activeCell="P33" activeCellId="0" sqref="P33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -2100,4 +2101,8466 @@
     <oddFooter/>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:K241"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="1" style="0" width="8.54"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3" t="n">
+        <v>6</v>
+      </c>
+      <c r="D2" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" s="3" t="n">
+        <v>420</v>
+      </c>
+      <c r="F2" s="3" t="n">
+        <v>402</v>
+      </c>
+      <c r="G2" s="3" t="n">
+        <v>417</v>
+      </c>
+      <c r="H2" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="I2" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="J2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2" s="3" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="C3" s="3" t="n">
+        <v>7</v>
+      </c>
+      <c r="D3" s="3" t="n">
+        <v>32</v>
+      </c>
+      <c r="E3" s="3" t="n">
+        <v>47</v>
+      </c>
+      <c r="F3" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" s="3" t="n">
+        <v>420</v>
+      </c>
+      <c r="H3" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="I3" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="J3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K3" s="3" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="C4" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="D4" s="3" t="n">
+        <v>14</v>
+      </c>
+      <c r="E4" s="3" t="n">
+        <v>29</v>
+      </c>
+      <c r="F4" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" s="3" t="n">
+        <v>420</v>
+      </c>
+      <c r="H4" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="I4" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="J4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K4" s="3" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="C5" s="3" t="n">
+        <v>9</v>
+      </c>
+      <c r="D5" s="3" t="n">
+        <v>198</v>
+      </c>
+      <c r="E5" s="3" t="n">
+        <v>213</v>
+      </c>
+      <c r="F5" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" s="3" t="n">
+        <v>420</v>
+      </c>
+      <c r="H5" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="I5" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="J5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K5" s="3" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="C6" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="D6" s="3" t="n">
+        <v>180</v>
+      </c>
+      <c r="E6" s="3" t="n">
+        <v>195</v>
+      </c>
+      <c r="F6" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" s="3" t="n">
+        <v>420</v>
+      </c>
+      <c r="H6" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="I6" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="J6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K6" s="3" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" s="3" t="n">
+        <v>6</v>
+      </c>
+      <c r="D7" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" s="3" t="n">
+        <v>420</v>
+      </c>
+      <c r="F7" s="3" t="n">
+        <v>402</v>
+      </c>
+      <c r="G7" s="3" t="n">
+        <v>417</v>
+      </c>
+      <c r="H7" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="I7" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="J7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K7" s="3" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="C8" s="3" t="n">
+        <v>7</v>
+      </c>
+      <c r="D8" s="3" t="n">
+        <v>32</v>
+      </c>
+      <c r="E8" s="3" t="n">
+        <v>47</v>
+      </c>
+      <c r="F8" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" s="3" t="n">
+        <v>420</v>
+      </c>
+      <c r="H8" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="I8" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="J8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K8" s="3" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="C9" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="D9" s="3" t="n">
+        <v>14</v>
+      </c>
+      <c r="E9" s="3" t="n">
+        <v>29</v>
+      </c>
+      <c r="F9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" s="3" t="n">
+        <v>420</v>
+      </c>
+      <c r="H9" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="I9" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="J9" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K9" s="3" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="C10" s="3" t="n">
+        <v>9</v>
+      </c>
+      <c r="D10" s="3" t="n">
+        <v>198</v>
+      </c>
+      <c r="E10" s="3" t="n">
+        <v>213</v>
+      </c>
+      <c r="F10" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" s="3" t="n">
+        <v>420</v>
+      </c>
+      <c r="H10" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="I10" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="J10" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K10" s="3" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="C11" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="D11" s="3" t="n">
+        <v>180</v>
+      </c>
+      <c r="E11" s="3" t="n">
+        <v>195</v>
+      </c>
+      <c r="F11" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" s="3" t="n">
+        <v>420</v>
+      </c>
+      <c r="H11" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="I11" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="J11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K11" s="3" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C12" s="3" t="n">
+        <v>6</v>
+      </c>
+      <c r="D12" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" s="3" t="n">
+        <v>420</v>
+      </c>
+      <c r="F12" s="3" t="n">
+        <v>402</v>
+      </c>
+      <c r="G12" s="3" t="n">
+        <v>417</v>
+      </c>
+      <c r="H12" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="I12" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="J12" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K12" s="3" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="C13" s="3" t="n">
+        <v>7</v>
+      </c>
+      <c r="D13" s="3" t="n">
+        <v>32</v>
+      </c>
+      <c r="E13" s="3" t="n">
+        <v>47</v>
+      </c>
+      <c r="F13" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" s="3" t="n">
+        <v>420</v>
+      </c>
+      <c r="H13" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="I13" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="J13" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K13" s="3" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="C14" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="D14" s="3" t="n">
+        <v>14</v>
+      </c>
+      <c r="E14" s="3" t="n">
+        <v>29</v>
+      </c>
+      <c r="F14" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3" t="n">
+        <v>420</v>
+      </c>
+      <c r="H14" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="I14" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="J14" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K14" s="3" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="C15" s="3" t="n">
+        <v>9</v>
+      </c>
+      <c r="D15" s="3" t="n">
+        <v>198</v>
+      </c>
+      <c r="E15" s="3" t="n">
+        <v>213</v>
+      </c>
+      <c r="F15" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" s="3" t="n">
+        <v>420</v>
+      </c>
+      <c r="H15" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="I15" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="J15" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K15" s="3" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="C16" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="D16" s="3" t="n">
+        <v>180</v>
+      </c>
+      <c r="E16" s="3" t="n">
+        <v>195</v>
+      </c>
+      <c r="F16" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" s="3" t="n">
+        <v>420</v>
+      </c>
+      <c r="H16" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="I16" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="J16" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K16" s="3" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C17" s="3" t="n">
+        <v>6</v>
+      </c>
+      <c r="D17" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" s="3" t="n">
+        <v>420</v>
+      </c>
+      <c r="F17" s="3" t="n">
+        <v>402</v>
+      </c>
+      <c r="G17" s="3" t="n">
+        <v>417</v>
+      </c>
+      <c r="H17" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="I17" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="J17" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K17" s="3" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="C18" s="3" t="n">
+        <v>7</v>
+      </c>
+      <c r="D18" s="3" t="n">
+        <v>32</v>
+      </c>
+      <c r="E18" s="3" t="n">
+        <v>47</v>
+      </c>
+      <c r="F18" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" s="3" t="n">
+        <v>420</v>
+      </c>
+      <c r="H18" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="I18" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="J18" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K18" s="3" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="C19" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="D19" s="3" t="n">
+        <v>14</v>
+      </c>
+      <c r="E19" s="3" t="n">
+        <v>29</v>
+      </c>
+      <c r="F19" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" s="3" t="n">
+        <v>420</v>
+      </c>
+      <c r="H19" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="I19" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="J19" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K19" s="3" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="C20" s="3" t="n">
+        <v>9</v>
+      </c>
+      <c r="D20" s="3" t="n">
+        <v>198</v>
+      </c>
+      <c r="E20" s="3" t="n">
+        <v>213</v>
+      </c>
+      <c r="F20" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3" t="n">
+        <v>420</v>
+      </c>
+      <c r="H20" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="I20" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="J20" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K20" s="3" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="C21" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="D21" s="3" t="n">
+        <v>180</v>
+      </c>
+      <c r="E21" s="3" t="n">
+        <v>195</v>
+      </c>
+      <c r="F21" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" s="3" t="n">
+        <v>420</v>
+      </c>
+      <c r="H21" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="I21" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="J21" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K21" s="3" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C22" s="3" t="n">
+        <v>6</v>
+      </c>
+      <c r="D22" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" s="3" t="n">
+        <v>420</v>
+      </c>
+      <c r="F22" s="3" t="n">
+        <v>402</v>
+      </c>
+      <c r="G22" s="3" t="n">
+        <v>417</v>
+      </c>
+      <c r="H22" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="I22" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="J22" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K22" s="3" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="C23" s="3" t="n">
+        <v>7</v>
+      </c>
+      <c r="D23" s="3" t="n">
+        <v>32</v>
+      </c>
+      <c r="E23" s="3" t="n">
+        <v>47</v>
+      </c>
+      <c r="F23" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" s="3" t="n">
+        <v>420</v>
+      </c>
+      <c r="H23" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="I23" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="J23" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K23" s="3" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="C24" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="D24" s="3" t="n">
+        <v>14</v>
+      </c>
+      <c r="E24" s="3" t="n">
+        <v>29</v>
+      </c>
+      <c r="F24" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" s="3" t="n">
+        <v>420</v>
+      </c>
+      <c r="H24" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="I24" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="J24" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K24" s="3" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="C25" s="3" t="n">
+        <v>9</v>
+      </c>
+      <c r="D25" s="3" t="n">
+        <v>198</v>
+      </c>
+      <c r="E25" s="3" t="n">
+        <v>213</v>
+      </c>
+      <c r="F25" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" s="3" t="n">
+        <v>420</v>
+      </c>
+      <c r="H25" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="I25" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="J25" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K25" s="3" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="C26" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="D26" s="3" t="n">
+        <v>180</v>
+      </c>
+      <c r="E26" s="3" t="n">
+        <v>195</v>
+      </c>
+      <c r="F26" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" s="3" t="n">
+        <v>420</v>
+      </c>
+      <c r="H26" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="I26" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="J26" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K26" s="3" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C27" s="3" t="n">
+        <v>6</v>
+      </c>
+      <c r="D27" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E27" s="3" t="n">
+        <v>420</v>
+      </c>
+      <c r="F27" s="3" t="n">
+        <v>402</v>
+      </c>
+      <c r="G27" s="3" t="n">
+        <v>417</v>
+      </c>
+      <c r="H27" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="I27" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="J27" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K27" s="3" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="C28" s="3" t="n">
+        <v>7</v>
+      </c>
+      <c r="D28" s="3" t="n">
+        <v>32</v>
+      </c>
+      <c r="E28" s="3" t="n">
+        <v>47</v>
+      </c>
+      <c r="F28" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" s="3" t="n">
+        <v>420</v>
+      </c>
+      <c r="H28" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="I28" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="J28" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K28" s="3" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="C29" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="D29" s="3" t="n">
+        <v>14</v>
+      </c>
+      <c r="E29" s="3" t="n">
+        <v>29</v>
+      </c>
+      <c r="F29" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3" t="n">
+        <v>420</v>
+      </c>
+      <c r="H29" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="I29" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="J29" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K29" s="3" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="C30" s="3" t="n">
+        <v>9</v>
+      </c>
+      <c r="D30" s="3" t="n">
+        <v>198</v>
+      </c>
+      <c r="E30" s="3" t="n">
+        <v>213</v>
+      </c>
+      <c r="F30" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G30" s="3" t="n">
+        <v>420</v>
+      </c>
+      <c r="H30" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="I30" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="J30" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K30" s="3" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="C31" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="D31" s="3" t="n">
+        <v>180</v>
+      </c>
+      <c r="E31" s="3" t="n">
+        <v>195</v>
+      </c>
+      <c r="F31" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G31" s="3" t="n">
+        <v>420</v>
+      </c>
+      <c r="H31" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="I31" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="J31" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K31" s="3" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="0" t="n">
+        <v>31</v>
+      </c>
+      <c r="B32" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C32" s="3" t="n">
+        <v>6</v>
+      </c>
+      <c r="D32" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E32" s="3" t="n">
+        <v>420</v>
+      </c>
+      <c r="F32" s="3" t="n">
+        <v>402</v>
+      </c>
+      <c r="G32" s="3" t="n">
+        <v>417</v>
+      </c>
+      <c r="H32" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="I32" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="J32" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K32" s="3" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="0" t="n">
+        <v>32</v>
+      </c>
+      <c r="B33" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="C33" s="3" t="n">
+        <v>7</v>
+      </c>
+      <c r="D33" s="3" t="n">
+        <v>32</v>
+      </c>
+      <c r="E33" s="3" t="n">
+        <v>47</v>
+      </c>
+      <c r="F33" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G33" s="3" t="n">
+        <v>420</v>
+      </c>
+      <c r="H33" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="I33" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="J33" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K33" s="3" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="0" t="n">
+        <v>33</v>
+      </c>
+      <c r="B34" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="C34" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="D34" s="3" t="n">
+        <v>14</v>
+      </c>
+      <c r="E34" s="3" t="n">
+        <v>29</v>
+      </c>
+      <c r="F34" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G34" s="3" t="n">
+        <v>420</v>
+      </c>
+      <c r="H34" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="I34" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="J34" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K34" s="3" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="0" t="n">
+        <v>34</v>
+      </c>
+      <c r="B35" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="C35" s="3" t="n">
+        <v>9</v>
+      </c>
+      <c r="D35" s="3" t="n">
+        <v>198</v>
+      </c>
+      <c r="E35" s="3" t="n">
+        <v>213</v>
+      </c>
+      <c r="F35" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" s="3" t="n">
+        <v>420</v>
+      </c>
+      <c r="H35" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="I35" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="J35" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K35" s="3" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="0" t="n">
+        <v>35</v>
+      </c>
+      <c r="B36" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="C36" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="D36" s="3" t="n">
+        <v>180</v>
+      </c>
+      <c r="E36" s="3" t="n">
+        <v>195</v>
+      </c>
+      <c r="F36" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G36" s="3" t="n">
+        <v>420</v>
+      </c>
+      <c r="H36" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="I36" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="J36" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K36" s="3" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="0" t="n">
+        <v>36</v>
+      </c>
+      <c r="B37" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C37" s="3" t="n">
+        <v>6</v>
+      </c>
+      <c r="D37" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E37" s="3" t="n">
+        <v>420</v>
+      </c>
+      <c r="F37" s="3" t="n">
+        <v>402</v>
+      </c>
+      <c r="G37" s="3" t="n">
+        <v>417</v>
+      </c>
+      <c r="H37" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="I37" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="J37" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K37" s="3" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="0" t="n">
+        <v>37</v>
+      </c>
+      <c r="B38" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="C38" s="3" t="n">
+        <v>7</v>
+      </c>
+      <c r="D38" s="3" t="n">
+        <v>32</v>
+      </c>
+      <c r="E38" s="3" t="n">
+        <v>47</v>
+      </c>
+      <c r="F38" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G38" s="3" t="n">
+        <v>420</v>
+      </c>
+      <c r="H38" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="I38" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="J38" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K38" s="3" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="0" t="n">
+        <v>38</v>
+      </c>
+      <c r="B39" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="C39" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="D39" s="3" t="n">
+        <v>14</v>
+      </c>
+      <c r="E39" s="3" t="n">
+        <v>29</v>
+      </c>
+      <c r="F39" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G39" s="3" t="n">
+        <v>420</v>
+      </c>
+      <c r="H39" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="I39" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="J39" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K39" s="3" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="0" t="n">
+        <v>39</v>
+      </c>
+      <c r="B40" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="C40" s="3" t="n">
+        <v>9</v>
+      </c>
+      <c r="D40" s="3" t="n">
+        <v>198</v>
+      </c>
+      <c r="E40" s="3" t="n">
+        <v>213</v>
+      </c>
+      <c r="F40" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G40" s="3" t="n">
+        <v>420</v>
+      </c>
+      <c r="H40" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="I40" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="J40" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K40" s="3" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="B41" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="C41" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="D41" s="3" t="n">
+        <v>180</v>
+      </c>
+      <c r="E41" s="3" t="n">
+        <v>195</v>
+      </c>
+      <c r="F41" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G41" s="3" t="n">
+        <v>420</v>
+      </c>
+      <c r="H41" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="I41" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="J41" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K41" s="3" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="0" t="n">
+        <v>41</v>
+      </c>
+      <c r="B42" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C42" s="3" t="n">
+        <v>6</v>
+      </c>
+      <c r="D42" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E42" s="3" t="n">
+        <v>420</v>
+      </c>
+      <c r="F42" s="3" t="n">
+        <v>402</v>
+      </c>
+      <c r="G42" s="3" t="n">
+        <v>417</v>
+      </c>
+      <c r="H42" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="I42" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="J42" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K42" s="3" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="0" t="n">
+        <v>42</v>
+      </c>
+      <c r="B43" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="C43" s="3" t="n">
+        <v>7</v>
+      </c>
+      <c r="D43" s="3" t="n">
+        <v>32</v>
+      </c>
+      <c r="E43" s="3" t="n">
+        <v>47</v>
+      </c>
+      <c r="F43" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G43" s="3" t="n">
+        <v>420</v>
+      </c>
+      <c r="H43" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="I43" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="J43" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K43" s="3" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="0" t="n">
+        <v>43</v>
+      </c>
+      <c r="B44" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="C44" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="D44" s="3" t="n">
+        <v>14</v>
+      </c>
+      <c r="E44" s="3" t="n">
+        <v>29</v>
+      </c>
+      <c r="F44" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G44" s="3" t="n">
+        <v>420</v>
+      </c>
+      <c r="H44" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="I44" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="J44" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K44" s="3" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="0" t="n">
+        <v>44</v>
+      </c>
+      <c r="B45" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="C45" s="3" t="n">
+        <v>9</v>
+      </c>
+      <c r="D45" s="3" t="n">
+        <v>198</v>
+      </c>
+      <c r="E45" s="3" t="n">
+        <v>213</v>
+      </c>
+      <c r="F45" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G45" s="3" t="n">
+        <v>420</v>
+      </c>
+      <c r="H45" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="I45" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="J45" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K45" s="3" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="0" t="n">
+        <v>45</v>
+      </c>
+      <c r="B46" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="C46" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="D46" s="3" t="n">
+        <v>180</v>
+      </c>
+      <c r="E46" s="3" t="n">
+        <v>195</v>
+      </c>
+      <c r="F46" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G46" s="3" t="n">
+        <v>420</v>
+      </c>
+      <c r="H46" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="I46" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="J46" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K46" s="3" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="0" t="n">
+        <v>46</v>
+      </c>
+      <c r="B47" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C47" s="3" t="n">
+        <v>6</v>
+      </c>
+      <c r="D47" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E47" s="3" t="n">
+        <v>420</v>
+      </c>
+      <c r="F47" s="3" t="n">
+        <v>402</v>
+      </c>
+      <c r="G47" s="3" t="n">
+        <v>417</v>
+      </c>
+      <c r="H47" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="I47" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="J47" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K47" s="3" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="0" t="n">
+        <v>47</v>
+      </c>
+      <c r="B48" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="C48" s="3" t="n">
+        <v>7</v>
+      </c>
+      <c r="D48" s="3" t="n">
+        <v>32</v>
+      </c>
+      <c r="E48" s="3" t="n">
+        <v>47</v>
+      </c>
+      <c r="F48" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G48" s="3" t="n">
+        <v>420</v>
+      </c>
+      <c r="H48" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="I48" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="J48" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K48" s="3" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="0" t="n">
+        <v>48</v>
+      </c>
+      <c r="B49" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="C49" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="D49" s="3" t="n">
+        <v>14</v>
+      </c>
+      <c r="E49" s="3" t="n">
+        <v>29</v>
+      </c>
+      <c r="F49" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G49" s="3" t="n">
+        <v>420</v>
+      </c>
+      <c r="H49" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="I49" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="J49" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K49" s="3" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="0" t="n">
+        <v>49</v>
+      </c>
+      <c r="B50" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="C50" s="3" t="n">
+        <v>9</v>
+      </c>
+      <c r="D50" s="3" t="n">
+        <v>198</v>
+      </c>
+      <c r="E50" s="3" t="n">
+        <v>213</v>
+      </c>
+      <c r="F50" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G50" s="3" t="n">
+        <v>420</v>
+      </c>
+      <c r="H50" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="I50" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="J50" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K50" s="3" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="B51" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="C51" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="D51" s="3" t="n">
+        <v>180</v>
+      </c>
+      <c r="E51" s="3" t="n">
+        <v>195</v>
+      </c>
+      <c r="F51" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G51" s="3" t="n">
+        <v>420</v>
+      </c>
+      <c r="H51" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="I51" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="J51" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K51" s="3" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="0" t="n">
+        <v>51</v>
+      </c>
+      <c r="B52" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C52" s="3" t="n">
+        <v>6</v>
+      </c>
+      <c r="D52" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E52" s="3" t="n">
+        <v>420</v>
+      </c>
+      <c r="F52" s="3" t="n">
+        <v>402</v>
+      </c>
+      <c r="G52" s="3" t="n">
+        <v>417</v>
+      </c>
+      <c r="H52" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="I52" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="J52" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K52" s="3" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="0" t="n">
+        <v>52</v>
+      </c>
+      <c r="B53" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="C53" s="3" t="n">
+        <v>7</v>
+      </c>
+      <c r="D53" s="3" t="n">
+        <v>32</v>
+      </c>
+      <c r="E53" s="3" t="n">
+        <v>47</v>
+      </c>
+      <c r="F53" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G53" s="3" t="n">
+        <v>420</v>
+      </c>
+      <c r="H53" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="I53" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="J53" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K53" s="3" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="0" t="n">
+        <v>53</v>
+      </c>
+      <c r="B54" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="C54" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="D54" s="3" t="n">
+        <v>14</v>
+      </c>
+      <c r="E54" s="3" t="n">
+        <v>29</v>
+      </c>
+      <c r="F54" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G54" s="3" t="n">
+        <v>420</v>
+      </c>
+      <c r="H54" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="I54" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="J54" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K54" s="3" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="0" t="n">
+        <v>54</v>
+      </c>
+      <c r="B55" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="C55" s="3" t="n">
+        <v>9</v>
+      </c>
+      <c r="D55" s="3" t="n">
+        <v>198</v>
+      </c>
+      <c r="E55" s="3" t="n">
+        <v>213</v>
+      </c>
+      <c r="F55" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G55" s="3" t="n">
+        <v>420</v>
+      </c>
+      <c r="H55" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="I55" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="J55" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K55" s="3" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="0" t="n">
+        <v>55</v>
+      </c>
+      <c r="B56" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="C56" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="D56" s="3" t="n">
+        <v>180</v>
+      </c>
+      <c r="E56" s="3" t="n">
+        <v>195</v>
+      </c>
+      <c r="F56" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G56" s="3" t="n">
+        <v>420</v>
+      </c>
+      <c r="H56" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="I56" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="J56" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K56" s="3" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="0" t="n">
+        <v>56</v>
+      </c>
+      <c r="B57" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C57" s="3" t="n">
+        <v>6</v>
+      </c>
+      <c r="D57" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E57" s="3" t="n">
+        <v>420</v>
+      </c>
+      <c r="F57" s="3" t="n">
+        <v>402</v>
+      </c>
+      <c r="G57" s="3" t="n">
+        <v>417</v>
+      </c>
+      <c r="H57" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="I57" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="J57" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K57" s="3" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="0" t="n">
+        <v>57</v>
+      </c>
+      <c r="B58" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="C58" s="3" t="n">
+        <v>7</v>
+      </c>
+      <c r="D58" s="3" t="n">
+        <v>32</v>
+      </c>
+      <c r="E58" s="3" t="n">
+        <v>47</v>
+      </c>
+      <c r="F58" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G58" s="3" t="n">
+        <v>420</v>
+      </c>
+      <c r="H58" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="I58" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="J58" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K58" s="3" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="0" t="n">
+        <v>58</v>
+      </c>
+      <c r="B59" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="C59" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="D59" s="3" t="n">
+        <v>14</v>
+      </c>
+      <c r="E59" s="3" t="n">
+        <v>29</v>
+      </c>
+      <c r="F59" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G59" s="3" t="n">
+        <v>420</v>
+      </c>
+      <c r="H59" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="I59" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="J59" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K59" s="3" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="0" t="n">
+        <v>59</v>
+      </c>
+      <c r="B60" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="C60" s="3" t="n">
+        <v>9</v>
+      </c>
+      <c r="D60" s="3" t="n">
+        <v>198</v>
+      </c>
+      <c r="E60" s="3" t="n">
+        <v>213</v>
+      </c>
+      <c r="F60" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G60" s="3" t="n">
+        <v>420</v>
+      </c>
+      <c r="H60" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="I60" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="J60" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K60" s="3" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="B61" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="C61" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="D61" s="3" t="n">
+        <v>180</v>
+      </c>
+      <c r="E61" s="3" t="n">
+        <v>195</v>
+      </c>
+      <c r="F61" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G61" s="3" t="n">
+        <v>420</v>
+      </c>
+      <c r="H61" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="I61" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="J61" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K61" s="3" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="0" t="n">
+        <v>61</v>
+      </c>
+      <c r="B62" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C62" s="3" t="n">
+        <v>6</v>
+      </c>
+      <c r="D62" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E62" s="3" t="n">
+        <v>420</v>
+      </c>
+      <c r="F62" s="3" t="n">
+        <v>402</v>
+      </c>
+      <c r="G62" s="3" t="n">
+        <v>417</v>
+      </c>
+      <c r="H62" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="I62" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="J62" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K62" s="3" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="0" t="n">
+        <v>62</v>
+      </c>
+      <c r="B63" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="C63" s="3" t="n">
+        <v>7</v>
+      </c>
+      <c r="D63" s="3" t="n">
+        <v>32</v>
+      </c>
+      <c r="E63" s="3" t="n">
+        <v>47</v>
+      </c>
+      <c r="F63" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G63" s="3" t="n">
+        <v>420</v>
+      </c>
+      <c r="H63" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="I63" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="J63" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K63" s="3" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="0" t="n">
+        <v>63</v>
+      </c>
+      <c r="B64" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="C64" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="D64" s="3" t="n">
+        <v>14</v>
+      </c>
+      <c r="E64" s="3" t="n">
+        <v>29</v>
+      </c>
+      <c r="F64" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G64" s="3" t="n">
+        <v>420</v>
+      </c>
+      <c r="H64" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="I64" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="J64" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K64" s="3" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="0" t="n">
+        <v>64</v>
+      </c>
+      <c r="B65" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="C65" s="3" t="n">
+        <v>9</v>
+      </c>
+      <c r="D65" s="3" t="n">
+        <v>198</v>
+      </c>
+      <c r="E65" s="3" t="n">
+        <v>213</v>
+      </c>
+      <c r="F65" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G65" s="3" t="n">
+        <v>420</v>
+      </c>
+      <c r="H65" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="I65" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="J65" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K65" s="3" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="0" t="n">
+        <v>65</v>
+      </c>
+      <c r="B66" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="C66" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="D66" s="3" t="n">
+        <v>180</v>
+      </c>
+      <c r="E66" s="3" t="n">
+        <v>195</v>
+      </c>
+      <c r="F66" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G66" s="3" t="n">
+        <v>420</v>
+      </c>
+      <c r="H66" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="I66" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="J66" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K66" s="3" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="0" t="n">
+        <v>66</v>
+      </c>
+      <c r="B67" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C67" s="3" t="n">
+        <v>6</v>
+      </c>
+      <c r="D67" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E67" s="3" t="n">
+        <v>420</v>
+      </c>
+      <c r="F67" s="3" t="n">
+        <v>402</v>
+      </c>
+      <c r="G67" s="3" t="n">
+        <v>417</v>
+      </c>
+      <c r="H67" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="I67" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="J67" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K67" s="3" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="0" t="n">
+        <v>67</v>
+      </c>
+      <c r="B68" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="C68" s="3" t="n">
+        <v>7</v>
+      </c>
+      <c r="D68" s="3" t="n">
+        <v>32</v>
+      </c>
+      <c r="E68" s="3" t="n">
+        <v>47</v>
+      </c>
+      <c r="F68" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G68" s="3" t="n">
+        <v>420</v>
+      </c>
+      <c r="H68" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="I68" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="J68" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K68" s="3" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="0" t="n">
+        <v>68</v>
+      </c>
+      <c r="B69" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="C69" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="D69" s="3" t="n">
+        <v>14</v>
+      </c>
+      <c r="E69" s="3" t="n">
+        <v>29</v>
+      </c>
+      <c r="F69" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G69" s="3" t="n">
+        <v>420</v>
+      </c>
+      <c r="H69" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="I69" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="J69" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K69" s="3" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="0" t="n">
+        <v>69</v>
+      </c>
+      <c r="B70" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="C70" s="3" t="n">
+        <v>9</v>
+      </c>
+      <c r="D70" s="3" t="n">
+        <v>198</v>
+      </c>
+      <c r="E70" s="3" t="n">
+        <v>213</v>
+      </c>
+      <c r="F70" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G70" s="3" t="n">
+        <v>420</v>
+      </c>
+      <c r="H70" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="I70" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="J70" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K70" s="3" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="0" t="n">
+        <v>70</v>
+      </c>
+      <c r="B71" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="C71" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="D71" s="3" t="n">
+        <v>180</v>
+      </c>
+      <c r="E71" s="3" t="n">
+        <v>195</v>
+      </c>
+      <c r="F71" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G71" s="3" t="n">
+        <v>420</v>
+      </c>
+      <c r="H71" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="I71" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="J71" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K71" s="3" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="0" t="n">
+        <v>71</v>
+      </c>
+      <c r="B72" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C72" s="3" t="n">
+        <v>6</v>
+      </c>
+      <c r="D72" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E72" s="3" t="n">
+        <v>420</v>
+      </c>
+      <c r="F72" s="3" t="n">
+        <v>402</v>
+      </c>
+      <c r="G72" s="3" t="n">
+        <v>417</v>
+      </c>
+      <c r="H72" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="I72" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="J72" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K72" s="3" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="0" t="n">
+        <v>72</v>
+      </c>
+      <c r="B73" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="C73" s="3" t="n">
+        <v>7</v>
+      </c>
+      <c r="D73" s="3" t="n">
+        <v>32</v>
+      </c>
+      <c r="E73" s="3" t="n">
+        <v>47</v>
+      </c>
+      <c r="F73" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G73" s="3" t="n">
+        <v>420</v>
+      </c>
+      <c r="H73" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="I73" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="J73" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K73" s="3" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="0" t="n">
+        <v>73</v>
+      </c>
+      <c r="B74" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="C74" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="D74" s="3" t="n">
+        <v>14</v>
+      </c>
+      <c r="E74" s="3" t="n">
+        <v>29</v>
+      </c>
+      <c r="F74" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G74" s="3" t="n">
+        <v>420</v>
+      </c>
+      <c r="H74" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="I74" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="J74" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K74" s="3" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="0" t="n">
+        <v>74</v>
+      </c>
+      <c r="B75" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="C75" s="3" t="n">
+        <v>9</v>
+      </c>
+      <c r="D75" s="3" t="n">
+        <v>198</v>
+      </c>
+      <c r="E75" s="3" t="n">
+        <v>213</v>
+      </c>
+      <c r="F75" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G75" s="3" t="n">
+        <v>420</v>
+      </c>
+      <c r="H75" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="I75" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="J75" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K75" s="3" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="0" t="n">
+        <v>75</v>
+      </c>
+      <c r="B76" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="C76" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="D76" s="3" t="n">
+        <v>180</v>
+      </c>
+      <c r="E76" s="3" t="n">
+        <v>195</v>
+      </c>
+      <c r="F76" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G76" s="3" t="n">
+        <v>420</v>
+      </c>
+      <c r="H76" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="I76" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="J76" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K76" s="3" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="0" t="n">
+        <v>76</v>
+      </c>
+      <c r="B77" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C77" s="3" t="n">
+        <v>6</v>
+      </c>
+      <c r="D77" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E77" s="3" t="n">
+        <v>420</v>
+      </c>
+      <c r="F77" s="3" t="n">
+        <v>402</v>
+      </c>
+      <c r="G77" s="3" t="n">
+        <v>417</v>
+      </c>
+      <c r="H77" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="I77" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="J77" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K77" s="3" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="0" t="n">
+        <v>77</v>
+      </c>
+      <c r="B78" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="C78" s="3" t="n">
+        <v>7</v>
+      </c>
+      <c r="D78" s="3" t="n">
+        <v>32</v>
+      </c>
+      <c r="E78" s="3" t="n">
+        <v>47</v>
+      </c>
+      <c r="F78" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G78" s="3" t="n">
+        <v>420</v>
+      </c>
+      <c r="H78" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="I78" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="J78" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K78" s="3" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="0" t="n">
+        <v>78</v>
+      </c>
+      <c r="B79" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="C79" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="D79" s="3" t="n">
+        <v>14</v>
+      </c>
+      <c r="E79" s="3" t="n">
+        <v>29</v>
+      </c>
+      <c r="F79" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G79" s="3" t="n">
+        <v>420</v>
+      </c>
+      <c r="H79" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="I79" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="J79" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K79" s="3" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="0" t="n">
+        <v>79</v>
+      </c>
+      <c r="B80" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="C80" s="3" t="n">
+        <v>9</v>
+      </c>
+      <c r="D80" s="3" t="n">
+        <v>198</v>
+      </c>
+      <c r="E80" s="3" t="n">
+        <v>213</v>
+      </c>
+      <c r="F80" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G80" s="3" t="n">
+        <v>420</v>
+      </c>
+      <c r="H80" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="I80" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="J80" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K80" s="3" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="B81" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="C81" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="D81" s="3" t="n">
+        <v>180</v>
+      </c>
+      <c r="E81" s="3" t="n">
+        <v>195</v>
+      </c>
+      <c r="F81" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G81" s="3" t="n">
+        <v>420</v>
+      </c>
+      <c r="H81" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="I81" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="J81" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K81" s="3" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="0" t="n">
+        <v>81</v>
+      </c>
+      <c r="B82" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C82" s="3" t="n">
+        <v>6</v>
+      </c>
+      <c r="D82" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E82" s="3" t="n">
+        <v>420</v>
+      </c>
+      <c r="F82" s="3" t="n">
+        <v>402</v>
+      </c>
+      <c r="G82" s="3" t="n">
+        <v>417</v>
+      </c>
+      <c r="H82" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="I82" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="J82" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K82" s="3" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="0" t="n">
+        <v>82</v>
+      </c>
+      <c r="B83" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="C83" s="3" t="n">
+        <v>7</v>
+      </c>
+      <c r="D83" s="3" t="n">
+        <v>32</v>
+      </c>
+      <c r="E83" s="3" t="n">
+        <v>47</v>
+      </c>
+      <c r="F83" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G83" s="3" t="n">
+        <v>420</v>
+      </c>
+      <c r="H83" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="I83" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="J83" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K83" s="3" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="0" t="n">
+        <v>83</v>
+      </c>
+      <c r="B84" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="C84" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="D84" s="3" t="n">
+        <v>14</v>
+      </c>
+      <c r="E84" s="3" t="n">
+        <v>29</v>
+      </c>
+      <c r="F84" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G84" s="3" t="n">
+        <v>420</v>
+      </c>
+      <c r="H84" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="I84" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="J84" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K84" s="3" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="0" t="n">
+        <v>84</v>
+      </c>
+      <c r="B85" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="C85" s="3" t="n">
+        <v>9</v>
+      </c>
+      <c r="D85" s="3" t="n">
+        <v>198</v>
+      </c>
+      <c r="E85" s="3" t="n">
+        <v>213</v>
+      </c>
+      <c r="F85" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G85" s="3" t="n">
+        <v>420</v>
+      </c>
+      <c r="H85" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="I85" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="J85" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K85" s="3" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="0" t="n">
+        <v>85</v>
+      </c>
+      <c r="B86" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="C86" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="D86" s="3" t="n">
+        <v>180</v>
+      </c>
+      <c r="E86" s="3" t="n">
+        <v>195</v>
+      </c>
+      <c r="F86" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G86" s="3" t="n">
+        <v>420</v>
+      </c>
+      <c r="H86" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="I86" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="J86" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K86" s="3" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="0" t="n">
+        <v>86</v>
+      </c>
+      <c r="B87" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C87" s="3" t="n">
+        <v>6</v>
+      </c>
+      <c r="D87" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E87" s="3" t="n">
+        <v>420</v>
+      </c>
+      <c r="F87" s="3" t="n">
+        <v>402</v>
+      </c>
+      <c r="G87" s="3" t="n">
+        <v>417</v>
+      </c>
+      <c r="H87" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="I87" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="J87" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K87" s="3" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="0" t="n">
+        <v>87</v>
+      </c>
+      <c r="B88" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="C88" s="3" t="n">
+        <v>7</v>
+      </c>
+      <c r="D88" s="3" t="n">
+        <v>32</v>
+      </c>
+      <c r="E88" s="3" t="n">
+        <v>47</v>
+      </c>
+      <c r="F88" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G88" s="3" t="n">
+        <v>420</v>
+      </c>
+      <c r="H88" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="I88" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="J88" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K88" s="3" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="0" t="n">
+        <v>88</v>
+      </c>
+      <c r="B89" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="C89" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="D89" s="3" t="n">
+        <v>14</v>
+      </c>
+      <c r="E89" s="3" t="n">
+        <v>29</v>
+      </c>
+      <c r="F89" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G89" s="3" t="n">
+        <v>420</v>
+      </c>
+      <c r="H89" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="I89" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="J89" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K89" s="3" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="0" t="n">
+        <v>89</v>
+      </c>
+      <c r="B90" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="C90" s="3" t="n">
+        <v>9</v>
+      </c>
+      <c r="D90" s="3" t="n">
+        <v>198</v>
+      </c>
+      <c r="E90" s="3" t="n">
+        <v>213</v>
+      </c>
+      <c r="F90" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G90" s="3" t="n">
+        <v>420</v>
+      </c>
+      <c r="H90" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="I90" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="J90" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K90" s="3" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="0" t="n">
+        <v>90</v>
+      </c>
+      <c r="B91" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="C91" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="D91" s="3" t="n">
+        <v>180</v>
+      </c>
+      <c r="E91" s="3" t="n">
+        <v>195</v>
+      </c>
+      <c r="F91" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G91" s="3" t="n">
+        <v>420</v>
+      </c>
+      <c r="H91" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="I91" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="J91" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K91" s="3" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="0" t="n">
+        <v>91</v>
+      </c>
+      <c r="B92" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C92" s="3" t="n">
+        <v>6</v>
+      </c>
+      <c r="D92" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E92" s="3" t="n">
+        <v>420</v>
+      </c>
+      <c r="F92" s="3" t="n">
+        <v>402</v>
+      </c>
+      <c r="G92" s="3" t="n">
+        <v>417</v>
+      </c>
+      <c r="H92" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="I92" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="J92" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K92" s="3" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="0" t="n">
+        <v>92</v>
+      </c>
+      <c r="B93" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="C93" s="3" t="n">
+        <v>7</v>
+      </c>
+      <c r="D93" s="3" t="n">
+        <v>32</v>
+      </c>
+      <c r="E93" s="3" t="n">
+        <v>47</v>
+      </c>
+      <c r="F93" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G93" s="3" t="n">
+        <v>420</v>
+      </c>
+      <c r="H93" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="I93" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="J93" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K93" s="3" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="0" t="n">
+        <v>93</v>
+      </c>
+      <c r="B94" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="C94" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="D94" s="3" t="n">
+        <v>14</v>
+      </c>
+      <c r="E94" s="3" t="n">
+        <v>29</v>
+      </c>
+      <c r="F94" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G94" s="3" t="n">
+        <v>420</v>
+      </c>
+      <c r="H94" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="I94" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="J94" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K94" s="3" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A95" s="0" t="n">
+        <v>94</v>
+      </c>
+      <c r="B95" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="C95" s="3" t="n">
+        <v>9</v>
+      </c>
+      <c r="D95" s="3" t="n">
+        <v>198</v>
+      </c>
+      <c r="E95" s="3" t="n">
+        <v>213</v>
+      </c>
+      <c r="F95" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G95" s="3" t="n">
+        <v>420</v>
+      </c>
+      <c r="H95" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="I95" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="J95" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K95" s="3" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="0" t="n">
+        <v>95</v>
+      </c>
+      <c r="B96" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="C96" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="D96" s="3" t="n">
+        <v>180</v>
+      </c>
+      <c r="E96" s="3" t="n">
+        <v>195</v>
+      </c>
+      <c r="F96" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G96" s="3" t="n">
+        <v>420</v>
+      </c>
+      <c r="H96" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="I96" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="J96" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K96" s="3" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A97" s="0" t="n">
+        <v>96</v>
+      </c>
+      <c r="B97" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C97" s="3" t="n">
+        <v>6</v>
+      </c>
+      <c r="D97" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E97" s="3" t="n">
+        <v>420</v>
+      </c>
+      <c r="F97" s="3" t="n">
+        <v>402</v>
+      </c>
+      <c r="G97" s="3" t="n">
+        <v>417</v>
+      </c>
+      <c r="H97" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="I97" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="J97" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K97" s="3" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A98" s="0" t="n">
+        <v>97</v>
+      </c>
+      <c r="B98" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="C98" s="3" t="n">
+        <v>7</v>
+      </c>
+      <c r="D98" s="3" t="n">
+        <v>32</v>
+      </c>
+      <c r="E98" s="3" t="n">
+        <v>47</v>
+      </c>
+      <c r="F98" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G98" s="3" t="n">
+        <v>420</v>
+      </c>
+      <c r="H98" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="I98" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="J98" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K98" s="3" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A99" s="0" t="n">
+        <v>98</v>
+      </c>
+      <c r="B99" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="C99" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="D99" s="3" t="n">
+        <v>14</v>
+      </c>
+      <c r="E99" s="3" t="n">
+        <v>29</v>
+      </c>
+      <c r="F99" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G99" s="3" t="n">
+        <v>420</v>
+      </c>
+      <c r="H99" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="I99" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="J99" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K99" s="3" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A100" s="0" t="n">
+        <v>99</v>
+      </c>
+      <c r="B100" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="C100" s="3" t="n">
+        <v>9</v>
+      </c>
+      <c r="D100" s="3" t="n">
+        <v>198</v>
+      </c>
+      <c r="E100" s="3" t="n">
+        <v>213</v>
+      </c>
+      <c r="F100" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3" t="n">
+        <v>420</v>
+      </c>
+      <c r="H100" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="I100" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="J100" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K100" s="3" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A101" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="B101" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="C101" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="D101" s="3" t="n">
+        <v>180</v>
+      </c>
+      <c r="E101" s="3" t="n">
+        <v>195</v>
+      </c>
+      <c r="F101" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G101" s="3" t="n">
+        <v>420</v>
+      </c>
+      <c r="H101" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="I101" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="J101" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K101" s="3" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A102" s="0" t="n">
+        <v>101</v>
+      </c>
+      <c r="B102" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C102" s="3" t="n">
+        <v>6</v>
+      </c>
+      <c r="D102" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E102" s="3" t="n">
+        <v>420</v>
+      </c>
+      <c r="F102" s="3" t="n">
+        <v>402</v>
+      </c>
+      <c r="G102" s="3" t="n">
+        <v>417</v>
+      </c>
+      <c r="H102" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="I102" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="J102" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K102" s="3" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A103" s="0" t="n">
+        <v>102</v>
+      </c>
+      <c r="B103" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="C103" s="3" t="n">
+        <v>7</v>
+      </c>
+      <c r="D103" s="3" t="n">
+        <v>32</v>
+      </c>
+      <c r="E103" s="3" t="n">
+        <v>47</v>
+      </c>
+      <c r="F103" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G103" s="3" t="n">
+        <v>420</v>
+      </c>
+      <c r="H103" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="I103" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="J103" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K103" s="3" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A104" s="0" t="n">
+        <v>103</v>
+      </c>
+      <c r="B104" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="C104" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="D104" s="3" t="n">
+        <v>14</v>
+      </c>
+      <c r="E104" s="3" t="n">
+        <v>29</v>
+      </c>
+      <c r="F104" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G104" s="3" t="n">
+        <v>420</v>
+      </c>
+      <c r="H104" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="I104" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="J104" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K104" s="3" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A105" s="0" t="n">
+        <v>104</v>
+      </c>
+      <c r="B105" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="C105" s="3" t="n">
+        <v>9</v>
+      </c>
+      <c r="D105" s="3" t="n">
+        <v>198</v>
+      </c>
+      <c r="E105" s="3" t="n">
+        <v>213</v>
+      </c>
+      <c r="F105" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G105" s="3" t="n">
+        <v>420</v>
+      </c>
+      <c r="H105" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="I105" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="J105" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K105" s="3" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A106" s="0" t="n">
+        <v>105</v>
+      </c>
+      <c r="B106" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="C106" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="D106" s="3" t="n">
+        <v>180</v>
+      </c>
+      <c r="E106" s="3" t="n">
+        <v>195</v>
+      </c>
+      <c r="F106" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G106" s="3" t="n">
+        <v>420</v>
+      </c>
+      <c r="H106" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="I106" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="J106" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K106" s="3" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A107" s="0" t="n">
+        <v>106</v>
+      </c>
+      <c r="B107" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C107" s="3" t="n">
+        <v>6</v>
+      </c>
+      <c r="D107" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E107" s="3" t="n">
+        <v>420</v>
+      </c>
+      <c r="F107" s="3" t="n">
+        <v>402</v>
+      </c>
+      <c r="G107" s="3" t="n">
+        <v>417</v>
+      </c>
+      <c r="H107" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="I107" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="J107" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K107" s="3" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A108" s="0" t="n">
+        <v>107</v>
+      </c>
+      <c r="B108" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="C108" s="3" t="n">
+        <v>7</v>
+      </c>
+      <c r="D108" s="3" t="n">
+        <v>32</v>
+      </c>
+      <c r="E108" s="3" t="n">
+        <v>47</v>
+      </c>
+      <c r="F108" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G108" s="3" t="n">
+        <v>420</v>
+      </c>
+      <c r="H108" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="I108" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="J108" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K108" s="3" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A109" s="0" t="n">
+        <v>108</v>
+      </c>
+      <c r="B109" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="C109" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="D109" s="3" t="n">
+        <v>14</v>
+      </c>
+      <c r="E109" s="3" t="n">
+        <v>29</v>
+      </c>
+      <c r="F109" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G109" s="3" t="n">
+        <v>420</v>
+      </c>
+      <c r="H109" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="I109" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="J109" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K109" s="3" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A110" s="0" t="n">
+        <v>109</v>
+      </c>
+      <c r="B110" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="C110" s="3" t="n">
+        <v>9</v>
+      </c>
+      <c r="D110" s="3" t="n">
+        <v>198</v>
+      </c>
+      <c r="E110" s="3" t="n">
+        <v>213</v>
+      </c>
+      <c r="F110" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G110" s="3" t="n">
+        <v>420</v>
+      </c>
+      <c r="H110" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="I110" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="J110" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K110" s="3" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A111" s="0" t="n">
+        <v>110</v>
+      </c>
+      <c r="B111" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="C111" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="D111" s="3" t="n">
+        <v>180</v>
+      </c>
+      <c r="E111" s="3" t="n">
+        <v>195</v>
+      </c>
+      <c r="F111" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G111" s="3" t="n">
+        <v>420</v>
+      </c>
+      <c r="H111" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="I111" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="J111" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K111" s="3" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A112" s="0" t="n">
+        <v>111</v>
+      </c>
+      <c r="B112" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C112" s="3" t="n">
+        <v>6</v>
+      </c>
+      <c r="D112" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E112" s="3" t="n">
+        <v>420</v>
+      </c>
+      <c r="F112" s="3" t="n">
+        <v>402</v>
+      </c>
+      <c r="G112" s="3" t="n">
+        <v>417</v>
+      </c>
+      <c r="H112" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="I112" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="J112" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K112" s="3" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A113" s="0" t="n">
+        <v>112</v>
+      </c>
+      <c r="B113" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="C113" s="3" t="n">
+        <v>7</v>
+      </c>
+      <c r="D113" s="3" t="n">
+        <v>32</v>
+      </c>
+      <c r="E113" s="3" t="n">
+        <v>47</v>
+      </c>
+      <c r="F113" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G113" s="3" t="n">
+        <v>420</v>
+      </c>
+      <c r="H113" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="I113" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="J113" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K113" s="3" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A114" s="0" t="n">
+        <v>113</v>
+      </c>
+      <c r="B114" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="C114" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="D114" s="3" t="n">
+        <v>14</v>
+      </c>
+      <c r="E114" s="3" t="n">
+        <v>29</v>
+      </c>
+      <c r="F114" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G114" s="3" t="n">
+        <v>420</v>
+      </c>
+      <c r="H114" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="I114" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="J114" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K114" s="3" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A115" s="0" t="n">
+        <v>114</v>
+      </c>
+      <c r="B115" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="C115" s="3" t="n">
+        <v>9</v>
+      </c>
+      <c r="D115" s="3" t="n">
+        <v>198</v>
+      </c>
+      <c r="E115" s="3" t="n">
+        <v>213</v>
+      </c>
+      <c r="F115" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G115" s="3" t="n">
+        <v>420</v>
+      </c>
+      <c r="H115" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="I115" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="J115" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K115" s="3" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A116" s="0" t="n">
+        <v>115</v>
+      </c>
+      <c r="B116" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="C116" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="D116" s="3" t="n">
+        <v>180</v>
+      </c>
+      <c r="E116" s="3" t="n">
+        <v>195</v>
+      </c>
+      <c r="F116" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G116" s="3" t="n">
+        <v>420</v>
+      </c>
+      <c r="H116" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="I116" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="J116" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K116" s="3" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A117" s="0" t="n">
+        <v>116</v>
+      </c>
+      <c r="B117" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C117" s="3" t="n">
+        <v>6</v>
+      </c>
+      <c r="D117" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E117" s="3" t="n">
+        <v>420</v>
+      </c>
+      <c r="F117" s="3" t="n">
+        <v>402</v>
+      </c>
+      <c r="G117" s="3" t="n">
+        <v>417</v>
+      </c>
+      <c r="H117" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="I117" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="J117" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K117" s="3" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A118" s="0" t="n">
+        <v>117</v>
+      </c>
+      <c r="B118" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="C118" s="3" t="n">
+        <v>7</v>
+      </c>
+      <c r="D118" s="3" t="n">
+        <v>32</v>
+      </c>
+      <c r="E118" s="3" t="n">
+        <v>47</v>
+      </c>
+      <c r="F118" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G118" s="3" t="n">
+        <v>420</v>
+      </c>
+      <c r="H118" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="I118" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="J118" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K118" s="3" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A119" s="0" t="n">
+        <v>118</v>
+      </c>
+      <c r="B119" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="C119" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="D119" s="3" t="n">
+        <v>14</v>
+      </c>
+      <c r="E119" s="3" t="n">
+        <v>29</v>
+      </c>
+      <c r="F119" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G119" s="3" t="n">
+        <v>420</v>
+      </c>
+      <c r="H119" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="I119" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="J119" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K119" s="3" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A120" s="0" t="n">
+        <v>119</v>
+      </c>
+      <c r="B120" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="C120" s="3" t="n">
+        <v>9</v>
+      </c>
+      <c r="D120" s="3" t="n">
+        <v>198</v>
+      </c>
+      <c r="E120" s="3" t="n">
+        <v>213</v>
+      </c>
+      <c r="F120" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G120" s="3" t="n">
+        <v>420</v>
+      </c>
+      <c r="H120" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="I120" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="J120" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K120" s="3" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A121" s="0" t="n">
+        <v>120</v>
+      </c>
+      <c r="B121" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="C121" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="D121" s="3" t="n">
+        <v>180</v>
+      </c>
+      <c r="E121" s="3" t="n">
+        <v>195</v>
+      </c>
+      <c r="F121" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G121" s="3" t="n">
+        <v>420</v>
+      </c>
+      <c r="H121" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="I121" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="J121" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K121" s="3" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A122" s="0" t="n">
+        <v>121</v>
+      </c>
+      <c r="B122" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C122" s="3" t="n">
+        <v>6</v>
+      </c>
+      <c r="D122" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E122" s="3" t="n">
+        <v>420</v>
+      </c>
+      <c r="F122" s="3" t="n">
+        <v>402</v>
+      </c>
+      <c r="G122" s="3" t="n">
+        <v>417</v>
+      </c>
+      <c r="H122" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="I122" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="J122" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K122" s="3" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A123" s="0" t="n">
+        <v>122</v>
+      </c>
+      <c r="B123" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="C123" s="3" t="n">
+        <v>7</v>
+      </c>
+      <c r="D123" s="3" t="n">
+        <v>32</v>
+      </c>
+      <c r="E123" s="3" t="n">
+        <v>47</v>
+      </c>
+      <c r="F123" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G123" s="3" t="n">
+        <v>420</v>
+      </c>
+      <c r="H123" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="I123" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="J123" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K123" s="3" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A124" s="0" t="n">
+        <v>123</v>
+      </c>
+      <c r="B124" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="C124" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="D124" s="3" t="n">
+        <v>14</v>
+      </c>
+      <c r="E124" s="3" t="n">
+        <v>29</v>
+      </c>
+      <c r="F124" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G124" s="3" t="n">
+        <v>420</v>
+      </c>
+      <c r="H124" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="I124" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="J124" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K124" s="3" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A125" s="0" t="n">
+        <v>124</v>
+      </c>
+      <c r="B125" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="C125" s="3" t="n">
+        <v>9</v>
+      </c>
+      <c r="D125" s="3" t="n">
+        <v>198</v>
+      </c>
+      <c r="E125" s="3" t="n">
+        <v>213</v>
+      </c>
+      <c r="F125" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G125" s="3" t="n">
+        <v>420</v>
+      </c>
+      <c r="H125" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="I125" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="J125" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K125" s="3" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A126" s="0" t="n">
+        <v>125</v>
+      </c>
+      <c r="B126" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="C126" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="D126" s="3" t="n">
+        <v>180</v>
+      </c>
+      <c r="E126" s="3" t="n">
+        <v>195</v>
+      </c>
+      <c r="F126" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G126" s="3" t="n">
+        <v>420</v>
+      </c>
+      <c r="H126" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="I126" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="J126" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K126" s="3" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A127" s="0" t="n">
+        <v>126</v>
+      </c>
+      <c r="B127" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C127" s="3" t="n">
+        <v>6</v>
+      </c>
+      <c r="D127" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E127" s="3" t="n">
+        <v>420</v>
+      </c>
+      <c r="F127" s="3" t="n">
+        <v>402</v>
+      </c>
+      <c r="G127" s="3" t="n">
+        <v>417</v>
+      </c>
+      <c r="H127" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="I127" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="J127" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K127" s="3" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A128" s="0" t="n">
+        <v>127</v>
+      </c>
+      <c r="B128" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="C128" s="3" t="n">
+        <v>7</v>
+      </c>
+      <c r="D128" s="3" t="n">
+        <v>32</v>
+      </c>
+      <c r="E128" s="3" t="n">
+        <v>47</v>
+      </c>
+      <c r="F128" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G128" s="3" t="n">
+        <v>420</v>
+      </c>
+      <c r="H128" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="I128" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="J128" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K128" s="3" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A129" s="0" t="n">
+        <v>128</v>
+      </c>
+      <c r="B129" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="C129" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="D129" s="3" t="n">
+        <v>14</v>
+      </c>
+      <c r="E129" s="3" t="n">
+        <v>29</v>
+      </c>
+      <c r="F129" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G129" s="3" t="n">
+        <v>420</v>
+      </c>
+      <c r="H129" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="I129" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="J129" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K129" s="3" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A130" s="0" t="n">
+        <v>129</v>
+      </c>
+      <c r="B130" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="C130" s="3" t="n">
+        <v>9</v>
+      </c>
+      <c r="D130" s="3" t="n">
+        <v>198</v>
+      </c>
+      <c r="E130" s="3" t="n">
+        <v>213</v>
+      </c>
+      <c r="F130" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G130" s="3" t="n">
+        <v>420</v>
+      </c>
+      <c r="H130" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="I130" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="J130" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K130" s="3" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A131" s="0" t="n">
+        <v>130</v>
+      </c>
+      <c r="B131" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="C131" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="D131" s="3" t="n">
+        <v>180</v>
+      </c>
+      <c r="E131" s="3" t="n">
+        <v>195</v>
+      </c>
+      <c r="F131" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G131" s="3" t="n">
+        <v>420</v>
+      </c>
+      <c r="H131" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="I131" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="J131" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K131" s="3" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A132" s="0" t="n">
+        <v>131</v>
+      </c>
+      <c r="B132" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C132" s="3" t="n">
+        <v>6</v>
+      </c>
+      <c r="D132" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E132" s="3" t="n">
+        <v>420</v>
+      </c>
+      <c r="F132" s="3" t="n">
+        <v>402</v>
+      </c>
+      <c r="G132" s="3" t="n">
+        <v>417</v>
+      </c>
+      <c r="H132" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="I132" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="J132" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K132" s="3" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A133" s="0" t="n">
+        <v>132</v>
+      </c>
+      <c r="B133" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="C133" s="3" t="n">
+        <v>7</v>
+      </c>
+      <c r="D133" s="3" t="n">
+        <v>32</v>
+      </c>
+      <c r="E133" s="3" t="n">
+        <v>47</v>
+      </c>
+      <c r="F133" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G133" s="3" t="n">
+        <v>420</v>
+      </c>
+      <c r="H133" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="I133" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="J133" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K133" s="3" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A134" s="0" t="n">
+        <v>133</v>
+      </c>
+      <c r="B134" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="C134" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="D134" s="3" t="n">
+        <v>14</v>
+      </c>
+      <c r="E134" s="3" t="n">
+        <v>29</v>
+      </c>
+      <c r="F134" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G134" s="3" t="n">
+        <v>420</v>
+      </c>
+      <c r="H134" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="I134" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="J134" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K134" s="3" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A135" s="0" t="n">
+        <v>134</v>
+      </c>
+      <c r="B135" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="C135" s="3" t="n">
+        <v>9</v>
+      </c>
+      <c r="D135" s="3" t="n">
+        <v>198</v>
+      </c>
+      <c r="E135" s="3" t="n">
+        <v>213</v>
+      </c>
+      <c r="F135" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G135" s="3" t="n">
+        <v>420</v>
+      </c>
+      <c r="H135" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="I135" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="J135" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K135" s="3" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A136" s="0" t="n">
+        <v>135</v>
+      </c>
+      <c r="B136" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="C136" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="D136" s="3" t="n">
+        <v>180</v>
+      </c>
+      <c r="E136" s="3" t="n">
+        <v>195</v>
+      </c>
+      <c r="F136" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G136" s="3" t="n">
+        <v>420</v>
+      </c>
+      <c r="H136" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="I136" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="J136" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K136" s="3" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A137" s="0" t="n">
+        <v>136</v>
+      </c>
+      <c r="B137" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C137" s="3" t="n">
+        <v>6</v>
+      </c>
+      <c r="D137" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E137" s="3" t="n">
+        <v>420</v>
+      </c>
+      <c r="F137" s="3" t="n">
+        <v>402</v>
+      </c>
+      <c r="G137" s="3" t="n">
+        <v>417</v>
+      </c>
+      <c r="H137" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="I137" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="J137" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K137" s="3" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A138" s="0" t="n">
+        <v>137</v>
+      </c>
+      <c r="B138" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="C138" s="3" t="n">
+        <v>7</v>
+      </c>
+      <c r="D138" s="3" t="n">
+        <v>32</v>
+      </c>
+      <c r="E138" s="3" t="n">
+        <v>47</v>
+      </c>
+      <c r="F138" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G138" s="3" t="n">
+        <v>420</v>
+      </c>
+      <c r="H138" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="I138" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="J138" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K138" s="3" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A139" s="0" t="n">
+        <v>138</v>
+      </c>
+      <c r="B139" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="C139" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="D139" s="3" t="n">
+        <v>14</v>
+      </c>
+      <c r="E139" s="3" t="n">
+        <v>29</v>
+      </c>
+      <c r="F139" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G139" s="3" t="n">
+        <v>420</v>
+      </c>
+      <c r="H139" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="I139" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="J139" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K139" s="3" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="140" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A140" s="0" t="n">
+        <v>139</v>
+      </c>
+      <c r="B140" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="C140" s="3" t="n">
+        <v>9</v>
+      </c>
+      <c r="D140" s="3" t="n">
+        <v>198</v>
+      </c>
+      <c r="E140" s="3" t="n">
+        <v>213</v>
+      </c>
+      <c r="F140" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G140" s="3" t="n">
+        <v>420</v>
+      </c>
+      <c r="H140" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="I140" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="J140" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K140" s="3" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A141" s="0" t="n">
+        <v>140</v>
+      </c>
+      <c r="B141" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="C141" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="D141" s="3" t="n">
+        <v>180</v>
+      </c>
+      <c r="E141" s="3" t="n">
+        <v>195</v>
+      </c>
+      <c r="F141" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G141" s="3" t="n">
+        <v>420</v>
+      </c>
+      <c r="H141" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="I141" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="J141" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K141" s="3" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="142" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A142" s="0" t="n">
+        <v>141</v>
+      </c>
+      <c r="B142" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C142" s="3" t="n">
+        <v>6</v>
+      </c>
+      <c r="D142" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E142" s="3" t="n">
+        <v>420</v>
+      </c>
+      <c r="F142" s="3" t="n">
+        <v>402</v>
+      </c>
+      <c r="G142" s="3" t="n">
+        <v>417</v>
+      </c>
+      <c r="H142" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="I142" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="J142" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K142" s="3" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="143" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A143" s="0" t="n">
+        <v>142</v>
+      </c>
+      <c r="B143" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="C143" s="3" t="n">
+        <v>7</v>
+      </c>
+      <c r="D143" s="3" t="n">
+        <v>32</v>
+      </c>
+      <c r="E143" s="3" t="n">
+        <v>47</v>
+      </c>
+      <c r="F143" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G143" s="3" t="n">
+        <v>420</v>
+      </c>
+      <c r="H143" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="I143" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="J143" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K143" s="3" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="144" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A144" s="0" t="n">
+        <v>143</v>
+      </c>
+      <c r="B144" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="C144" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="D144" s="3" t="n">
+        <v>14</v>
+      </c>
+      <c r="E144" s="3" t="n">
+        <v>29</v>
+      </c>
+      <c r="F144" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G144" s="3" t="n">
+        <v>420</v>
+      </c>
+      <c r="H144" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="I144" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="J144" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K144" s="3" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A145" s="0" t="n">
+        <v>144</v>
+      </c>
+      <c r="B145" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="C145" s="3" t="n">
+        <v>9</v>
+      </c>
+      <c r="D145" s="3" t="n">
+        <v>198</v>
+      </c>
+      <c r="E145" s="3" t="n">
+        <v>213</v>
+      </c>
+      <c r="F145" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G145" s="3" t="n">
+        <v>420</v>
+      </c>
+      <c r="H145" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="I145" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="J145" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K145" s="3" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="146" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A146" s="0" t="n">
+        <v>145</v>
+      </c>
+      <c r="B146" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="C146" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="D146" s="3" t="n">
+        <v>180</v>
+      </c>
+      <c r="E146" s="3" t="n">
+        <v>195</v>
+      </c>
+      <c r="F146" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G146" s="3" t="n">
+        <v>420</v>
+      </c>
+      <c r="H146" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="I146" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="J146" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K146" s="3" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="147" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A147" s="0" t="n">
+        <v>146</v>
+      </c>
+      <c r="B147" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C147" s="3" t="n">
+        <v>6</v>
+      </c>
+      <c r="D147" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E147" s="3" t="n">
+        <v>420</v>
+      </c>
+      <c r="F147" s="3" t="n">
+        <v>402</v>
+      </c>
+      <c r="G147" s="3" t="n">
+        <v>417</v>
+      </c>
+      <c r="H147" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="I147" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="J147" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K147" s="3" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="148" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A148" s="0" t="n">
+        <v>147</v>
+      </c>
+      <c r="B148" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="C148" s="3" t="n">
+        <v>7</v>
+      </c>
+      <c r="D148" s="3" t="n">
+        <v>32</v>
+      </c>
+      <c r="E148" s="3" t="n">
+        <v>47</v>
+      </c>
+      <c r="F148" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G148" s="3" t="n">
+        <v>420</v>
+      </c>
+      <c r="H148" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="I148" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="J148" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K148" s="3" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="149" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A149" s="0" t="n">
+        <v>148</v>
+      </c>
+      <c r="B149" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="C149" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="D149" s="3" t="n">
+        <v>14</v>
+      </c>
+      <c r="E149" s="3" t="n">
+        <v>29</v>
+      </c>
+      <c r="F149" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G149" s="3" t="n">
+        <v>420</v>
+      </c>
+      <c r="H149" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="I149" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="J149" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K149" s="3" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="150" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A150" s="0" t="n">
+        <v>149</v>
+      </c>
+      <c r="B150" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="C150" s="3" t="n">
+        <v>9</v>
+      </c>
+      <c r="D150" s="3" t="n">
+        <v>198</v>
+      </c>
+      <c r="E150" s="3" t="n">
+        <v>213</v>
+      </c>
+      <c r="F150" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G150" s="3" t="n">
+        <v>420</v>
+      </c>
+      <c r="H150" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="I150" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="J150" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K150" s="3" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="151" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A151" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="B151" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="C151" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="D151" s="3" t="n">
+        <v>180</v>
+      </c>
+      <c r="E151" s="3" t="n">
+        <v>195</v>
+      </c>
+      <c r="F151" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G151" s="3" t="n">
+        <v>420</v>
+      </c>
+      <c r="H151" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="I151" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="J151" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K151" s="3" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="152" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A152" s="0" t="n">
+        <v>151</v>
+      </c>
+      <c r="B152" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C152" s="3" t="n">
+        <v>6</v>
+      </c>
+      <c r="D152" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E152" s="3" t="n">
+        <v>420</v>
+      </c>
+      <c r="F152" s="3" t="n">
+        <v>402</v>
+      </c>
+      <c r="G152" s="3" t="n">
+        <v>417</v>
+      </c>
+      <c r="H152" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="I152" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="J152" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K152" s="3" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="153" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A153" s="0" t="n">
+        <v>152</v>
+      </c>
+      <c r="B153" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="C153" s="3" t="n">
+        <v>7</v>
+      </c>
+      <c r="D153" s="3" t="n">
+        <v>32</v>
+      </c>
+      <c r="E153" s="3" t="n">
+        <v>47</v>
+      </c>
+      <c r="F153" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G153" s="3" t="n">
+        <v>420</v>
+      </c>
+      <c r="H153" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="I153" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="J153" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K153" s="3" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="154" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A154" s="0" t="n">
+        <v>153</v>
+      </c>
+      <c r="B154" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="C154" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="D154" s="3" t="n">
+        <v>14</v>
+      </c>
+      <c r="E154" s="3" t="n">
+        <v>29</v>
+      </c>
+      <c r="F154" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G154" s="3" t="n">
+        <v>420</v>
+      </c>
+      <c r="H154" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="I154" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="J154" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K154" s="3" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="155" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A155" s="0" t="n">
+        <v>154</v>
+      </c>
+      <c r="B155" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="C155" s="3" t="n">
+        <v>9</v>
+      </c>
+      <c r="D155" s="3" t="n">
+        <v>198</v>
+      </c>
+      <c r="E155" s="3" t="n">
+        <v>213</v>
+      </c>
+      <c r="F155" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G155" s="3" t="n">
+        <v>420</v>
+      </c>
+      <c r="H155" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="I155" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="J155" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K155" s="3" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="156" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A156" s="0" t="n">
+        <v>155</v>
+      </c>
+      <c r="B156" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="C156" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="D156" s="3" t="n">
+        <v>180</v>
+      </c>
+      <c r="E156" s="3" t="n">
+        <v>195</v>
+      </c>
+      <c r="F156" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G156" s="3" t="n">
+        <v>420</v>
+      </c>
+      <c r="H156" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="I156" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="J156" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K156" s="3" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="157" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A157" s="0" t="n">
+        <v>156</v>
+      </c>
+      <c r="B157" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C157" s="3" t="n">
+        <v>6</v>
+      </c>
+      <c r="D157" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E157" s="3" t="n">
+        <v>420</v>
+      </c>
+      <c r="F157" s="3" t="n">
+        <v>402</v>
+      </c>
+      <c r="G157" s="3" t="n">
+        <v>417</v>
+      </c>
+      <c r="H157" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="I157" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="J157" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K157" s="3" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="158" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A158" s="0" t="n">
+        <v>157</v>
+      </c>
+      <c r="B158" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="C158" s="3" t="n">
+        <v>7</v>
+      </c>
+      <c r="D158" s="3" t="n">
+        <v>32</v>
+      </c>
+      <c r="E158" s="3" t="n">
+        <v>47</v>
+      </c>
+      <c r="F158" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G158" s="3" t="n">
+        <v>420</v>
+      </c>
+      <c r="H158" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="I158" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="J158" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K158" s="3" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="159" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A159" s="0" t="n">
+        <v>158</v>
+      </c>
+      <c r="B159" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="C159" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="D159" s="3" t="n">
+        <v>14</v>
+      </c>
+      <c r="E159" s="3" t="n">
+        <v>29</v>
+      </c>
+      <c r="F159" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G159" s="3" t="n">
+        <v>420</v>
+      </c>
+      <c r="H159" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="I159" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="J159" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K159" s="3" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="160" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A160" s="0" t="n">
+        <v>159</v>
+      </c>
+      <c r="B160" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="C160" s="3" t="n">
+        <v>9</v>
+      </c>
+      <c r="D160" s="3" t="n">
+        <v>198</v>
+      </c>
+      <c r="E160" s="3" t="n">
+        <v>213</v>
+      </c>
+      <c r="F160" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G160" s="3" t="n">
+        <v>420</v>
+      </c>
+      <c r="H160" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="I160" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="J160" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K160" s="3" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="161" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A161" s="0" t="n">
+        <v>160</v>
+      </c>
+      <c r="B161" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="C161" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="D161" s="3" t="n">
+        <v>180</v>
+      </c>
+      <c r="E161" s="3" t="n">
+        <v>195</v>
+      </c>
+      <c r="F161" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G161" s="3" t="n">
+        <v>420</v>
+      </c>
+      <c r="H161" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="I161" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="J161" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K161" s="3" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="162" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A162" s="0" t="n">
+        <v>161</v>
+      </c>
+      <c r="B162" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C162" s="3" t="n">
+        <v>6</v>
+      </c>
+      <c r="D162" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E162" s="3" t="n">
+        <v>420</v>
+      </c>
+      <c r="F162" s="3" t="n">
+        <v>402</v>
+      </c>
+      <c r="G162" s="3" t="n">
+        <v>417</v>
+      </c>
+      <c r="H162" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="I162" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="J162" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K162" s="3" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="163" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A163" s="0" t="n">
+        <v>162</v>
+      </c>
+      <c r="B163" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="C163" s="3" t="n">
+        <v>7</v>
+      </c>
+      <c r="D163" s="3" t="n">
+        <v>32</v>
+      </c>
+      <c r="E163" s="3" t="n">
+        <v>47</v>
+      </c>
+      <c r="F163" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G163" s="3" t="n">
+        <v>420</v>
+      </c>
+      <c r="H163" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="I163" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="J163" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K163" s="3" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="164" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A164" s="0" t="n">
+        <v>163</v>
+      </c>
+      <c r="B164" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="C164" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="D164" s="3" t="n">
+        <v>14</v>
+      </c>
+      <c r="E164" s="3" t="n">
+        <v>29</v>
+      </c>
+      <c r="F164" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G164" s="3" t="n">
+        <v>420</v>
+      </c>
+      <c r="H164" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="I164" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="J164" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K164" s="3" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="165" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A165" s="0" t="n">
+        <v>164</v>
+      </c>
+      <c r="B165" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="C165" s="3" t="n">
+        <v>9</v>
+      </c>
+      <c r="D165" s="3" t="n">
+        <v>198</v>
+      </c>
+      <c r="E165" s="3" t="n">
+        <v>213</v>
+      </c>
+      <c r="F165" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G165" s="3" t="n">
+        <v>420</v>
+      </c>
+      <c r="H165" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="I165" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="J165" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K165" s="3" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="166" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A166" s="0" t="n">
+        <v>165</v>
+      </c>
+      <c r="B166" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="C166" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="D166" s="3" t="n">
+        <v>180</v>
+      </c>
+      <c r="E166" s="3" t="n">
+        <v>195</v>
+      </c>
+      <c r="F166" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G166" s="3" t="n">
+        <v>420</v>
+      </c>
+      <c r="H166" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="I166" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="J166" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K166" s="3" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="167" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A167" s="0" t="n">
+        <v>166</v>
+      </c>
+      <c r="B167" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C167" s="3" t="n">
+        <v>6</v>
+      </c>
+      <c r="D167" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E167" s="3" t="n">
+        <v>420</v>
+      </c>
+      <c r="F167" s="3" t="n">
+        <v>402</v>
+      </c>
+      <c r="G167" s="3" t="n">
+        <v>417</v>
+      </c>
+      <c r="H167" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="I167" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="J167" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K167" s="3" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="168" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A168" s="0" t="n">
+        <v>167</v>
+      </c>
+      <c r="B168" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="C168" s="3" t="n">
+        <v>7</v>
+      </c>
+      <c r="D168" s="3" t="n">
+        <v>32</v>
+      </c>
+      <c r="E168" s="3" t="n">
+        <v>47</v>
+      </c>
+      <c r="F168" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G168" s="3" t="n">
+        <v>420</v>
+      </c>
+      <c r="H168" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="I168" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="J168" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K168" s="3" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="169" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A169" s="0" t="n">
+        <v>168</v>
+      </c>
+      <c r="B169" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="C169" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="D169" s="3" t="n">
+        <v>14</v>
+      </c>
+      <c r="E169" s="3" t="n">
+        <v>29</v>
+      </c>
+      <c r="F169" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G169" s="3" t="n">
+        <v>420</v>
+      </c>
+      <c r="H169" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="I169" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="J169" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K169" s="3" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="170" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A170" s="0" t="n">
+        <v>169</v>
+      </c>
+      <c r="B170" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="C170" s="3" t="n">
+        <v>9</v>
+      </c>
+      <c r="D170" s="3" t="n">
+        <v>198</v>
+      </c>
+      <c r="E170" s="3" t="n">
+        <v>213</v>
+      </c>
+      <c r="F170" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G170" s="3" t="n">
+        <v>420</v>
+      </c>
+      <c r="H170" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="I170" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="J170" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K170" s="3" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="171" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A171" s="0" t="n">
+        <v>170</v>
+      </c>
+      <c r="B171" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="C171" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="D171" s="3" t="n">
+        <v>180</v>
+      </c>
+      <c r="E171" s="3" t="n">
+        <v>195</v>
+      </c>
+      <c r="F171" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G171" s="3" t="n">
+        <v>420</v>
+      </c>
+      <c r="H171" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="I171" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="J171" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K171" s="3" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="172" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A172" s="0" t="n">
+        <v>171</v>
+      </c>
+      <c r="B172" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C172" s="3" t="n">
+        <v>6</v>
+      </c>
+      <c r="D172" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E172" s="3" t="n">
+        <v>420</v>
+      </c>
+      <c r="F172" s="3" t="n">
+        <v>402</v>
+      </c>
+      <c r="G172" s="3" t="n">
+        <v>417</v>
+      </c>
+      <c r="H172" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="I172" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="J172" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K172" s="3" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="173" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A173" s="0" t="n">
+        <v>172</v>
+      </c>
+      <c r="B173" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="C173" s="3" t="n">
+        <v>7</v>
+      </c>
+      <c r="D173" s="3" t="n">
+        <v>32</v>
+      </c>
+      <c r="E173" s="3" t="n">
+        <v>47</v>
+      </c>
+      <c r="F173" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G173" s="3" t="n">
+        <v>420</v>
+      </c>
+      <c r="H173" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="I173" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="J173" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K173" s="3" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="174" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A174" s="0" t="n">
+        <v>173</v>
+      </c>
+      <c r="B174" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="C174" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="D174" s="3" t="n">
+        <v>14</v>
+      </c>
+      <c r="E174" s="3" t="n">
+        <v>29</v>
+      </c>
+      <c r="F174" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G174" s="3" t="n">
+        <v>420</v>
+      </c>
+      <c r="H174" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="I174" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="J174" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K174" s="3" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="175" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A175" s="0" t="n">
+        <v>174</v>
+      </c>
+      <c r="B175" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="C175" s="3" t="n">
+        <v>9</v>
+      </c>
+      <c r="D175" s="3" t="n">
+        <v>198</v>
+      </c>
+      <c r="E175" s="3" t="n">
+        <v>213</v>
+      </c>
+      <c r="F175" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G175" s="3" t="n">
+        <v>420</v>
+      </c>
+      <c r="H175" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="I175" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="J175" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K175" s="3" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="176" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A176" s="0" t="n">
+        <v>175</v>
+      </c>
+      <c r="B176" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="C176" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="D176" s="3" t="n">
+        <v>180</v>
+      </c>
+      <c r="E176" s="3" t="n">
+        <v>195</v>
+      </c>
+      <c r="F176" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G176" s="3" t="n">
+        <v>420</v>
+      </c>
+      <c r="H176" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="I176" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="J176" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K176" s="3" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="177" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A177" s="0" t="n">
+        <v>176</v>
+      </c>
+      <c r="B177" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C177" s="3" t="n">
+        <v>6</v>
+      </c>
+      <c r="D177" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E177" s="3" t="n">
+        <v>420</v>
+      </c>
+      <c r="F177" s="3" t="n">
+        <v>402</v>
+      </c>
+      <c r="G177" s="3" t="n">
+        <v>417</v>
+      </c>
+      <c r="H177" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="I177" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="J177" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K177" s="3" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="178" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A178" s="0" t="n">
+        <v>177</v>
+      </c>
+      <c r="B178" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="C178" s="3" t="n">
+        <v>7</v>
+      </c>
+      <c r="D178" s="3" t="n">
+        <v>32</v>
+      </c>
+      <c r="E178" s="3" t="n">
+        <v>47</v>
+      </c>
+      <c r="F178" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G178" s="3" t="n">
+        <v>420</v>
+      </c>
+      <c r="H178" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="I178" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="J178" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K178" s="3" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="179" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A179" s="0" t="n">
+        <v>178</v>
+      </c>
+      <c r="B179" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="C179" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="D179" s="3" t="n">
+        <v>14</v>
+      </c>
+      <c r="E179" s="3" t="n">
+        <v>29</v>
+      </c>
+      <c r="F179" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G179" s="3" t="n">
+        <v>420</v>
+      </c>
+      <c r="H179" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="I179" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="J179" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K179" s="3" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="180" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A180" s="0" t="n">
+        <v>179</v>
+      </c>
+      <c r="B180" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="C180" s="3" t="n">
+        <v>9</v>
+      </c>
+      <c r="D180" s="3" t="n">
+        <v>198</v>
+      </c>
+      <c r="E180" s="3" t="n">
+        <v>213</v>
+      </c>
+      <c r="F180" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G180" s="3" t="n">
+        <v>420</v>
+      </c>
+      <c r="H180" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="I180" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="J180" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K180" s="3" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="181" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A181" s="0" t="n">
+        <v>180</v>
+      </c>
+      <c r="B181" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="C181" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="D181" s="3" t="n">
+        <v>180</v>
+      </c>
+      <c r="E181" s="3" t="n">
+        <v>195</v>
+      </c>
+      <c r="F181" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G181" s="3" t="n">
+        <v>420</v>
+      </c>
+      <c r="H181" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="I181" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="J181" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K181" s="3" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="182" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A182" s="0" t="n">
+        <v>181</v>
+      </c>
+      <c r="B182" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C182" s="3" t="n">
+        <v>6</v>
+      </c>
+      <c r="D182" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E182" s="3" t="n">
+        <v>420</v>
+      </c>
+      <c r="F182" s="3" t="n">
+        <v>402</v>
+      </c>
+      <c r="G182" s="3" t="n">
+        <v>417</v>
+      </c>
+      <c r="H182" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="I182" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="J182" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K182" s="3" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="183" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A183" s="0" t="n">
+        <v>182</v>
+      </c>
+      <c r="B183" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="C183" s="3" t="n">
+        <v>7</v>
+      </c>
+      <c r="D183" s="3" t="n">
+        <v>32</v>
+      </c>
+      <c r="E183" s="3" t="n">
+        <v>47</v>
+      </c>
+      <c r="F183" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G183" s="3" t="n">
+        <v>420</v>
+      </c>
+      <c r="H183" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="I183" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="J183" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K183" s="3" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="184" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A184" s="0" t="n">
+        <v>183</v>
+      </c>
+      <c r="B184" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="C184" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="D184" s="3" t="n">
+        <v>14</v>
+      </c>
+      <c r="E184" s="3" t="n">
+        <v>29</v>
+      </c>
+      <c r="F184" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G184" s="3" t="n">
+        <v>420</v>
+      </c>
+      <c r="H184" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="I184" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="J184" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K184" s="3" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="185" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A185" s="0" t="n">
+        <v>184</v>
+      </c>
+      <c r="B185" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="C185" s="3" t="n">
+        <v>9</v>
+      </c>
+      <c r="D185" s="3" t="n">
+        <v>198</v>
+      </c>
+      <c r="E185" s="3" t="n">
+        <v>213</v>
+      </c>
+      <c r="F185" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G185" s="3" t="n">
+        <v>420</v>
+      </c>
+      <c r="H185" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="I185" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="J185" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K185" s="3" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="186" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A186" s="0" t="n">
+        <v>185</v>
+      </c>
+      <c r="B186" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="C186" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="D186" s="3" t="n">
+        <v>180</v>
+      </c>
+      <c r="E186" s="3" t="n">
+        <v>195</v>
+      </c>
+      <c r="F186" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G186" s="3" t="n">
+        <v>420</v>
+      </c>
+      <c r="H186" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="I186" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="J186" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K186" s="3" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="187" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A187" s="0" t="n">
+        <v>186</v>
+      </c>
+      <c r="B187" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C187" s="3" t="n">
+        <v>6</v>
+      </c>
+      <c r="D187" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E187" s="3" t="n">
+        <v>420</v>
+      </c>
+      <c r="F187" s="3" t="n">
+        <v>402</v>
+      </c>
+      <c r="G187" s="3" t="n">
+        <v>417</v>
+      </c>
+      <c r="H187" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="I187" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="J187" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K187" s="3" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="188" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A188" s="0" t="n">
+        <v>187</v>
+      </c>
+      <c r="B188" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="C188" s="3" t="n">
+        <v>7</v>
+      </c>
+      <c r="D188" s="3" t="n">
+        <v>32</v>
+      </c>
+      <c r="E188" s="3" t="n">
+        <v>47</v>
+      </c>
+      <c r="F188" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G188" s="3" t="n">
+        <v>420</v>
+      </c>
+      <c r="H188" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="I188" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="J188" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K188" s="3" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="189" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A189" s="0" t="n">
+        <v>188</v>
+      </c>
+      <c r="B189" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="C189" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="D189" s="3" t="n">
+        <v>14</v>
+      </c>
+      <c r="E189" s="3" t="n">
+        <v>29</v>
+      </c>
+      <c r="F189" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G189" s="3" t="n">
+        <v>420</v>
+      </c>
+      <c r="H189" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="I189" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="J189" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K189" s="3" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="190" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A190" s="0" t="n">
+        <v>189</v>
+      </c>
+      <c r="B190" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="C190" s="3" t="n">
+        <v>9</v>
+      </c>
+      <c r="D190" s="3" t="n">
+        <v>198</v>
+      </c>
+      <c r="E190" s="3" t="n">
+        <v>213</v>
+      </c>
+      <c r="F190" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G190" s="3" t="n">
+        <v>420</v>
+      </c>
+      <c r="H190" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="I190" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="J190" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K190" s="3" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="191" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A191" s="0" t="n">
+        <v>190</v>
+      </c>
+      <c r="B191" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="C191" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="D191" s="3" t="n">
+        <v>180</v>
+      </c>
+      <c r="E191" s="3" t="n">
+        <v>195</v>
+      </c>
+      <c r="F191" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G191" s="3" t="n">
+        <v>420</v>
+      </c>
+      <c r="H191" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="I191" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="J191" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K191" s="3" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="192" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A192" s="0" t="n">
+        <v>191</v>
+      </c>
+      <c r="B192" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C192" s="3" t="n">
+        <v>6</v>
+      </c>
+      <c r="D192" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E192" s="3" t="n">
+        <v>420</v>
+      </c>
+      <c r="F192" s="3" t="n">
+        <v>402</v>
+      </c>
+      <c r="G192" s="3" t="n">
+        <v>417</v>
+      </c>
+      <c r="H192" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="I192" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="J192" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K192" s="3" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="193" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A193" s="0" t="n">
+        <v>192</v>
+      </c>
+      <c r="B193" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="C193" s="3" t="n">
+        <v>7</v>
+      </c>
+      <c r="D193" s="3" t="n">
+        <v>32</v>
+      </c>
+      <c r="E193" s="3" t="n">
+        <v>47</v>
+      </c>
+      <c r="F193" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G193" s="3" t="n">
+        <v>420</v>
+      </c>
+      <c r="H193" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="I193" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="J193" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K193" s="3" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="194" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A194" s="0" t="n">
+        <v>193</v>
+      </c>
+      <c r="B194" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="C194" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="D194" s="3" t="n">
+        <v>14</v>
+      </c>
+      <c r="E194" s="3" t="n">
+        <v>29</v>
+      </c>
+      <c r="F194" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G194" s="3" t="n">
+        <v>420</v>
+      </c>
+      <c r="H194" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="I194" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="J194" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K194" s="3" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="195" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A195" s="0" t="n">
+        <v>194</v>
+      </c>
+      <c r="B195" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="C195" s="3" t="n">
+        <v>9</v>
+      </c>
+      <c r="D195" s="3" t="n">
+        <v>198</v>
+      </c>
+      <c r="E195" s="3" t="n">
+        <v>213</v>
+      </c>
+      <c r="F195" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G195" s="3" t="n">
+        <v>420</v>
+      </c>
+      <c r="H195" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="I195" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="J195" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K195" s="3" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="196" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A196" s="0" t="n">
+        <v>195</v>
+      </c>
+      <c r="B196" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="C196" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="D196" s="3" t="n">
+        <v>180</v>
+      </c>
+      <c r="E196" s="3" t="n">
+        <v>195</v>
+      </c>
+      <c r="F196" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G196" s="3" t="n">
+        <v>420</v>
+      </c>
+      <c r="H196" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="I196" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="J196" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K196" s="3" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="197" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A197" s="0" t="n">
+        <v>196</v>
+      </c>
+      <c r="B197" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C197" s="3" t="n">
+        <v>6</v>
+      </c>
+      <c r="D197" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E197" s="3" t="n">
+        <v>420</v>
+      </c>
+      <c r="F197" s="3" t="n">
+        <v>402</v>
+      </c>
+      <c r="G197" s="3" t="n">
+        <v>417</v>
+      </c>
+      <c r="H197" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="I197" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="J197" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K197" s="3" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="198" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A198" s="0" t="n">
+        <v>197</v>
+      </c>
+      <c r="B198" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="C198" s="3" t="n">
+        <v>7</v>
+      </c>
+      <c r="D198" s="3" t="n">
+        <v>32</v>
+      </c>
+      <c r="E198" s="3" t="n">
+        <v>47</v>
+      </c>
+      <c r="F198" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G198" s="3" t="n">
+        <v>420</v>
+      </c>
+      <c r="H198" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="I198" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="J198" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K198" s="3" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="199" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A199" s="0" t="n">
+        <v>198</v>
+      </c>
+      <c r="B199" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="C199" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="D199" s="3" t="n">
+        <v>14</v>
+      </c>
+      <c r="E199" s="3" t="n">
+        <v>29</v>
+      </c>
+      <c r="F199" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G199" s="3" t="n">
+        <v>420</v>
+      </c>
+      <c r="H199" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="I199" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="J199" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K199" s="3" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="200" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A200" s="0" t="n">
+        <v>199</v>
+      </c>
+      <c r="B200" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="C200" s="3" t="n">
+        <v>9</v>
+      </c>
+      <c r="D200" s="3" t="n">
+        <v>198</v>
+      </c>
+      <c r="E200" s="3" t="n">
+        <v>213</v>
+      </c>
+      <c r="F200" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G200" s="3" t="n">
+        <v>420</v>
+      </c>
+      <c r="H200" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="I200" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="J200" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K200" s="3" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="201" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A201" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="B201" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="C201" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="D201" s="3" t="n">
+        <v>180</v>
+      </c>
+      <c r="E201" s="3" t="n">
+        <v>195</v>
+      </c>
+      <c r="F201" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G201" s="3" t="n">
+        <v>420</v>
+      </c>
+      <c r="H201" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="I201" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="J201" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K201" s="3" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="202" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A202" s="0" t="n">
+        <v>201</v>
+      </c>
+      <c r="B202" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C202" s="3" t="n">
+        <v>6</v>
+      </c>
+      <c r="D202" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E202" s="3" t="n">
+        <v>420</v>
+      </c>
+      <c r="F202" s="3" t="n">
+        <v>402</v>
+      </c>
+      <c r="G202" s="3" t="n">
+        <v>417</v>
+      </c>
+      <c r="H202" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="I202" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="J202" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K202" s="3" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="203" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A203" s="0" t="n">
+        <v>202</v>
+      </c>
+      <c r="B203" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="C203" s="3" t="n">
+        <v>7</v>
+      </c>
+      <c r="D203" s="3" t="n">
+        <v>32</v>
+      </c>
+      <c r="E203" s="3" t="n">
+        <v>47</v>
+      </c>
+      <c r="F203" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G203" s="3" t="n">
+        <v>420</v>
+      </c>
+      <c r="H203" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="I203" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="J203" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K203" s="3" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="204" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A204" s="0" t="n">
+        <v>203</v>
+      </c>
+      <c r="B204" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="C204" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="D204" s="3" t="n">
+        <v>14</v>
+      </c>
+      <c r="E204" s="3" t="n">
+        <v>29</v>
+      </c>
+      <c r="F204" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G204" s="3" t="n">
+        <v>420</v>
+      </c>
+      <c r="H204" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="I204" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="J204" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K204" s="3" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="205" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A205" s="0" t="n">
+        <v>204</v>
+      </c>
+      <c r="B205" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="C205" s="3" t="n">
+        <v>9</v>
+      </c>
+      <c r="D205" s="3" t="n">
+        <v>198</v>
+      </c>
+      <c r="E205" s="3" t="n">
+        <v>213</v>
+      </c>
+      <c r="F205" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G205" s="3" t="n">
+        <v>420</v>
+      </c>
+      <c r="H205" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="I205" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="J205" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K205" s="3" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="206" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A206" s="0" t="n">
+        <v>205</v>
+      </c>
+      <c r="B206" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="C206" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="D206" s="3" t="n">
+        <v>180</v>
+      </c>
+      <c r="E206" s="3" t="n">
+        <v>195</v>
+      </c>
+      <c r="F206" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G206" s="3" t="n">
+        <v>420</v>
+      </c>
+      <c r="H206" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="I206" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="J206" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K206" s="3" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="207" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A207" s="0" t="n">
+        <v>206</v>
+      </c>
+      <c r="B207" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C207" s="3" t="n">
+        <v>6</v>
+      </c>
+      <c r="D207" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E207" s="3" t="n">
+        <v>420</v>
+      </c>
+      <c r="F207" s="3" t="n">
+        <v>402</v>
+      </c>
+      <c r="G207" s="3" t="n">
+        <v>417</v>
+      </c>
+      <c r="H207" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="I207" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="J207" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K207" s="3" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="208" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A208" s="0" t="n">
+        <v>207</v>
+      </c>
+      <c r="B208" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="C208" s="3" t="n">
+        <v>7</v>
+      </c>
+      <c r="D208" s="3" t="n">
+        <v>32</v>
+      </c>
+      <c r="E208" s="3" t="n">
+        <v>47</v>
+      </c>
+      <c r="F208" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G208" s="3" t="n">
+        <v>420</v>
+      </c>
+      <c r="H208" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="I208" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="J208" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K208" s="3" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="209" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A209" s="0" t="n">
+        <v>208</v>
+      </c>
+      <c r="B209" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="C209" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="D209" s="3" t="n">
+        <v>14</v>
+      </c>
+      <c r="E209" s="3" t="n">
+        <v>29</v>
+      </c>
+      <c r="F209" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G209" s="3" t="n">
+        <v>420</v>
+      </c>
+      <c r="H209" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="I209" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="J209" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K209" s="3" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="210" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A210" s="0" t="n">
+        <v>209</v>
+      </c>
+      <c r="B210" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="C210" s="3" t="n">
+        <v>9</v>
+      </c>
+      <c r="D210" s="3" t="n">
+        <v>198</v>
+      </c>
+      <c r="E210" s="3" t="n">
+        <v>213</v>
+      </c>
+      <c r="F210" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G210" s="3" t="n">
+        <v>420</v>
+      </c>
+      <c r="H210" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="I210" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="J210" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K210" s="3" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="211" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A211" s="0" t="n">
+        <v>210</v>
+      </c>
+      <c r="B211" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="C211" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="D211" s="3" t="n">
+        <v>180</v>
+      </c>
+      <c r="E211" s="3" t="n">
+        <v>195</v>
+      </c>
+      <c r="F211" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G211" s="3" t="n">
+        <v>420</v>
+      </c>
+      <c r="H211" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="I211" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="J211" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K211" s="3" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="212" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A212" s="0" t="n">
+        <v>211</v>
+      </c>
+      <c r="B212" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C212" s="3" t="n">
+        <v>6</v>
+      </c>
+      <c r="D212" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E212" s="3" t="n">
+        <v>420</v>
+      </c>
+      <c r="F212" s="3" t="n">
+        <v>402</v>
+      </c>
+      <c r="G212" s="3" t="n">
+        <v>417</v>
+      </c>
+      <c r="H212" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="I212" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="J212" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K212" s="3" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="213" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A213" s="0" t="n">
+        <v>212</v>
+      </c>
+      <c r="B213" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="C213" s="3" t="n">
+        <v>7</v>
+      </c>
+      <c r="D213" s="3" t="n">
+        <v>32</v>
+      </c>
+      <c r="E213" s="3" t="n">
+        <v>47</v>
+      </c>
+      <c r="F213" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G213" s="3" t="n">
+        <v>420</v>
+      </c>
+      <c r="H213" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="I213" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="J213" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K213" s="3" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="214" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A214" s="0" t="n">
+        <v>213</v>
+      </c>
+      <c r="B214" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="C214" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="D214" s="3" t="n">
+        <v>14</v>
+      </c>
+      <c r="E214" s="3" t="n">
+        <v>29</v>
+      </c>
+      <c r="F214" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G214" s="3" t="n">
+        <v>420</v>
+      </c>
+      <c r="H214" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="I214" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="J214" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K214" s="3" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="215" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A215" s="0" t="n">
+        <v>214</v>
+      </c>
+      <c r="B215" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="C215" s="3" t="n">
+        <v>9</v>
+      </c>
+      <c r="D215" s="3" t="n">
+        <v>198</v>
+      </c>
+      <c r="E215" s="3" t="n">
+        <v>213</v>
+      </c>
+      <c r="F215" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G215" s="3" t="n">
+        <v>420</v>
+      </c>
+      <c r="H215" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="I215" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="J215" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K215" s="3" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="216" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A216" s="0" t="n">
+        <v>215</v>
+      </c>
+      <c r="B216" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="C216" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="D216" s="3" t="n">
+        <v>180</v>
+      </c>
+      <c r="E216" s="3" t="n">
+        <v>195</v>
+      </c>
+      <c r="F216" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G216" s="3" t="n">
+        <v>420</v>
+      </c>
+      <c r="H216" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="I216" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="J216" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K216" s="3" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="217" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A217" s="0" t="n">
+        <v>216</v>
+      </c>
+      <c r="B217" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C217" s="3" t="n">
+        <v>6</v>
+      </c>
+      <c r="D217" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E217" s="3" t="n">
+        <v>420</v>
+      </c>
+      <c r="F217" s="3" t="n">
+        <v>402</v>
+      </c>
+      <c r="G217" s="3" t="n">
+        <v>417</v>
+      </c>
+      <c r="H217" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="I217" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="J217" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K217" s="3" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="218" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A218" s="0" t="n">
+        <v>217</v>
+      </c>
+      <c r="B218" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="C218" s="3" t="n">
+        <v>7</v>
+      </c>
+      <c r="D218" s="3" t="n">
+        <v>32</v>
+      </c>
+      <c r="E218" s="3" t="n">
+        <v>47</v>
+      </c>
+      <c r="F218" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G218" s="3" t="n">
+        <v>420</v>
+      </c>
+      <c r="H218" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="I218" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="J218" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K218" s="3" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="219" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A219" s="0" t="n">
+        <v>218</v>
+      </c>
+      <c r="B219" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="C219" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="D219" s="3" t="n">
+        <v>14</v>
+      </c>
+      <c r="E219" s="3" t="n">
+        <v>29</v>
+      </c>
+      <c r="F219" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G219" s="3" t="n">
+        <v>420</v>
+      </c>
+      <c r="H219" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="I219" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="J219" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K219" s="3" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="220" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A220" s="0" t="n">
+        <v>219</v>
+      </c>
+      <c r="B220" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="C220" s="3" t="n">
+        <v>9</v>
+      </c>
+      <c r="D220" s="3" t="n">
+        <v>198</v>
+      </c>
+      <c r="E220" s="3" t="n">
+        <v>213</v>
+      </c>
+      <c r="F220" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G220" s="3" t="n">
+        <v>420</v>
+      </c>
+      <c r="H220" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="I220" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="J220" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K220" s="3" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="221" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A221" s="0" t="n">
+        <v>220</v>
+      </c>
+      <c r="B221" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="C221" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="D221" s="3" t="n">
+        <v>180</v>
+      </c>
+      <c r="E221" s="3" t="n">
+        <v>195</v>
+      </c>
+      <c r="F221" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G221" s="3" t="n">
+        <v>420</v>
+      </c>
+      <c r="H221" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="I221" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="J221" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K221" s="3" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="222" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A222" s="0" t="n">
+        <v>221</v>
+      </c>
+      <c r="B222" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C222" s="3" t="n">
+        <v>6</v>
+      </c>
+      <c r="D222" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E222" s="3" t="n">
+        <v>420</v>
+      </c>
+      <c r="F222" s="3" t="n">
+        <v>402</v>
+      </c>
+      <c r="G222" s="3" t="n">
+        <v>417</v>
+      </c>
+      <c r="H222" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="I222" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="J222" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K222" s="3" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="223" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A223" s="0" t="n">
+        <v>222</v>
+      </c>
+      <c r="B223" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="C223" s="3" t="n">
+        <v>7</v>
+      </c>
+      <c r="D223" s="3" t="n">
+        <v>32</v>
+      </c>
+      <c r="E223" s="3" t="n">
+        <v>47</v>
+      </c>
+      <c r="F223" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G223" s="3" t="n">
+        <v>420</v>
+      </c>
+      <c r="H223" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="I223" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="J223" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K223" s="3" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="224" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A224" s="0" t="n">
+        <v>223</v>
+      </c>
+      <c r="B224" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="C224" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="D224" s="3" t="n">
+        <v>14</v>
+      </c>
+      <c r="E224" s="3" t="n">
+        <v>29</v>
+      </c>
+      <c r="F224" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G224" s="3" t="n">
+        <v>420</v>
+      </c>
+      <c r="H224" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="I224" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="J224" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K224" s="3" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="225" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A225" s="0" t="n">
+        <v>224</v>
+      </c>
+      <c r="B225" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="C225" s="3" t="n">
+        <v>9</v>
+      </c>
+      <c r="D225" s="3" t="n">
+        <v>198</v>
+      </c>
+      <c r="E225" s="3" t="n">
+        <v>213</v>
+      </c>
+      <c r="F225" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G225" s="3" t="n">
+        <v>420</v>
+      </c>
+      <c r="H225" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="I225" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="J225" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K225" s="3" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="226" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A226" s="0" t="n">
+        <v>225</v>
+      </c>
+      <c r="B226" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="C226" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="D226" s="3" t="n">
+        <v>180</v>
+      </c>
+      <c r="E226" s="3" t="n">
+        <v>195</v>
+      </c>
+      <c r="F226" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G226" s="3" t="n">
+        <v>420</v>
+      </c>
+      <c r="H226" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="I226" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="J226" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K226" s="3" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="227" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A227" s="0" t="n">
+        <v>226</v>
+      </c>
+      <c r="B227" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C227" s="3" t="n">
+        <v>6</v>
+      </c>
+      <c r="D227" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E227" s="3" t="n">
+        <v>420</v>
+      </c>
+      <c r="F227" s="3" t="n">
+        <v>402</v>
+      </c>
+      <c r="G227" s="3" t="n">
+        <v>417</v>
+      </c>
+      <c r="H227" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="I227" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="J227" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K227" s="3" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="228" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A228" s="0" t="n">
+        <v>227</v>
+      </c>
+      <c r="B228" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="C228" s="3" t="n">
+        <v>7</v>
+      </c>
+      <c r="D228" s="3" t="n">
+        <v>32</v>
+      </c>
+      <c r="E228" s="3" t="n">
+        <v>47</v>
+      </c>
+      <c r="F228" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G228" s="3" t="n">
+        <v>420</v>
+      </c>
+      <c r="H228" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="I228" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="J228" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K228" s="3" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="229" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A229" s="0" t="n">
+        <v>228</v>
+      </c>
+      <c r="B229" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="C229" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="D229" s="3" t="n">
+        <v>14</v>
+      </c>
+      <c r="E229" s="3" t="n">
+        <v>29</v>
+      </c>
+      <c r="F229" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G229" s="3" t="n">
+        <v>420</v>
+      </c>
+      <c r="H229" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="I229" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="J229" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K229" s="3" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="230" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A230" s="0" t="n">
+        <v>229</v>
+      </c>
+      <c r="B230" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="C230" s="3" t="n">
+        <v>9</v>
+      </c>
+      <c r="D230" s="3" t="n">
+        <v>198</v>
+      </c>
+      <c r="E230" s="3" t="n">
+        <v>213</v>
+      </c>
+      <c r="F230" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G230" s="3" t="n">
+        <v>420</v>
+      </c>
+      <c r="H230" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="I230" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="J230" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K230" s="3" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="231" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A231" s="0" t="n">
+        <v>230</v>
+      </c>
+      <c r="B231" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="C231" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="D231" s="3" t="n">
+        <v>180</v>
+      </c>
+      <c r="E231" s="3" t="n">
+        <v>195</v>
+      </c>
+      <c r="F231" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G231" s="3" t="n">
+        <v>420</v>
+      </c>
+      <c r="H231" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="I231" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="J231" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K231" s="3" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="232" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A232" s="0" t="n">
+        <v>231</v>
+      </c>
+      <c r="B232" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C232" s="3" t="n">
+        <v>6</v>
+      </c>
+      <c r="D232" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E232" s="3" t="n">
+        <v>420</v>
+      </c>
+      <c r="F232" s="3" t="n">
+        <v>402</v>
+      </c>
+      <c r="G232" s="3" t="n">
+        <v>417</v>
+      </c>
+      <c r="H232" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="I232" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="J232" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K232" s="3" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="233" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A233" s="0" t="n">
+        <v>232</v>
+      </c>
+      <c r="B233" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="C233" s="3" t="n">
+        <v>7</v>
+      </c>
+      <c r="D233" s="3" t="n">
+        <v>32</v>
+      </c>
+      <c r="E233" s="3" t="n">
+        <v>47</v>
+      </c>
+      <c r="F233" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G233" s="3" t="n">
+        <v>420</v>
+      </c>
+      <c r="H233" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="I233" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="J233" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K233" s="3" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="234" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A234" s="0" t="n">
+        <v>233</v>
+      </c>
+      <c r="B234" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="C234" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="D234" s="3" t="n">
+        <v>14</v>
+      </c>
+      <c r="E234" s="3" t="n">
+        <v>29</v>
+      </c>
+      <c r="F234" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G234" s="3" t="n">
+        <v>420</v>
+      </c>
+      <c r="H234" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="I234" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="J234" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K234" s="3" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="235" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A235" s="0" t="n">
+        <v>234</v>
+      </c>
+      <c r="B235" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="C235" s="3" t="n">
+        <v>9</v>
+      </c>
+      <c r="D235" s="3" t="n">
+        <v>198</v>
+      </c>
+      <c r="E235" s="3" t="n">
+        <v>213</v>
+      </c>
+      <c r="F235" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G235" s="3" t="n">
+        <v>420</v>
+      </c>
+      <c r="H235" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="I235" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="J235" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K235" s="3" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="236" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A236" s="0" t="n">
+        <v>235</v>
+      </c>
+      <c r="B236" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="C236" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="D236" s="3" t="n">
+        <v>180</v>
+      </c>
+      <c r="E236" s="3" t="n">
+        <v>195</v>
+      </c>
+      <c r="F236" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G236" s="3" t="n">
+        <v>420</v>
+      </c>
+      <c r="H236" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="I236" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="J236" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K236" s="3" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="237" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A237" s="0" t="n">
+        <v>236</v>
+      </c>
+      <c r="B237" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C237" s="3" t="n">
+        <v>6</v>
+      </c>
+      <c r="D237" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E237" s="3" t="n">
+        <v>420</v>
+      </c>
+      <c r="F237" s="3" t="n">
+        <v>402</v>
+      </c>
+      <c r="G237" s="3" t="n">
+        <v>417</v>
+      </c>
+      <c r="H237" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="I237" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="J237" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K237" s="3" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="238" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A238" s="0" t="n">
+        <v>237</v>
+      </c>
+      <c r="B238" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="C238" s="3" t="n">
+        <v>7</v>
+      </c>
+      <c r="D238" s="3" t="n">
+        <v>32</v>
+      </c>
+      <c r="E238" s="3" t="n">
+        <v>47</v>
+      </c>
+      <c r="F238" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G238" s="3" t="n">
+        <v>420</v>
+      </c>
+      <c r="H238" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="I238" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="J238" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K238" s="3" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="239" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A239" s="0" t="n">
+        <v>238</v>
+      </c>
+      <c r="B239" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="C239" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="D239" s="3" t="n">
+        <v>14</v>
+      </c>
+      <c r="E239" s="3" t="n">
+        <v>29</v>
+      </c>
+      <c r="F239" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G239" s="3" t="n">
+        <v>420</v>
+      </c>
+      <c r="H239" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="I239" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="J239" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K239" s="3" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="240" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A240" s="0" t="n">
+        <v>239</v>
+      </c>
+      <c r="B240" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="C240" s="3" t="n">
+        <v>9</v>
+      </c>
+      <c r="D240" s="3" t="n">
+        <v>198</v>
+      </c>
+      <c r="E240" s="3" t="n">
+        <v>213</v>
+      </c>
+      <c r="F240" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G240" s="3" t="n">
+        <v>420</v>
+      </c>
+      <c r="H240" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="I240" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="J240" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K240" s="3" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="241" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A241" s="0" t="n">
+        <v>240</v>
+      </c>
+      <c r="B241" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="C241" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="D241" s="3" t="n">
+        <v>180</v>
+      </c>
+      <c r="E241" s="3" t="n">
+        <v>195</v>
+      </c>
+      <c r="F241" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G241" s="3" t="n">
+        <v>420</v>
+      </c>
+      <c r="H241" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="I241" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="J241" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K241" s="3" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/testinstance.xlsx
+++ b/testinstance.xlsx
@@ -169,15 +169,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:AH34"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="n">
         <v>1</v>
@@ -212,8 +212,74 @@
       <c r="L1" s="1" t="n">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M1" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="T1" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="U1" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="V1" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="W1" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="X1" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="AB1" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="AC1" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="AD1" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="AE1" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="AF1" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="AG1" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="AH1" s="1" t="n">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
@@ -250,8 +316,74 @@
       <c r="L2" s="0" t="n">
         <v>7.95171207979766</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" s="0" t="n">
+        <v>8.08678825307056</v>
+      </c>
+      <c r="O2" s="0" t="n">
+        <v>15.2484921221739</v>
+      </c>
+      <c r="P2" s="0" t="n">
+        <v>7.39506085167661</v>
+      </c>
+      <c r="Q2" s="0" t="n">
+        <v>7.29445851314544</v>
+      </c>
+      <c r="R2" s="0" t="n">
+        <v>21.4066476240443</v>
+      </c>
+      <c r="S2" s="0" t="n">
+        <v>17.3983479819206</v>
+      </c>
+      <c r="T2" s="0" t="n">
+        <v>2.99788875710891</v>
+      </c>
+      <c r="U2" s="0" t="n">
+        <v>8.08367048437775</v>
+      </c>
+      <c r="V2" s="0" t="n">
+        <v>18.2671081455166</v>
+      </c>
+      <c r="W2" s="0" t="n">
+        <v>7.95171207979766</v>
+      </c>
+      <c r="X2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y2" s="0" t="n">
+        <v>8.08678825307056</v>
+      </c>
+      <c r="Z2" s="0" t="n">
+        <v>15.2484921221739</v>
+      </c>
+      <c r="AA2" s="0" t="n">
+        <v>7.39506085167661</v>
+      </c>
+      <c r="AB2" s="0" t="n">
+        <v>7.29445851314544</v>
+      </c>
+      <c r="AC2" s="0" t="n">
+        <v>21.4066476240443</v>
+      </c>
+      <c r="AD2" s="0" t="n">
+        <v>17.3983479819206</v>
+      </c>
+      <c r="AE2" s="0" t="n">
+        <v>2.99788875710891</v>
+      </c>
+      <c r="AF2" s="0" t="n">
+        <v>8.08367048437775</v>
+      </c>
+      <c r="AG2" s="0" t="n">
+        <v>18.2671081455166</v>
+      </c>
+      <c r="AH2" s="0" t="n">
+        <v>7.95171207979766</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
@@ -288,8 +420,74 @@
       <c r="L3" s="0" t="n">
         <v>3.91543704457114</v>
       </c>
-    </row>
-    <row r="4" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M3" s="0" t="n">
+        <v>8.08678825307056</v>
+      </c>
+      <c r="N3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" s="0" t="n">
+        <v>18.5512243329113</v>
+      </c>
+      <c r="P3" s="0" t="n">
+        <v>13.9013724232538</v>
+      </c>
+      <c r="Q3" s="0" t="n">
+        <v>14.4584666977519</v>
+      </c>
+      <c r="R3" s="0" t="n">
+        <v>17.1825031427321</v>
+      </c>
+      <c r="S3" s="0" t="n">
+        <v>10.5817132946418</v>
+      </c>
+      <c r="T3" s="0" t="n">
+        <v>11.0845661281802</v>
+      </c>
+      <c r="U3" s="0" t="n">
+        <v>14.5447407763081</v>
+      </c>
+      <c r="V3" s="0" t="n">
+        <v>11.7029428029876</v>
+      </c>
+      <c r="W3" s="0" t="n">
+        <v>3.91543704457114</v>
+      </c>
+      <c r="X3" s="0" t="n">
+        <v>8.08678825307056</v>
+      </c>
+      <c r="Y3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z3" s="0" t="n">
+        <v>18.5512243329113</v>
+      </c>
+      <c r="AA3" s="0" t="n">
+        <v>13.9013724232538</v>
+      </c>
+      <c r="AB3" s="0" t="n">
+        <v>14.4584666977519</v>
+      </c>
+      <c r="AC3" s="0" t="n">
+        <v>17.1825031427321</v>
+      </c>
+      <c r="AD3" s="0" t="n">
+        <v>10.5817132946418</v>
+      </c>
+      <c r="AE3" s="0" t="n">
+        <v>11.0845661281802</v>
+      </c>
+      <c r="AF3" s="0" t="n">
+        <v>14.5447407763081</v>
+      </c>
+      <c r="AG3" s="0" t="n">
+        <v>11.7029428029876</v>
+      </c>
+      <c r="AH3" s="0" t="n">
+        <v>3.91543704457114</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
@@ -326,8 +524,74 @@
       <c r="L4" s="0" t="n">
         <v>14.935540599523</v>
       </c>
-    </row>
-    <row r="5" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M4" s="0" t="n">
+        <v>15.2484921221739</v>
+      </c>
+      <c r="N4" s="0" t="n">
+        <v>18.5512243329113</v>
+      </c>
+      <c r="O4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" s="0" t="n">
+        <v>20.8945942530598</v>
+      </c>
+      <c r="Q4" s="0" t="n">
+        <v>10.650892779481</v>
+      </c>
+      <c r="R4" s="0" t="n">
+        <v>17.0168479601835</v>
+      </c>
+      <c r="S4" s="0" t="n">
+        <v>20.2461366314663</v>
+      </c>
+      <c r="T4" s="0" t="n">
+        <v>15.0089616229771</v>
+      </c>
+      <c r="U4" s="0" t="n">
+        <v>8.88435526642198</v>
+      </c>
+      <c r="V4" s="0" t="n">
+        <v>30.1880708890118</v>
+      </c>
+      <c r="W4" s="0" t="n">
+        <v>14.935540599523</v>
+      </c>
+      <c r="X4" s="0" t="n">
+        <v>15.2484921221739</v>
+      </c>
+      <c r="Y4" s="0" t="n">
+        <v>18.5512243329113</v>
+      </c>
+      <c r="Z4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA4" s="0" t="n">
+        <v>20.8945942530598</v>
+      </c>
+      <c r="AB4" s="0" t="n">
+        <v>10.650892779481</v>
+      </c>
+      <c r="AC4" s="0" t="n">
+        <v>17.0168479601835</v>
+      </c>
+      <c r="AD4" s="0" t="n">
+        <v>20.2461366314663</v>
+      </c>
+      <c r="AE4" s="0" t="n">
+        <v>15.0089616229771</v>
+      </c>
+      <c r="AF4" s="0" t="n">
+        <v>8.88435526642198</v>
+      </c>
+      <c r="AG4" s="0" t="n">
+        <v>30.1880708890118</v>
+      </c>
+      <c r="AH4" s="0" t="n">
+        <v>14.935540599523</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
@@ -364,8 +628,74 @@
       <c r="L5" s="0" t="n">
         <v>15.0107061792575</v>
       </c>
-    </row>
-    <row r="6" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M5" s="0" t="n">
+        <v>7.39506085167661</v>
+      </c>
+      <c r="N5" s="0" t="n">
+        <v>13.9013724232538</v>
+      </c>
+      <c r="O5" s="0" t="n">
+        <v>20.8945942530598</v>
+      </c>
+      <c r="P5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="0" t="n">
+        <v>10.5879601434837</v>
+      </c>
+      <c r="R5" s="0" t="n">
+        <v>28.7910849482961</v>
+      </c>
+      <c r="S5" s="0" t="n">
+        <v>24.1861995464356</v>
+      </c>
+      <c r="T5" s="0" t="n">
+        <v>6.01656862339324</v>
+      </c>
+      <c r="U5" s="0" t="n">
+        <v>12.2139201937789</v>
+      </c>
+      <c r="V5" s="0" t="n">
+        <v>20.8903114624938</v>
+      </c>
+      <c r="W5" s="0" t="n">
+        <v>15.0107061792575</v>
+      </c>
+      <c r="X5" s="0" t="n">
+        <v>7.39506085167661</v>
+      </c>
+      <c r="Y5" s="0" t="n">
+        <v>13.9013724232538</v>
+      </c>
+      <c r="Z5" s="0" t="n">
+        <v>20.8945942530598</v>
+      </c>
+      <c r="AA5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB5" s="0" t="n">
+        <v>10.5879601434837</v>
+      </c>
+      <c r="AC5" s="0" t="n">
+        <v>28.7910849482961</v>
+      </c>
+      <c r="AD5" s="0" t="n">
+        <v>24.1861995464356</v>
+      </c>
+      <c r="AE5" s="0" t="n">
+        <v>6.01656862339324</v>
+      </c>
+      <c r="AF5" s="0" t="n">
+        <v>12.2139201937789</v>
+      </c>
+      <c r="AG5" s="0" t="n">
+        <v>20.8903114624938</v>
+      </c>
+      <c r="AH5" s="0" t="n">
+        <v>15.0107061792575</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
@@ -402,8 +732,74 @@
       <c r="L6" s="0" t="n">
         <v>12.6305344304982</v>
       </c>
-    </row>
-    <row r="7" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M6" s="0" t="n">
+        <v>7.29445851314544</v>
+      </c>
+      <c r="N6" s="0" t="n">
+        <v>14.4584666977519</v>
+      </c>
+      <c r="O6" s="0" t="n">
+        <v>10.650892779481</v>
+      </c>
+      <c r="P6" s="0" t="n">
+        <v>10.5879601434837</v>
+      </c>
+      <c r="Q6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="R6" s="0" t="n">
+        <v>22.7746561444954</v>
+      </c>
+      <c r="S6" s="0" t="n">
+        <v>21.5759079183241</v>
+      </c>
+      <c r="T6" s="0" t="n">
+        <v>5.38078079836003</v>
+      </c>
+      <c r="U6" s="0" t="n">
+        <v>1.77385131845936</v>
+      </c>
+      <c r="V6" s="0" t="n">
+        <v>25.4381718093105</v>
+      </c>
+      <c r="W6" s="0" t="n">
+        <v>12.6305344304982</v>
+      </c>
+      <c r="X6" s="0" t="n">
+        <v>7.29445851314544</v>
+      </c>
+      <c r="Y6" s="0" t="n">
+        <v>14.4584666977519</v>
+      </c>
+      <c r="Z6" s="0" t="n">
+        <v>10.650892779481</v>
+      </c>
+      <c r="AA6" s="0" t="n">
+        <v>10.5879601434837</v>
+      </c>
+      <c r="AB6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC6" s="0" t="n">
+        <v>22.7746561444954</v>
+      </c>
+      <c r="AD6" s="0" t="n">
+        <v>21.5759079183241</v>
+      </c>
+      <c r="AE6" s="0" t="n">
+        <v>5.38078079836003</v>
+      </c>
+      <c r="AF6" s="0" t="n">
+        <v>1.77385131845936</v>
+      </c>
+      <c r="AG6" s="0" t="n">
+        <v>25.4381718093105</v>
+      </c>
+      <c r="AH6" s="0" t="n">
+        <v>12.6305344304982</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
@@ -440,8 +836,74 @@
       <c r="L7" s="0" t="n">
         <v>14.2320147027749</v>
       </c>
-    </row>
-    <row r="8" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M7" s="0" t="n">
+        <v>21.4066476240443</v>
+      </c>
+      <c r="N7" s="0" t="n">
+        <v>17.1825031427321</v>
+      </c>
+      <c r="O7" s="0" t="n">
+        <v>17.0168479601835</v>
+      </c>
+      <c r="P7" s="0" t="n">
+        <v>28.7910849482961</v>
+      </c>
+      <c r="Q7" s="0" t="n">
+        <v>22.7746561444954</v>
+      </c>
+      <c r="R7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S7" s="0" t="n">
+        <v>9.04599497015116</v>
+      </c>
+      <c r="T7" s="0" t="n">
+        <v>23.5132070228627</v>
+      </c>
+      <c r="U7" s="0" t="n">
+        <v>21.4531348758171</v>
+      </c>
+      <c r="V7" s="0" t="n">
+        <v>24.6036806697697</v>
+      </c>
+      <c r="W7" s="0" t="n">
+        <v>14.2320147027749</v>
+      </c>
+      <c r="X7" s="0" t="n">
+        <v>21.4066476240443</v>
+      </c>
+      <c r="Y7" s="0" t="n">
+        <v>17.1825031427321</v>
+      </c>
+      <c r="Z7" s="0" t="n">
+        <v>17.0168479601835</v>
+      </c>
+      <c r="AA7" s="0" t="n">
+        <v>28.7910849482961</v>
+      </c>
+      <c r="AB7" s="0" t="n">
+        <v>22.7746561444954</v>
+      </c>
+      <c r="AC7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD7" s="0" t="n">
+        <v>9.04599497015116</v>
+      </c>
+      <c r="AE7" s="0" t="n">
+        <v>23.5132070228627</v>
+      </c>
+      <c r="AF7" s="0" t="n">
+        <v>21.4531348758171</v>
+      </c>
+      <c r="AG7" s="0" t="n">
+        <v>24.6036806697697</v>
+      </c>
+      <c r="AH7" s="0" t="n">
+        <v>14.2320147027749</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
@@ -478,8 +940,74 @@
       <c r="L8" s="0" t="n">
         <v>9.47841181316786</v>
       </c>
-    </row>
-    <row r="9" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M8" s="0" t="n">
+        <v>17.3983479819206</v>
+      </c>
+      <c r="N8" s="0" t="n">
+        <v>10.5817132946418</v>
+      </c>
+      <c r="O8" s="0" t="n">
+        <v>20.2461366314663</v>
+      </c>
+      <c r="P8" s="0" t="n">
+        <v>24.1861995464356</v>
+      </c>
+      <c r="Q8" s="0" t="n">
+        <v>21.5759079183241</v>
+      </c>
+      <c r="R8" s="0" t="n">
+        <v>9.04599497015116</v>
+      </c>
+      <c r="S8" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="T8" s="0" t="n">
+        <v>20.175967448923</v>
+      </c>
+      <c r="U8" s="0" t="n">
+        <v>20.8497196384028</v>
+      </c>
+      <c r="V8" s="0" t="n">
+        <v>15.6374701438564</v>
+      </c>
+      <c r="W8" s="0" t="n">
+        <v>9.47841181316786</v>
+      </c>
+      <c r="X8" s="0" t="n">
+        <v>17.3983479819206</v>
+      </c>
+      <c r="Y8" s="0" t="n">
+        <v>10.5817132946418</v>
+      </c>
+      <c r="Z8" s="0" t="n">
+        <v>20.2461366314663</v>
+      </c>
+      <c r="AA8" s="0" t="n">
+        <v>24.1861995464356</v>
+      </c>
+      <c r="AB8" s="0" t="n">
+        <v>21.5759079183241</v>
+      </c>
+      <c r="AC8" s="0" t="n">
+        <v>9.04599497015116</v>
+      </c>
+      <c r="AD8" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE8" s="0" t="n">
+        <v>20.175967448923</v>
+      </c>
+      <c r="AF8" s="0" t="n">
+        <v>20.8497196384028</v>
+      </c>
+      <c r="AG8" s="0" t="n">
+        <v>15.6374701438564</v>
+      </c>
+      <c r="AH8" s="0" t="n">
+        <v>9.47841181316786</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
@@ -516,8 +1044,74 @@
       <c r="L9" s="0" t="n">
         <v>10.6977703284376</v>
       </c>
-    </row>
-    <row r="10" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M9" s="0" t="n">
+        <v>2.99788875710891</v>
+      </c>
+      <c r="N9" s="0" t="n">
+        <v>11.0845661281802</v>
+      </c>
+      <c r="O9" s="0" t="n">
+        <v>15.0089616229771</v>
+      </c>
+      <c r="P9" s="0" t="n">
+        <v>6.01656862339324</v>
+      </c>
+      <c r="Q9" s="0" t="n">
+        <v>5.38078079836003</v>
+      </c>
+      <c r="R9" s="0" t="n">
+        <v>23.5132070228627</v>
+      </c>
+      <c r="S9" s="0" t="n">
+        <v>20.175967448923</v>
+      </c>
+      <c r="T9" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="U9" s="0" t="n">
+        <v>6.69041870887017</v>
+      </c>
+      <c r="V9" s="0" t="n">
+        <v>20.9603001171262</v>
+      </c>
+      <c r="W9" s="0" t="n">
+        <v>10.6977703284376</v>
+      </c>
+      <c r="X9" s="0" t="n">
+        <v>2.99788875710891</v>
+      </c>
+      <c r="Y9" s="0" t="n">
+        <v>11.0845661281802</v>
+      </c>
+      <c r="Z9" s="0" t="n">
+        <v>15.0089616229771</v>
+      </c>
+      <c r="AA9" s="0" t="n">
+        <v>6.01656862339324</v>
+      </c>
+      <c r="AB9" s="0" t="n">
+        <v>5.38078079836003</v>
+      </c>
+      <c r="AC9" s="0" t="n">
+        <v>23.5132070228627</v>
+      </c>
+      <c r="AD9" s="0" t="n">
+        <v>20.175967448923</v>
+      </c>
+      <c r="AE9" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF9" s="0" t="n">
+        <v>6.69041870887017</v>
+      </c>
+      <c r="AG9" s="0" t="n">
+        <v>20.9603001171262</v>
+      </c>
+      <c r="AH9" s="0" t="n">
+        <v>10.6977703284376</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
@@ -554,8 +1148,74 @@
       <c r="L10" s="0" t="n">
         <v>12.2778944652575</v>
       </c>
-    </row>
-    <row r="11" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M10" s="0" t="n">
+        <v>8.08367048437775</v>
+      </c>
+      <c r="N10" s="0" t="n">
+        <v>14.5447407763081</v>
+      </c>
+      <c r="O10" s="0" t="n">
+        <v>8.88435526642198</v>
+      </c>
+      <c r="P10" s="0" t="n">
+        <v>12.2139201937789</v>
+      </c>
+      <c r="Q10" s="0" t="n">
+        <v>1.77385131845936</v>
+      </c>
+      <c r="R10" s="0" t="n">
+        <v>21.4531348758171</v>
+      </c>
+      <c r="S10" s="0" t="n">
+        <v>20.8497196384028</v>
+      </c>
+      <c r="T10" s="0" t="n">
+        <v>6.69041870887017</v>
+      </c>
+      <c r="U10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="V10" s="0" t="n">
+        <v>25.8474457635566</v>
+      </c>
+      <c r="W10" s="0" t="n">
+        <v>12.2778944652575</v>
+      </c>
+      <c r="X10" s="0" t="n">
+        <v>8.08367048437775</v>
+      </c>
+      <c r="Y10" s="0" t="n">
+        <v>14.5447407763081</v>
+      </c>
+      <c r="Z10" s="0" t="n">
+        <v>8.88435526642198</v>
+      </c>
+      <c r="AA10" s="0" t="n">
+        <v>12.2139201937789</v>
+      </c>
+      <c r="AB10" s="0" t="n">
+        <v>1.77385131845936</v>
+      </c>
+      <c r="AC10" s="0" t="n">
+        <v>21.4531348758171</v>
+      </c>
+      <c r="AD10" s="0" t="n">
+        <v>20.8497196384028</v>
+      </c>
+      <c r="AE10" s="0" t="n">
+        <v>6.69041870887017</v>
+      </c>
+      <c r="AF10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG10" s="0" t="n">
+        <v>25.8474457635566</v>
+      </c>
+      <c r="AH10" s="0" t="n">
+        <v>12.2778944652575</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
@@ -592,8 +1252,74 @@
       <c r="L11" s="0" t="n">
         <v>15.2736364039478</v>
       </c>
-    </row>
-    <row r="12" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M11" s="0" t="n">
+        <v>18.2671081455166</v>
+      </c>
+      <c r="N11" s="0" t="n">
+        <v>11.7029428029876</v>
+      </c>
+      <c r="O11" s="0" t="n">
+        <v>30.1880708890118</v>
+      </c>
+      <c r="P11" s="0" t="n">
+        <v>20.8903114624938</v>
+      </c>
+      <c r="Q11" s="0" t="n">
+        <v>25.4381718093105</v>
+      </c>
+      <c r="R11" s="0" t="n">
+        <v>24.6036806697697</v>
+      </c>
+      <c r="S11" s="0" t="n">
+        <v>15.6374701438564</v>
+      </c>
+      <c r="T11" s="0" t="n">
+        <v>20.9603001171262</v>
+      </c>
+      <c r="U11" s="0" t="n">
+        <v>25.8474457635566</v>
+      </c>
+      <c r="V11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" s="0" t="n">
+        <v>15.2736364039478</v>
+      </c>
+      <c r="X11" s="0" t="n">
+        <v>18.2671081455166</v>
+      </c>
+      <c r="Y11" s="0" t="n">
+        <v>11.7029428029876</v>
+      </c>
+      <c r="Z11" s="0" t="n">
+        <v>30.1880708890118</v>
+      </c>
+      <c r="AA11" s="0" t="n">
+        <v>20.8903114624938</v>
+      </c>
+      <c r="AB11" s="0" t="n">
+        <v>25.4381718093105</v>
+      </c>
+      <c r="AC11" s="0" t="n">
+        <v>24.6036806697697</v>
+      </c>
+      <c r="AD11" s="0" t="n">
+        <v>15.6374701438564</v>
+      </c>
+      <c r="AE11" s="0" t="n">
+        <v>20.9603001171262</v>
+      </c>
+      <c r="AF11" s="0" t="n">
+        <v>25.8474457635566</v>
+      </c>
+      <c r="AG11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH11" s="0" t="n">
+        <v>15.2736364039478</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
@@ -630,52 +1356,2360 @@
       <c r="L12" s="0" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="1"/>
-    </row>
-    <row r="15" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1"/>
-    </row>
-    <row r="16" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="1"/>
-    </row>
-    <row r="17" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="1"/>
-    </row>
-    <row r="18" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="1"/>
-    </row>
-    <row r="19" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="1"/>
-    </row>
-    <row r="20" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="1"/>
-    </row>
-    <row r="21" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="1"/>
-    </row>
-    <row r="22" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="1"/>
-    </row>
-    <row r="23" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="1"/>
-    </row>
-    <row r="24" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="1"/>
-    </row>
-    <row r="25" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="1"/>
+      <c r="M12" s="0" t="n">
+        <v>7.95171207979766</v>
+      </c>
+      <c r="N12" s="0" t="n">
+        <v>3.91543704457114</v>
+      </c>
+      <c r="O12" s="0" t="n">
+        <v>14.935540599523</v>
+      </c>
+      <c r="P12" s="0" t="n">
+        <v>15.0107061792575</v>
+      </c>
+      <c r="Q12" s="0" t="n">
+        <v>12.6305344304982</v>
+      </c>
+      <c r="R12" s="0" t="n">
+        <v>14.2320147027749</v>
+      </c>
+      <c r="S12" s="0" t="n">
+        <v>9.47841181316786</v>
+      </c>
+      <c r="T12" s="0" t="n">
+        <v>10.6977703284376</v>
+      </c>
+      <c r="U12" s="0" t="n">
+        <v>12.2778944652575</v>
+      </c>
+      <c r="V12" s="0" t="n">
+        <v>15.2736364039478</v>
+      </c>
+      <c r="W12" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="X12" s="0" t="n">
+        <v>7.95171207979766</v>
+      </c>
+      <c r="Y12" s="0" t="n">
+        <v>3.91543704457114</v>
+      </c>
+      <c r="Z12" s="0" t="n">
+        <v>14.935540599523</v>
+      </c>
+      <c r="AA12" s="0" t="n">
+        <v>15.0107061792575</v>
+      </c>
+      <c r="AB12" s="0" t="n">
+        <v>12.6305344304982</v>
+      </c>
+      <c r="AC12" s="0" t="n">
+        <v>14.2320147027749</v>
+      </c>
+      <c r="AD12" s="0" t="n">
+        <v>9.47841181316786</v>
+      </c>
+      <c r="AE12" s="0" t="n">
+        <v>10.6977703284376</v>
+      </c>
+      <c r="AF12" s="0" t="n">
+        <v>12.2778944652575</v>
+      </c>
+      <c r="AG12" s="0" t="n">
+        <v>15.2736364039478</v>
+      </c>
+      <c r="AH12" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C13" s="0" t="n">
+        <v>8.08678825307056</v>
+      </c>
+      <c r="D13" s="0" t="n">
+        <v>15.2484921221739</v>
+      </c>
+      <c r="E13" s="0" t="n">
+        <v>7.39506085167661</v>
+      </c>
+      <c r="F13" s="0" t="n">
+        <v>7.29445851314544</v>
+      </c>
+      <c r="G13" s="0" t="n">
+        <v>21.4066476240443</v>
+      </c>
+      <c r="H13" s="0" t="n">
+        <v>17.3983479819206</v>
+      </c>
+      <c r="I13" s="0" t="n">
+        <v>2.99788875710891</v>
+      </c>
+      <c r="J13" s="0" t="n">
+        <v>8.08367048437775</v>
+      </c>
+      <c r="K13" s="0" t="n">
+        <v>18.2671081455166</v>
+      </c>
+      <c r="L13" s="0" t="n">
+        <v>7.95171207979766</v>
+      </c>
+      <c r="M13" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" s="0" t="n">
+        <v>8.08678825307056</v>
+      </c>
+      <c r="O13" s="0" t="n">
+        <v>15.2484921221739</v>
+      </c>
+      <c r="P13" s="0" t="n">
+        <v>7.39506085167661</v>
+      </c>
+      <c r="Q13" s="0" t="n">
+        <v>7.29445851314544</v>
+      </c>
+      <c r="R13" s="0" t="n">
+        <v>21.4066476240443</v>
+      </c>
+      <c r="S13" s="0" t="n">
+        <v>17.3983479819206</v>
+      </c>
+      <c r="T13" s="0" t="n">
+        <v>2.99788875710891</v>
+      </c>
+      <c r="U13" s="0" t="n">
+        <v>8.08367048437775</v>
+      </c>
+      <c r="V13" s="0" t="n">
+        <v>18.2671081455166</v>
+      </c>
+      <c r="W13" s="0" t="n">
+        <v>7.95171207979766</v>
+      </c>
+      <c r="X13" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="0" t="n">
+        <v>8.08678825307056</v>
+      </c>
+      <c r="Z13" s="0" t="n">
+        <v>15.2484921221739</v>
+      </c>
+      <c r="AA13" s="0" t="n">
+        <v>7.39506085167661</v>
+      </c>
+      <c r="AB13" s="0" t="n">
+        <v>7.29445851314544</v>
+      </c>
+      <c r="AC13" s="0" t="n">
+        <v>21.4066476240443</v>
+      </c>
+      <c r="AD13" s="0" t="n">
+        <v>17.3983479819206</v>
+      </c>
+      <c r="AE13" s="0" t="n">
+        <v>2.99788875710891</v>
+      </c>
+      <c r="AF13" s="0" t="n">
+        <v>8.08367048437775</v>
+      </c>
+      <c r="AG13" s="0" t="n">
+        <v>18.2671081455166</v>
+      </c>
+      <c r="AH13" s="0" t="n">
+        <v>7.95171207979766</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" s="0" t="n">
+        <v>8.08678825307056</v>
+      </c>
+      <c r="C14" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" s="0" t="n">
+        <v>18.5512243329113</v>
+      </c>
+      <c r="E14" s="0" t="n">
+        <v>13.9013724232538</v>
+      </c>
+      <c r="F14" s="0" t="n">
+        <v>14.4584666977519</v>
+      </c>
+      <c r="G14" s="0" t="n">
+        <v>17.1825031427321</v>
+      </c>
+      <c r="H14" s="0" t="n">
+        <v>10.5817132946418</v>
+      </c>
+      <c r="I14" s="0" t="n">
+        <v>11.0845661281802</v>
+      </c>
+      <c r="J14" s="0" t="n">
+        <v>14.5447407763081</v>
+      </c>
+      <c r="K14" s="0" t="n">
+        <v>11.7029428029876</v>
+      </c>
+      <c r="L14" s="0" t="n">
+        <v>3.91543704457114</v>
+      </c>
+      <c r="M14" s="0" t="n">
+        <v>8.08678825307056</v>
+      </c>
+      <c r="N14" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" s="0" t="n">
+        <v>18.5512243329113</v>
+      </c>
+      <c r="P14" s="0" t="n">
+        <v>13.9013724232538</v>
+      </c>
+      <c r="Q14" s="0" t="n">
+        <v>14.4584666977519</v>
+      </c>
+      <c r="R14" s="0" t="n">
+        <v>17.1825031427321</v>
+      </c>
+      <c r="S14" s="0" t="n">
+        <v>10.5817132946418</v>
+      </c>
+      <c r="T14" s="0" t="n">
+        <v>11.0845661281802</v>
+      </c>
+      <c r="U14" s="0" t="n">
+        <v>14.5447407763081</v>
+      </c>
+      <c r="V14" s="0" t="n">
+        <v>11.7029428029876</v>
+      </c>
+      <c r="W14" s="0" t="n">
+        <v>3.91543704457114</v>
+      </c>
+      <c r="X14" s="0" t="n">
+        <v>8.08678825307056</v>
+      </c>
+      <c r="Y14" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="0" t="n">
+        <v>18.5512243329113</v>
+      </c>
+      <c r="AA14" s="0" t="n">
+        <v>13.9013724232538</v>
+      </c>
+      <c r="AB14" s="0" t="n">
+        <v>14.4584666977519</v>
+      </c>
+      <c r="AC14" s="0" t="n">
+        <v>17.1825031427321</v>
+      </c>
+      <c r="AD14" s="0" t="n">
+        <v>10.5817132946418</v>
+      </c>
+      <c r="AE14" s="0" t="n">
+        <v>11.0845661281802</v>
+      </c>
+      <c r="AF14" s="0" t="n">
+        <v>14.5447407763081</v>
+      </c>
+      <c r="AG14" s="0" t="n">
+        <v>11.7029428029876</v>
+      </c>
+      <c r="AH14" s="0" t="n">
+        <v>3.91543704457114</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" s="0" t="n">
+        <v>15.2484921221739</v>
+      </c>
+      <c r="C15" s="0" t="n">
+        <v>18.5512243329113</v>
+      </c>
+      <c r="D15" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" s="0" t="n">
+        <v>20.8945942530598</v>
+      </c>
+      <c r="F15" s="0" t="n">
+        <v>10.650892779481</v>
+      </c>
+      <c r="G15" s="0" t="n">
+        <v>17.0168479601835</v>
+      </c>
+      <c r="H15" s="0" t="n">
+        <v>20.2461366314663</v>
+      </c>
+      <c r="I15" s="0" t="n">
+        <v>15.0089616229771</v>
+      </c>
+      <c r="J15" s="0" t="n">
+        <v>8.88435526642198</v>
+      </c>
+      <c r="K15" s="0" t="n">
+        <v>30.1880708890118</v>
+      </c>
+      <c r="L15" s="0" t="n">
+        <v>14.935540599523</v>
+      </c>
+      <c r="M15" s="0" t="n">
+        <v>15.2484921221739</v>
+      </c>
+      <c r="N15" s="0" t="n">
+        <v>18.5512243329113</v>
+      </c>
+      <c r="O15" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" s="0" t="n">
+        <v>20.8945942530598</v>
+      </c>
+      <c r="Q15" s="0" t="n">
+        <v>10.650892779481</v>
+      </c>
+      <c r="R15" s="0" t="n">
+        <v>17.0168479601835</v>
+      </c>
+      <c r="S15" s="0" t="n">
+        <v>20.2461366314663</v>
+      </c>
+      <c r="T15" s="0" t="n">
+        <v>15.0089616229771</v>
+      </c>
+      <c r="U15" s="0" t="n">
+        <v>8.88435526642198</v>
+      </c>
+      <c r="V15" s="0" t="n">
+        <v>30.1880708890118</v>
+      </c>
+      <c r="W15" s="0" t="n">
+        <v>14.935540599523</v>
+      </c>
+      <c r="X15" s="0" t="n">
+        <v>15.2484921221739</v>
+      </c>
+      <c r="Y15" s="0" t="n">
+        <v>18.5512243329113</v>
+      </c>
+      <c r="Z15" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA15" s="0" t="n">
+        <v>20.8945942530598</v>
+      </c>
+      <c r="AB15" s="0" t="n">
+        <v>10.650892779481</v>
+      </c>
+      <c r="AC15" s="0" t="n">
+        <v>17.0168479601835</v>
+      </c>
+      <c r="AD15" s="0" t="n">
+        <v>20.2461366314663</v>
+      </c>
+      <c r="AE15" s="0" t="n">
+        <v>15.0089616229771</v>
+      </c>
+      <c r="AF15" s="0" t="n">
+        <v>8.88435526642198</v>
+      </c>
+      <c r="AG15" s="0" t="n">
+        <v>30.1880708890118</v>
+      </c>
+      <c r="AH15" s="0" t="n">
+        <v>14.935540599523</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" s="0" t="n">
+        <v>7.39506085167661</v>
+      </c>
+      <c r="C16" s="0" t="n">
+        <v>13.9013724232538</v>
+      </c>
+      <c r="D16" s="0" t="n">
+        <v>20.8945942530598</v>
+      </c>
+      <c r="E16" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" s="0" t="n">
+        <v>10.5879601434837</v>
+      </c>
+      <c r="G16" s="0" t="n">
+        <v>28.7910849482961</v>
+      </c>
+      <c r="H16" s="0" t="n">
+        <v>24.1861995464356</v>
+      </c>
+      <c r="I16" s="0" t="n">
+        <v>6.01656862339324</v>
+      </c>
+      <c r="J16" s="0" t="n">
+        <v>12.2139201937789</v>
+      </c>
+      <c r="K16" s="0" t="n">
+        <v>20.8903114624938</v>
+      </c>
+      <c r="L16" s="0" t="n">
+        <v>15.0107061792575</v>
+      </c>
+      <c r="M16" s="0" t="n">
+        <v>7.39506085167661</v>
+      </c>
+      <c r="N16" s="0" t="n">
+        <v>13.9013724232538</v>
+      </c>
+      <c r="O16" s="0" t="n">
+        <v>20.8945942530598</v>
+      </c>
+      <c r="P16" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="0" t="n">
+        <v>10.5879601434837</v>
+      </c>
+      <c r="R16" s="0" t="n">
+        <v>28.7910849482961</v>
+      </c>
+      <c r="S16" s="0" t="n">
+        <v>24.1861995464356</v>
+      </c>
+      <c r="T16" s="0" t="n">
+        <v>6.01656862339324</v>
+      </c>
+      <c r="U16" s="0" t="n">
+        <v>12.2139201937789</v>
+      </c>
+      <c r="V16" s="0" t="n">
+        <v>20.8903114624938</v>
+      </c>
+      <c r="W16" s="0" t="n">
+        <v>15.0107061792575</v>
+      </c>
+      <c r="X16" s="0" t="n">
+        <v>7.39506085167661</v>
+      </c>
+      <c r="Y16" s="0" t="n">
+        <v>13.9013724232538</v>
+      </c>
+      <c r="Z16" s="0" t="n">
+        <v>20.8945942530598</v>
+      </c>
+      <c r="AA16" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB16" s="0" t="n">
+        <v>10.5879601434837</v>
+      </c>
+      <c r="AC16" s="0" t="n">
+        <v>28.7910849482961</v>
+      </c>
+      <c r="AD16" s="0" t="n">
+        <v>24.1861995464356</v>
+      </c>
+      <c r="AE16" s="0" t="n">
+        <v>6.01656862339324</v>
+      </c>
+      <c r="AF16" s="0" t="n">
+        <v>12.2139201937789</v>
+      </c>
+      <c r="AG16" s="0" t="n">
+        <v>20.8903114624938</v>
+      </c>
+      <c r="AH16" s="0" t="n">
+        <v>15.0107061792575</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" s="0" t="n">
+        <v>7.29445851314544</v>
+      </c>
+      <c r="C17" s="0" t="n">
+        <v>14.4584666977519</v>
+      </c>
+      <c r="D17" s="0" t="n">
+        <v>10.650892779481</v>
+      </c>
+      <c r="E17" s="0" t="n">
+        <v>10.5879601434837</v>
+      </c>
+      <c r="F17" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" s="0" t="n">
+        <v>22.7746561444954</v>
+      </c>
+      <c r="H17" s="0" t="n">
+        <v>21.5759079183241</v>
+      </c>
+      <c r="I17" s="0" t="n">
+        <v>5.38078079836003</v>
+      </c>
+      <c r="J17" s="0" t="n">
+        <v>1.77385131845936</v>
+      </c>
+      <c r="K17" s="0" t="n">
+        <v>25.4381718093105</v>
+      </c>
+      <c r="L17" s="0" t="n">
+        <v>12.6305344304982</v>
+      </c>
+      <c r="M17" s="0" t="n">
+        <v>7.29445851314544</v>
+      </c>
+      <c r="N17" s="0" t="n">
+        <v>14.4584666977519</v>
+      </c>
+      <c r="O17" s="0" t="n">
+        <v>10.650892779481</v>
+      </c>
+      <c r="P17" s="0" t="n">
+        <v>10.5879601434837</v>
+      </c>
+      <c r="Q17" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="R17" s="0" t="n">
+        <v>22.7746561444954</v>
+      </c>
+      <c r="S17" s="0" t="n">
+        <v>21.5759079183241</v>
+      </c>
+      <c r="T17" s="0" t="n">
+        <v>5.38078079836003</v>
+      </c>
+      <c r="U17" s="0" t="n">
+        <v>1.77385131845936</v>
+      </c>
+      <c r="V17" s="0" t="n">
+        <v>25.4381718093105</v>
+      </c>
+      <c r="W17" s="0" t="n">
+        <v>12.6305344304982</v>
+      </c>
+      <c r="X17" s="0" t="n">
+        <v>7.29445851314544</v>
+      </c>
+      <c r="Y17" s="0" t="n">
+        <v>14.4584666977519</v>
+      </c>
+      <c r="Z17" s="0" t="n">
+        <v>10.650892779481</v>
+      </c>
+      <c r="AA17" s="0" t="n">
+        <v>10.5879601434837</v>
+      </c>
+      <c r="AB17" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC17" s="0" t="n">
+        <v>22.7746561444954</v>
+      </c>
+      <c r="AD17" s="0" t="n">
+        <v>21.5759079183241</v>
+      </c>
+      <c r="AE17" s="0" t="n">
+        <v>5.38078079836003</v>
+      </c>
+      <c r="AF17" s="0" t="n">
+        <v>1.77385131845936</v>
+      </c>
+      <c r="AG17" s="0" t="n">
+        <v>25.4381718093105</v>
+      </c>
+      <c r="AH17" s="0" t="n">
+        <v>12.6305344304982</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" s="0" t="n">
+        <v>21.4066476240443</v>
+      </c>
+      <c r="C18" s="0" t="n">
+        <v>17.1825031427321</v>
+      </c>
+      <c r="D18" s="0" t="n">
+        <v>17.0168479601835</v>
+      </c>
+      <c r="E18" s="0" t="n">
+        <v>28.7910849482961</v>
+      </c>
+      <c r="F18" s="0" t="n">
+        <v>22.7746561444954</v>
+      </c>
+      <c r="G18" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" s="0" t="n">
+        <v>9.04599497015116</v>
+      </c>
+      <c r="I18" s="0" t="n">
+        <v>23.5132070228627</v>
+      </c>
+      <c r="J18" s="0" t="n">
+        <v>21.4531348758171</v>
+      </c>
+      <c r="K18" s="0" t="n">
+        <v>24.6036806697697</v>
+      </c>
+      <c r="L18" s="0" t="n">
+        <v>14.2320147027749</v>
+      </c>
+      <c r="M18" s="0" t="n">
+        <v>21.4066476240443</v>
+      </c>
+      <c r="N18" s="0" t="n">
+        <v>17.1825031427321</v>
+      </c>
+      <c r="O18" s="0" t="n">
+        <v>17.0168479601835</v>
+      </c>
+      <c r="P18" s="0" t="n">
+        <v>28.7910849482961</v>
+      </c>
+      <c r="Q18" s="0" t="n">
+        <v>22.7746561444954</v>
+      </c>
+      <c r="R18" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S18" s="0" t="n">
+        <v>9.04599497015116</v>
+      </c>
+      <c r="T18" s="0" t="n">
+        <v>23.5132070228627</v>
+      </c>
+      <c r="U18" s="0" t="n">
+        <v>21.4531348758171</v>
+      </c>
+      <c r="V18" s="0" t="n">
+        <v>24.6036806697697</v>
+      </c>
+      <c r="W18" s="0" t="n">
+        <v>14.2320147027749</v>
+      </c>
+      <c r="X18" s="0" t="n">
+        <v>21.4066476240443</v>
+      </c>
+      <c r="Y18" s="0" t="n">
+        <v>17.1825031427321</v>
+      </c>
+      <c r="Z18" s="0" t="n">
+        <v>17.0168479601835</v>
+      </c>
+      <c r="AA18" s="0" t="n">
+        <v>28.7910849482961</v>
+      </c>
+      <c r="AB18" s="0" t="n">
+        <v>22.7746561444954</v>
+      </c>
+      <c r="AC18" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD18" s="0" t="n">
+        <v>9.04599497015116</v>
+      </c>
+      <c r="AE18" s="0" t="n">
+        <v>23.5132070228627</v>
+      </c>
+      <c r="AF18" s="0" t="n">
+        <v>21.4531348758171</v>
+      </c>
+      <c r="AG18" s="0" t="n">
+        <v>24.6036806697697</v>
+      </c>
+      <c r="AH18" s="0" t="n">
+        <v>14.2320147027749</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" s="0" t="n">
+        <v>17.3983479819206</v>
+      </c>
+      <c r="C19" s="0" t="n">
+        <v>10.5817132946418</v>
+      </c>
+      <c r="D19" s="0" t="n">
+        <v>20.2461366314663</v>
+      </c>
+      <c r="E19" s="0" t="n">
+        <v>24.1861995464356</v>
+      </c>
+      <c r="F19" s="0" t="n">
+        <v>21.5759079183241</v>
+      </c>
+      <c r="G19" s="0" t="n">
+        <v>9.04599497015116</v>
+      </c>
+      <c r="H19" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" s="0" t="n">
+        <v>20.175967448923</v>
+      </c>
+      <c r="J19" s="0" t="n">
+        <v>20.8497196384028</v>
+      </c>
+      <c r="K19" s="0" t="n">
+        <v>15.6374701438564</v>
+      </c>
+      <c r="L19" s="0" t="n">
+        <v>9.47841181316786</v>
+      </c>
+      <c r="M19" s="0" t="n">
+        <v>17.3983479819206</v>
+      </c>
+      <c r="N19" s="0" t="n">
+        <v>10.5817132946418</v>
+      </c>
+      <c r="O19" s="0" t="n">
+        <v>20.2461366314663</v>
+      </c>
+      <c r="P19" s="0" t="n">
+        <v>24.1861995464356</v>
+      </c>
+      <c r="Q19" s="0" t="n">
+        <v>21.5759079183241</v>
+      </c>
+      <c r="R19" s="0" t="n">
+        <v>9.04599497015116</v>
+      </c>
+      <c r="S19" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="T19" s="0" t="n">
+        <v>20.175967448923</v>
+      </c>
+      <c r="U19" s="0" t="n">
+        <v>20.8497196384028</v>
+      </c>
+      <c r="V19" s="0" t="n">
+        <v>15.6374701438564</v>
+      </c>
+      <c r="W19" s="0" t="n">
+        <v>9.47841181316786</v>
+      </c>
+      <c r="X19" s="0" t="n">
+        <v>17.3983479819206</v>
+      </c>
+      <c r="Y19" s="0" t="n">
+        <v>10.5817132946418</v>
+      </c>
+      <c r="Z19" s="0" t="n">
+        <v>20.2461366314663</v>
+      </c>
+      <c r="AA19" s="0" t="n">
+        <v>24.1861995464356</v>
+      </c>
+      <c r="AB19" s="0" t="n">
+        <v>21.5759079183241</v>
+      </c>
+      <c r="AC19" s="0" t="n">
+        <v>9.04599497015116</v>
+      </c>
+      <c r="AD19" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE19" s="0" t="n">
+        <v>20.175967448923</v>
+      </c>
+      <c r="AF19" s="0" t="n">
+        <v>20.8497196384028</v>
+      </c>
+      <c r="AG19" s="0" t="n">
+        <v>15.6374701438564</v>
+      </c>
+      <c r="AH19" s="0" t="n">
+        <v>9.47841181316786</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" s="0" t="n">
+        <v>2.99788875710891</v>
+      </c>
+      <c r="C20" s="0" t="n">
+        <v>11.0845661281802</v>
+      </c>
+      <c r="D20" s="0" t="n">
+        <v>15.0089616229771</v>
+      </c>
+      <c r="E20" s="0" t="n">
+        <v>6.01656862339324</v>
+      </c>
+      <c r="F20" s="0" t="n">
+        <v>5.38078079836003</v>
+      </c>
+      <c r="G20" s="0" t="n">
+        <v>23.5132070228627</v>
+      </c>
+      <c r="H20" s="0" t="n">
+        <v>20.175967448923</v>
+      </c>
+      <c r="I20" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" s="0" t="n">
+        <v>6.69041870887017</v>
+      </c>
+      <c r="K20" s="0" t="n">
+        <v>20.9603001171262</v>
+      </c>
+      <c r="L20" s="0" t="n">
+        <v>10.6977703284376</v>
+      </c>
+      <c r="M20" s="0" t="n">
+        <v>2.99788875710891</v>
+      </c>
+      <c r="N20" s="0" t="n">
+        <v>11.0845661281802</v>
+      </c>
+      <c r="O20" s="0" t="n">
+        <v>15.0089616229771</v>
+      </c>
+      <c r="P20" s="0" t="n">
+        <v>6.01656862339324</v>
+      </c>
+      <c r="Q20" s="0" t="n">
+        <v>5.38078079836003</v>
+      </c>
+      <c r="R20" s="0" t="n">
+        <v>23.5132070228627</v>
+      </c>
+      <c r="S20" s="0" t="n">
+        <v>20.175967448923</v>
+      </c>
+      <c r="T20" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="U20" s="0" t="n">
+        <v>6.69041870887017</v>
+      </c>
+      <c r="V20" s="0" t="n">
+        <v>20.9603001171262</v>
+      </c>
+      <c r="W20" s="0" t="n">
+        <v>10.6977703284376</v>
+      </c>
+      <c r="X20" s="0" t="n">
+        <v>2.99788875710891</v>
+      </c>
+      <c r="Y20" s="0" t="n">
+        <v>11.0845661281802</v>
+      </c>
+      <c r="Z20" s="0" t="n">
+        <v>15.0089616229771</v>
+      </c>
+      <c r="AA20" s="0" t="n">
+        <v>6.01656862339324</v>
+      </c>
+      <c r="AB20" s="0" t="n">
+        <v>5.38078079836003</v>
+      </c>
+      <c r="AC20" s="0" t="n">
+        <v>23.5132070228627</v>
+      </c>
+      <c r="AD20" s="0" t="n">
+        <v>20.175967448923</v>
+      </c>
+      <c r="AE20" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF20" s="0" t="n">
+        <v>6.69041870887017</v>
+      </c>
+      <c r="AG20" s="0" t="n">
+        <v>20.9603001171262</v>
+      </c>
+      <c r="AH20" s="0" t="n">
+        <v>10.6977703284376</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" s="0" t="n">
+        <v>8.08367048437775</v>
+      </c>
+      <c r="C21" s="0" t="n">
+        <v>14.5447407763081</v>
+      </c>
+      <c r="D21" s="0" t="n">
+        <v>8.88435526642198</v>
+      </c>
+      <c r="E21" s="0" t="n">
+        <v>12.2139201937789</v>
+      </c>
+      <c r="F21" s="0" t="n">
+        <v>1.77385131845936</v>
+      </c>
+      <c r="G21" s="0" t="n">
+        <v>21.4531348758171</v>
+      </c>
+      <c r="H21" s="0" t="n">
+        <v>20.8497196384028</v>
+      </c>
+      <c r="I21" s="0" t="n">
+        <v>6.69041870887017</v>
+      </c>
+      <c r="J21" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" s="0" t="n">
+        <v>25.8474457635566</v>
+      </c>
+      <c r="L21" s="0" t="n">
+        <v>12.2778944652575</v>
+      </c>
+      <c r="M21" s="0" t="n">
+        <v>8.08367048437775</v>
+      </c>
+      <c r="N21" s="0" t="n">
+        <v>14.5447407763081</v>
+      </c>
+      <c r="O21" s="0" t="n">
+        <v>8.88435526642198</v>
+      </c>
+      <c r="P21" s="0" t="n">
+        <v>12.2139201937789</v>
+      </c>
+      <c r="Q21" s="0" t="n">
+        <v>1.77385131845936</v>
+      </c>
+      <c r="R21" s="0" t="n">
+        <v>21.4531348758171</v>
+      </c>
+      <c r="S21" s="0" t="n">
+        <v>20.8497196384028</v>
+      </c>
+      <c r="T21" s="0" t="n">
+        <v>6.69041870887017</v>
+      </c>
+      <c r="U21" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="V21" s="0" t="n">
+        <v>25.8474457635566</v>
+      </c>
+      <c r="W21" s="0" t="n">
+        <v>12.2778944652575</v>
+      </c>
+      <c r="X21" s="0" t="n">
+        <v>8.08367048437775</v>
+      </c>
+      <c r="Y21" s="0" t="n">
+        <v>14.5447407763081</v>
+      </c>
+      <c r="Z21" s="0" t="n">
+        <v>8.88435526642198</v>
+      </c>
+      <c r="AA21" s="0" t="n">
+        <v>12.2139201937789</v>
+      </c>
+      <c r="AB21" s="0" t="n">
+        <v>1.77385131845936</v>
+      </c>
+      <c r="AC21" s="0" t="n">
+        <v>21.4531348758171</v>
+      </c>
+      <c r="AD21" s="0" t="n">
+        <v>20.8497196384028</v>
+      </c>
+      <c r="AE21" s="0" t="n">
+        <v>6.69041870887017</v>
+      </c>
+      <c r="AF21" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG21" s="0" t="n">
+        <v>25.8474457635566</v>
+      </c>
+      <c r="AH21" s="0" t="n">
+        <v>12.2778944652575</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" s="0" t="n">
+        <v>18.2671081455166</v>
+      </c>
+      <c r="C22" s="0" t="n">
+        <v>11.7029428029876</v>
+      </c>
+      <c r="D22" s="0" t="n">
+        <v>30.1880708890118</v>
+      </c>
+      <c r="E22" s="0" t="n">
+        <v>20.8903114624938</v>
+      </c>
+      <c r="F22" s="0" t="n">
+        <v>25.4381718093105</v>
+      </c>
+      <c r="G22" s="0" t="n">
+        <v>24.6036806697697</v>
+      </c>
+      <c r="H22" s="0" t="n">
+        <v>15.6374701438564</v>
+      </c>
+      <c r="I22" s="0" t="n">
+        <v>20.9603001171262</v>
+      </c>
+      <c r="J22" s="0" t="n">
+        <v>25.8474457635566</v>
+      </c>
+      <c r="K22" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" s="0" t="n">
+        <v>15.2736364039478</v>
+      </c>
+      <c r="M22" s="0" t="n">
+        <v>18.2671081455166</v>
+      </c>
+      <c r="N22" s="0" t="n">
+        <v>11.7029428029876</v>
+      </c>
+      <c r="O22" s="0" t="n">
+        <v>30.1880708890118</v>
+      </c>
+      <c r="P22" s="0" t="n">
+        <v>20.8903114624938</v>
+      </c>
+      <c r="Q22" s="0" t="n">
+        <v>25.4381718093105</v>
+      </c>
+      <c r="R22" s="0" t="n">
+        <v>24.6036806697697</v>
+      </c>
+      <c r="S22" s="0" t="n">
+        <v>15.6374701438564</v>
+      </c>
+      <c r="T22" s="0" t="n">
+        <v>20.9603001171262</v>
+      </c>
+      <c r="U22" s="0" t="n">
+        <v>25.8474457635566</v>
+      </c>
+      <c r="V22" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" s="0" t="n">
+        <v>15.2736364039478</v>
+      </c>
+      <c r="X22" s="0" t="n">
+        <v>18.2671081455166</v>
+      </c>
+      <c r="Y22" s="0" t="n">
+        <v>11.7029428029876</v>
+      </c>
+      <c r="Z22" s="0" t="n">
+        <v>30.1880708890118</v>
+      </c>
+      <c r="AA22" s="0" t="n">
+        <v>20.8903114624938</v>
+      </c>
+      <c r="AB22" s="0" t="n">
+        <v>25.4381718093105</v>
+      </c>
+      <c r="AC22" s="0" t="n">
+        <v>24.6036806697697</v>
+      </c>
+      <c r="AD22" s="0" t="n">
+        <v>15.6374701438564</v>
+      </c>
+      <c r="AE22" s="0" t="n">
+        <v>20.9603001171262</v>
+      </c>
+      <c r="AF22" s="0" t="n">
+        <v>25.8474457635566</v>
+      </c>
+      <c r="AG22" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH22" s="0" t="n">
+        <v>15.2736364039478</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" s="0" t="n">
+        <v>7.95171207979766</v>
+      </c>
+      <c r="C23" s="0" t="n">
+        <v>3.91543704457114</v>
+      </c>
+      <c r="D23" s="0" t="n">
+        <v>14.935540599523</v>
+      </c>
+      <c r="E23" s="0" t="n">
+        <v>15.0107061792575</v>
+      </c>
+      <c r="F23" s="0" t="n">
+        <v>12.6305344304982</v>
+      </c>
+      <c r="G23" s="0" t="n">
+        <v>14.2320147027749</v>
+      </c>
+      <c r="H23" s="0" t="n">
+        <v>9.47841181316786</v>
+      </c>
+      <c r="I23" s="0" t="n">
+        <v>10.6977703284376</v>
+      </c>
+      <c r="J23" s="0" t="n">
+        <v>12.2778944652575</v>
+      </c>
+      <c r="K23" s="0" t="n">
+        <v>15.2736364039478</v>
+      </c>
+      <c r="L23" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" s="0" t="n">
+        <v>7.95171207979766</v>
+      </c>
+      <c r="N23" s="0" t="n">
+        <v>3.91543704457114</v>
+      </c>
+      <c r="O23" s="0" t="n">
+        <v>14.935540599523</v>
+      </c>
+      <c r="P23" s="0" t="n">
+        <v>15.0107061792575</v>
+      </c>
+      <c r="Q23" s="0" t="n">
+        <v>12.6305344304982</v>
+      </c>
+      <c r="R23" s="0" t="n">
+        <v>14.2320147027749</v>
+      </c>
+      <c r="S23" s="0" t="n">
+        <v>9.47841181316786</v>
+      </c>
+      <c r="T23" s="0" t="n">
+        <v>10.6977703284376</v>
+      </c>
+      <c r="U23" s="0" t="n">
+        <v>12.2778944652575</v>
+      </c>
+      <c r="V23" s="0" t="n">
+        <v>15.2736364039478</v>
+      </c>
+      <c r="W23" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="X23" s="0" t="n">
+        <v>7.95171207979766</v>
+      </c>
+      <c r="Y23" s="0" t="n">
+        <v>3.91543704457114</v>
+      </c>
+      <c r="Z23" s="0" t="n">
+        <v>14.935540599523</v>
+      </c>
+      <c r="AA23" s="0" t="n">
+        <v>15.0107061792575</v>
+      </c>
+      <c r="AB23" s="0" t="n">
+        <v>12.6305344304982</v>
+      </c>
+      <c r="AC23" s="0" t="n">
+        <v>14.2320147027749</v>
+      </c>
+      <c r="AD23" s="0" t="n">
+        <v>9.47841181316786</v>
+      </c>
+      <c r="AE23" s="0" t="n">
+        <v>10.6977703284376</v>
+      </c>
+      <c r="AF23" s="0" t="n">
+        <v>12.2778944652575</v>
+      </c>
+      <c r="AG23" s="0" t="n">
+        <v>15.2736364039478</v>
+      </c>
+      <c r="AH23" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C24" s="0" t="n">
+        <v>8.08678825307056</v>
+      </c>
+      <c r="D24" s="0" t="n">
+        <v>15.2484921221739</v>
+      </c>
+      <c r="E24" s="0" t="n">
+        <v>7.39506085167661</v>
+      </c>
+      <c r="F24" s="0" t="n">
+        <v>7.29445851314544</v>
+      </c>
+      <c r="G24" s="0" t="n">
+        <v>21.4066476240443</v>
+      </c>
+      <c r="H24" s="0" t="n">
+        <v>17.3983479819206</v>
+      </c>
+      <c r="I24" s="0" t="n">
+        <v>2.99788875710891</v>
+      </c>
+      <c r="J24" s="0" t="n">
+        <v>8.08367048437775</v>
+      </c>
+      <c r="K24" s="0" t="n">
+        <v>18.2671081455166</v>
+      </c>
+      <c r="L24" s="0" t="n">
+        <v>7.95171207979766</v>
+      </c>
+      <c r="M24" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" s="0" t="n">
+        <v>8.08678825307056</v>
+      </c>
+      <c r="O24" s="0" t="n">
+        <v>15.2484921221739</v>
+      </c>
+      <c r="P24" s="0" t="n">
+        <v>7.39506085167661</v>
+      </c>
+      <c r="Q24" s="0" t="n">
+        <v>7.29445851314544</v>
+      </c>
+      <c r="R24" s="0" t="n">
+        <v>21.4066476240443</v>
+      </c>
+      <c r="S24" s="0" t="n">
+        <v>17.3983479819206</v>
+      </c>
+      <c r="T24" s="0" t="n">
+        <v>2.99788875710891</v>
+      </c>
+      <c r="U24" s="0" t="n">
+        <v>8.08367048437775</v>
+      </c>
+      <c r="V24" s="0" t="n">
+        <v>18.2671081455166</v>
+      </c>
+      <c r="W24" s="0" t="n">
+        <v>7.95171207979766</v>
+      </c>
+      <c r="X24" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y24" s="0" t="n">
+        <v>8.08678825307056</v>
+      </c>
+      <c r="Z24" s="0" t="n">
+        <v>15.2484921221739</v>
+      </c>
+      <c r="AA24" s="0" t="n">
+        <v>7.39506085167661</v>
+      </c>
+      <c r="AB24" s="0" t="n">
+        <v>7.29445851314544</v>
+      </c>
+      <c r="AC24" s="0" t="n">
+        <v>21.4066476240443</v>
+      </c>
+      <c r="AD24" s="0" t="n">
+        <v>17.3983479819206</v>
+      </c>
+      <c r="AE24" s="0" t="n">
+        <v>2.99788875710891</v>
+      </c>
+      <c r="AF24" s="0" t="n">
+        <v>8.08367048437775</v>
+      </c>
+      <c r="AG24" s="0" t="n">
+        <v>18.2671081455166</v>
+      </c>
+      <c r="AH24" s="0" t="n">
+        <v>7.95171207979766</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" s="0" t="n">
+        <v>8.08678825307056</v>
+      </c>
+      <c r="C25" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D25" s="0" t="n">
+        <v>18.5512243329113</v>
+      </c>
+      <c r="E25" s="0" t="n">
+        <v>13.9013724232538</v>
+      </c>
+      <c r="F25" s="0" t="n">
+        <v>14.4584666977519</v>
+      </c>
+      <c r="G25" s="0" t="n">
+        <v>17.1825031427321</v>
+      </c>
+      <c r="H25" s="0" t="n">
+        <v>10.5817132946418</v>
+      </c>
+      <c r="I25" s="0" t="n">
+        <v>11.0845661281802</v>
+      </c>
+      <c r="J25" s="0" t="n">
+        <v>14.5447407763081</v>
+      </c>
+      <c r="K25" s="0" t="n">
+        <v>11.7029428029876</v>
+      </c>
+      <c r="L25" s="0" t="n">
+        <v>3.91543704457114</v>
+      </c>
+      <c r="M25" s="0" t="n">
+        <v>8.08678825307056</v>
+      </c>
+      <c r="N25" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O25" s="0" t="n">
+        <v>18.5512243329113</v>
+      </c>
+      <c r="P25" s="0" t="n">
+        <v>13.9013724232538</v>
+      </c>
+      <c r="Q25" s="0" t="n">
+        <v>14.4584666977519</v>
+      </c>
+      <c r="R25" s="0" t="n">
+        <v>17.1825031427321</v>
+      </c>
+      <c r="S25" s="0" t="n">
+        <v>10.5817132946418</v>
+      </c>
+      <c r="T25" s="0" t="n">
+        <v>11.0845661281802</v>
+      </c>
+      <c r="U25" s="0" t="n">
+        <v>14.5447407763081</v>
+      </c>
+      <c r="V25" s="0" t="n">
+        <v>11.7029428029876</v>
+      </c>
+      <c r="W25" s="0" t="n">
+        <v>3.91543704457114</v>
+      </c>
+      <c r="X25" s="0" t="n">
+        <v>8.08678825307056</v>
+      </c>
+      <c r="Y25" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z25" s="0" t="n">
+        <v>18.5512243329113</v>
+      </c>
+      <c r="AA25" s="0" t="n">
+        <v>13.9013724232538</v>
+      </c>
+      <c r="AB25" s="0" t="n">
+        <v>14.4584666977519</v>
+      </c>
+      <c r="AC25" s="0" t="n">
+        <v>17.1825031427321</v>
+      </c>
+      <c r="AD25" s="0" t="n">
+        <v>10.5817132946418</v>
+      </c>
+      <c r="AE25" s="0" t="n">
+        <v>11.0845661281802</v>
+      </c>
+      <c r="AF25" s="0" t="n">
+        <v>14.5447407763081</v>
+      </c>
+      <c r="AG25" s="0" t="n">
+        <v>11.7029428029876</v>
+      </c>
+      <c r="AH25" s="0" t="n">
+        <v>3.91543704457114</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" s="0" t="n">
+        <v>15.2484921221739</v>
+      </c>
+      <c r="C26" s="0" t="n">
+        <v>18.5512243329113</v>
+      </c>
+      <c r="D26" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" s="0" t="n">
+        <v>20.8945942530598</v>
+      </c>
+      <c r="F26" s="0" t="n">
+        <v>10.650892779481</v>
+      </c>
+      <c r="G26" s="0" t="n">
+        <v>17.0168479601835</v>
+      </c>
+      <c r="H26" s="0" t="n">
+        <v>20.2461366314663</v>
+      </c>
+      <c r="I26" s="0" t="n">
+        <v>15.0089616229771</v>
+      </c>
+      <c r="J26" s="0" t="n">
+        <v>8.88435526642198</v>
+      </c>
+      <c r="K26" s="0" t="n">
+        <v>30.1880708890118</v>
+      </c>
+      <c r="L26" s="0" t="n">
+        <v>14.935540599523</v>
+      </c>
+      <c r="M26" s="0" t="n">
+        <v>15.2484921221739</v>
+      </c>
+      <c r="N26" s="0" t="n">
+        <v>18.5512243329113</v>
+      </c>
+      <c r="O26" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P26" s="0" t="n">
+        <v>20.8945942530598</v>
+      </c>
+      <c r="Q26" s="0" t="n">
+        <v>10.650892779481</v>
+      </c>
+      <c r="R26" s="0" t="n">
+        <v>17.0168479601835</v>
+      </c>
+      <c r="S26" s="0" t="n">
+        <v>20.2461366314663</v>
+      </c>
+      <c r="T26" s="0" t="n">
+        <v>15.0089616229771</v>
+      </c>
+      <c r="U26" s="0" t="n">
+        <v>8.88435526642198</v>
+      </c>
+      <c r="V26" s="0" t="n">
+        <v>30.1880708890118</v>
+      </c>
+      <c r="W26" s="0" t="n">
+        <v>14.935540599523</v>
+      </c>
+      <c r="X26" s="0" t="n">
+        <v>15.2484921221739</v>
+      </c>
+      <c r="Y26" s="0" t="n">
+        <v>18.5512243329113</v>
+      </c>
+      <c r="Z26" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA26" s="0" t="n">
+        <v>20.8945942530598</v>
+      </c>
+      <c r="AB26" s="0" t="n">
+        <v>10.650892779481</v>
+      </c>
+      <c r="AC26" s="0" t="n">
+        <v>17.0168479601835</v>
+      </c>
+      <c r="AD26" s="0" t="n">
+        <v>20.2461366314663</v>
+      </c>
+      <c r="AE26" s="0" t="n">
+        <v>15.0089616229771</v>
+      </c>
+      <c r="AF26" s="0" t="n">
+        <v>8.88435526642198</v>
+      </c>
+      <c r="AG26" s="0" t="n">
+        <v>30.1880708890118</v>
+      </c>
+      <c r="AH26" s="0" t="n">
+        <v>14.935540599523</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" s="0" t="n">
+        <v>7.39506085167661</v>
+      </c>
+      <c r="C27" s="0" t="n">
+        <v>13.9013724232538</v>
+      </c>
+      <c r="D27" s="0" t="n">
+        <v>20.8945942530598</v>
+      </c>
+      <c r="E27" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F27" s="0" t="n">
+        <v>10.5879601434837</v>
+      </c>
+      <c r="G27" s="0" t="n">
+        <v>28.7910849482961</v>
+      </c>
+      <c r="H27" s="0" t="n">
+        <v>24.1861995464356</v>
+      </c>
+      <c r="I27" s="0" t="n">
+        <v>6.01656862339324</v>
+      </c>
+      <c r="J27" s="0" t="n">
+        <v>12.2139201937789</v>
+      </c>
+      <c r="K27" s="0" t="n">
+        <v>20.8903114624938</v>
+      </c>
+      <c r="L27" s="0" t="n">
+        <v>15.0107061792575</v>
+      </c>
+      <c r="M27" s="0" t="n">
+        <v>7.39506085167661</v>
+      </c>
+      <c r="N27" s="0" t="n">
+        <v>13.9013724232538</v>
+      </c>
+      <c r="O27" s="0" t="n">
+        <v>20.8945942530598</v>
+      </c>
+      <c r="P27" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="0" t="n">
+        <v>10.5879601434837</v>
+      </c>
+      <c r="R27" s="0" t="n">
+        <v>28.7910849482961</v>
+      </c>
+      <c r="S27" s="0" t="n">
+        <v>24.1861995464356</v>
+      </c>
+      <c r="T27" s="0" t="n">
+        <v>6.01656862339324</v>
+      </c>
+      <c r="U27" s="0" t="n">
+        <v>12.2139201937789</v>
+      </c>
+      <c r="V27" s="0" t="n">
+        <v>20.8903114624938</v>
+      </c>
+      <c r="W27" s="0" t="n">
+        <v>15.0107061792575</v>
+      </c>
+      <c r="X27" s="0" t="n">
+        <v>7.39506085167661</v>
+      </c>
+      <c r="Y27" s="0" t="n">
+        <v>13.9013724232538</v>
+      </c>
+      <c r="Z27" s="0" t="n">
+        <v>20.8945942530598</v>
+      </c>
+      <c r="AA27" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB27" s="0" t="n">
+        <v>10.5879601434837</v>
+      </c>
+      <c r="AC27" s="0" t="n">
+        <v>28.7910849482961</v>
+      </c>
+      <c r="AD27" s="0" t="n">
+        <v>24.1861995464356</v>
+      </c>
+      <c r="AE27" s="0" t="n">
+        <v>6.01656862339324</v>
+      </c>
+      <c r="AF27" s="0" t="n">
+        <v>12.2139201937789</v>
+      </c>
+      <c r="AG27" s="0" t="n">
+        <v>20.8903114624938</v>
+      </c>
+      <c r="AH27" s="0" t="n">
+        <v>15.0107061792575</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" s="0" t="n">
+        <v>7.29445851314544</v>
+      </c>
+      <c r="C28" s="0" t="n">
+        <v>14.4584666977519</v>
+      </c>
+      <c r="D28" s="0" t="n">
+        <v>10.650892779481</v>
+      </c>
+      <c r="E28" s="0" t="n">
+        <v>10.5879601434837</v>
+      </c>
+      <c r="F28" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" s="0" t="n">
+        <v>22.7746561444954</v>
+      </c>
+      <c r="H28" s="0" t="n">
+        <v>21.5759079183241</v>
+      </c>
+      <c r="I28" s="0" t="n">
+        <v>5.38078079836003</v>
+      </c>
+      <c r="J28" s="0" t="n">
+        <v>1.77385131845936</v>
+      </c>
+      <c r="K28" s="0" t="n">
+        <v>25.4381718093105</v>
+      </c>
+      <c r="L28" s="0" t="n">
+        <v>12.6305344304982</v>
+      </c>
+      <c r="M28" s="0" t="n">
+        <v>7.29445851314544</v>
+      </c>
+      <c r="N28" s="0" t="n">
+        <v>14.4584666977519</v>
+      </c>
+      <c r="O28" s="0" t="n">
+        <v>10.650892779481</v>
+      </c>
+      <c r="P28" s="0" t="n">
+        <v>10.5879601434837</v>
+      </c>
+      <c r="Q28" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="R28" s="0" t="n">
+        <v>22.7746561444954</v>
+      </c>
+      <c r="S28" s="0" t="n">
+        <v>21.5759079183241</v>
+      </c>
+      <c r="T28" s="0" t="n">
+        <v>5.38078079836003</v>
+      </c>
+      <c r="U28" s="0" t="n">
+        <v>1.77385131845936</v>
+      </c>
+      <c r="V28" s="0" t="n">
+        <v>25.4381718093105</v>
+      </c>
+      <c r="W28" s="0" t="n">
+        <v>12.6305344304982</v>
+      </c>
+      <c r="X28" s="0" t="n">
+        <v>7.29445851314544</v>
+      </c>
+      <c r="Y28" s="0" t="n">
+        <v>14.4584666977519</v>
+      </c>
+      <c r="Z28" s="0" t="n">
+        <v>10.650892779481</v>
+      </c>
+      <c r="AA28" s="0" t="n">
+        <v>10.5879601434837</v>
+      </c>
+      <c r="AB28" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC28" s="0" t="n">
+        <v>22.7746561444954</v>
+      </c>
+      <c r="AD28" s="0" t="n">
+        <v>21.5759079183241</v>
+      </c>
+      <c r="AE28" s="0" t="n">
+        <v>5.38078079836003</v>
+      </c>
+      <c r="AF28" s="0" t="n">
+        <v>1.77385131845936</v>
+      </c>
+      <c r="AG28" s="0" t="n">
+        <v>25.4381718093105</v>
+      </c>
+      <c r="AH28" s="0" t="n">
+        <v>12.6305344304982</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" s="0" t="n">
+        <v>21.4066476240443</v>
+      </c>
+      <c r="C29" s="0" t="n">
+        <v>17.1825031427321</v>
+      </c>
+      <c r="D29" s="0" t="n">
+        <v>17.0168479601835</v>
+      </c>
+      <c r="E29" s="0" t="n">
+        <v>28.7910849482961</v>
+      </c>
+      <c r="F29" s="0" t="n">
+        <v>22.7746561444954</v>
+      </c>
+      <c r="G29" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" s="0" t="n">
+        <v>9.04599497015116</v>
+      </c>
+      <c r="I29" s="0" t="n">
+        <v>23.5132070228627</v>
+      </c>
+      <c r="J29" s="0" t="n">
+        <v>21.4531348758171</v>
+      </c>
+      <c r="K29" s="0" t="n">
+        <v>24.6036806697697</v>
+      </c>
+      <c r="L29" s="0" t="n">
+        <v>14.2320147027749</v>
+      </c>
+      <c r="M29" s="0" t="n">
+        <v>21.4066476240443</v>
+      </c>
+      <c r="N29" s="0" t="n">
+        <v>17.1825031427321</v>
+      </c>
+      <c r="O29" s="0" t="n">
+        <v>17.0168479601835</v>
+      </c>
+      <c r="P29" s="0" t="n">
+        <v>28.7910849482961</v>
+      </c>
+      <c r="Q29" s="0" t="n">
+        <v>22.7746561444954</v>
+      </c>
+      <c r="R29" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S29" s="0" t="n">
+        <v>9.04599497015116</v>
+      </c>
+      <c r="T29" s="0" t="n">
+        <v>23.5132070228627</v>
+      </c>
+      <c r="U29" s="0" t="n">
+        <v>21.4531348758171</v>
+      </c>
+      <c r="V29" s="0" t="n">
+        <v>24.6036806697697</v>
+      </c>
+      <c r="W29" s="0" t="n">
+        <v>14.2320147027749</v>
+      </c>
+      <c r="X29" s="0" t="n">
+        <v>21.4066476240443</v>
+      </c>
+      <c r="Y29" s="0" t="n">
+        <v>17.1825031427321</v>
+      </c>
+      <c r="Z29" s="0" t="n">
+        <v>17.0168479601835</v>
+      </c>
+      <c r="AA29" s="0" t="n">
+        <v>28.7910849482961</v>
+      </c>
+      <c r="AB29" s="0" t="n">
+        <v>22.7746561444954</v>
+      </c>
+      <c r="AC29" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD29" s="0" t="n">
+        <v>9.04599497015116</v>
+      </c>
+      <c r="AE29" s="0" t="n">
+        <v>23.5132070228627</v>
+      </c>
+      <c r="AF29" s="0" t="n">
+        <v>21.4531348758171</v>
+      </c>
+      <c r="AG29" s="0" t="n">
+        <v>24.6036806697697</v>
+      </c>
+      <c r="AH29" s="0" t="n">
+        <v>14.2320147027749</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" s="0" t="n">
+        <v>17.3983479819206</v>
+      </c>
+      <c r="C30" s="0" t="n">
+        <v>10.5817132946418</v>
+      </c>
+      <c r="D30" s="0" t="n">
+        <v>20.2461366314663</v>
+      </c>
+      <c r="E30" s="0" t="n">
+        <v>24.1861995464356</v>
+      </c>
+      <c r="F30" s="0" t="n">
+        <v>21.5759079183241</v>
+      </c>
+      <c r="G30" s="0" t="n">
+        <v>9.04599497015116</v>
+      </c>
+      <c r="H30" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I30" s="0" t="n">
+        <v>20.175967448923</v>
+      </c>
+      <c r="J30" s="0" t="n">
+        <v>20.8497196384028</v>
+      </c>
+      <c r="K30" s="0" t="n">
+        <v>15.6374701438564</v>
+      </c>
+      <c r="L30" s="0" t="n">
+        <v>9.47841181316786</v>
+      </c>
+      <c r="M30" s="0" t="n">
+        <v>17.3983479819206</v>
+      </c>
+      <c r="N30" s="0" t="n">
+        <v>10.5817132946418</v>
+      </c>
+      <c r="O30" s="0" t="n">
+        <v>20.2461366314663</v>
+      </c>
+      <c r="P30" s="0" t="n">
+        <v>24.1861995464356</v>
+      </c>
+      <c r="Q30" s="0" t="n">
+        <v>21.5759079183241</v>
+      </c>
+      <c r="R30" s="0" t="n">
+        <v>9.04599497015116</v>
+      </c>
+      <c r="S30" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="T30" s="0" t="n">
+        <v>20.175967448923</v>
+      </c>
+      <c r="U30" s="0" t="n">
+        <v>20.8497196384028</v>
+      </c>
+      <c r="V30" s="0" t="n">
+        <v>15.6374701438564</v>
+      </c>
+      <c r="W30" s="0" t="n">
+        <v>9.47841181316786</v>
+      </c>
+      <c r="X30" s="0" t="n">
+        <v>17.3983479819206</v>
+      </c>
+      <c r="Y30" s="0" t="n">
+        <v>10.5817132946418</v>
+      </c>
+      <c r="Z30" s="0" t="n">
+        <v>20.2461366314663</v>
+      </c>
+      <c r="AA30" s="0" t="n">
+        <v>24.1861995464356</v>
+      </c>
+      <c r="AB30" s="0" t="n">
+        <v>21.5759079183241</v>
+      </c>
+      <c r="AC30" s="0" t="n">
+        <v>9.04599497015116</v>
+      </c>
+      <c r="AD30" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE30" s="0" t="n">
+        <v>20.175967448923</v>
+      </c>
+      <c r="AF30" s="0" t="n">
+        <v>20.8497196384028</v>
+      </c>
+      <c r="AG30" s="0" t="n">
+        <v>15.6374701438564</v>
+      </c>
+      <c r="AH30" s="0" t="n">
+        <v>9.47841181316786</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" s="0" t="n">
+        <v>2.99788875710891</v>
+      </c>
+      <c r="C31" s="0" t="n">
+        <v>11.0845661281802</v>
+      </c>
+      <c r="D31" s="0" t="n">
+        <v>15.0089616229771</v>
+      </c>
+      <c r="E31" s="0" t="n">
+        <v>6.01656862339324</v>
+      </c>
+      <c r="F31" s="0" t="n">
+        <v>5.38078079836003</v>
+      </c>
+      <c r="G31" s="0" t="n">
+        <v>23.5132070228627</v>
+      </c>
+      <c r="H31" s="0" t="n">
+        <v>20.175967448923</v>
+      </c>
+      <c r="I31" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" s="0" t="n">
+        <v>6.69041870887017</v>
+      </c>
+      <c r="K31" s="0" t="n">
+        <v>20.9603001171262</v>
+      </c>
+      <c r="L31" s="0" t="n">
+        <v>10.6977703284376</v>
+      </c>
+      <c r="M31" s="0" t="n">
+        <v>2.99788875710891</v>
+      </c>
+      <c r="N31" s="0" t="n">
+        <v>11.0845661281802</v>
+      </c>
+      <c r="O31" s="0" t="n">
+        <v>15.0089616229771</v>
+      </c>
+      <c r="P31" s="0" t="n">
+        <v>6.01656862339324</v>
+      </c>
+      <c r="Q31" s="0" t="n">
+        <v>5.38078079836003</v>
+      </c>
+      <c r="R31" s="0" t="n">
+        <v>23.5132070228627</v>
+      </c>
+      <c r="S31" s="0" t="n">
+        <v>20.175967448923</v>
+      </c>
+      <c r="T31" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="U31" s="0" t="n">
+        <v>6.69041870887017</v>
+      </c>
+      <c r="V31" s="0" t="n">
+        <v>20.9603001171262</v>
+      </c>
+      <c r="W31" s="0" t="n">
+        <v>10.6977703284376</v>
+      </c>
+      <c r="X31" s="0" t="n">
+        <v>2.99788875710891</v>
+      </c>
+      <c r="Y31" s="0" t="n">
+        <v>11.0845661281802</v>
+      </c>
+      <c r="Z31" s="0" t="n">
+        <v>15.0089616229771</v>
+      </c>
+      <c r="AA31" s="0" t="n">
+        <v>6.01656862339324</v>
+      </c>
+      <c r="AB31" s="0" t="n">
+        <v>5.38078079836003</v>
+      </c>
+      <c r="AC31" s="0" t="n">
+        <v>23.5132070228627</v>
+      </c>
+      <c r="AD31" s="0" t="n">
+        <v>20.175967448923</v>
+      </c>
+      <c r="AE31" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF31" s="0" t="n">
+        <v>6.69041870887017</v>
+      </c>
+      <c r="AG31" s="0" t="n">
+        <v>20.9603001171262</v>
+      </c>
+      <c r="AH31" s="0" t="n">
+        <v>10.6977703284376</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" s="0" t="n">
+        <v>8.08367048437775</v>
+      </c>
+      <c r="C32" s="0" t="n">
+        <v>14.5447407763081</v>
+      </c>
+      <c r="D32" s="0" t="n">
+        <v>8.88435526642198</v>
+      </c>
+      <c r="E32" s="0" t="n">
+        <v>12.2139201937789</v>
+      </c>
+      <c r="F32" s="0" t="n">
+        <v>1.77385131845936</v>
+      </c>
+      <c r="G32" s="0" t="n">
+        <v>21.4531348758171</v>
+      </c>
+      <c r="H32" s="0" t="n">
+        <v>20.8497196384028</v>
+      </c>
+      <c r="I32" s="0" t="n">
+        <v>6.69041870887017</v>
+      </c>
+      <c r="J32" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" s="0" t="n">
+        <v>25.8474457635566</v>
+      </c>
+      <c r="L32" s="0" t="n">
+        <v>12.2778944652575</v>
+      </c>
+      <c r="M32" s="0" t="n">
+        <v>8.08367048437775</v>
+      </c>
+      <c r="N32" s="0" t="n">
+        <v>14.5447407763081</v>
+      </c>
+      <c r="O32" s="0" t="n">
+        <v>8.88435526642198</v>
+      </c>
+      <c r="P32" s="0" t="n">
+        <v>12.2139201937789</v>
+      </c>
+      <c r="Q32" s="0" t="n">
+        <v>1.77385131845936</v>
+      </c>
+      <c r="R32" s="0" t="n">
+        <v>21.4531348758171</v>
+      </c>
+      <c r="S32" s="0" t="n">
+        <v>20.8497196384028</v>
+      </c>
+      <c r="T32" s="0" t="n">
+        <v>6.69041870887017</v>
+      </c>
+      <c r="U32" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="V32" s="0" t="n">
+        <v>25.8474457635566</v>
+      </c>
+      <c r="W32" s="0" t="n">
+        <v>12.2778944652575</v>
+      </c>
+      <c r="X32" s="0" t="n">
+        <v>8.08367048437775</v>
+      </c>
+      <c r="Y32" s="0" t="n">
+        <v>14.5447407763081</v>
+      </c>
+      <c r="Z32" s="0" t="n">
+        <v>8.88435526642198</v>
+      </c>
+      <c r="AA32" s="0" t="n">
+        <v>12.2139201937789</v>
+      </c>
+      <c r="AB32" s="0" t="n">
+        <v>1.77385131845936</v>
+      </c>
+      <c r="AC32" s="0" t="n">
+        <v>21.4531348758171</v>
+      </c>
+      <c r="AD32" s="0" t="n">
+        <v>20.8497196384028</v>
+      </c>
+      <c r="AE32" s="0" t="n">
+        <v>6.69041870887017</v>
+      </c>
+      <c r="AF32" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG32" s="0" t="n">
+        <v>25.8474457635566</v>
+      </c>
+      <c r="AH32" s="0" t="n">
+        <v>12.2778944652575</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" s="0" t="n">
+        <v>18.2671081455166</v>
+      </c>
+      <c r="C33" s="0" t="n">
+        <v>11.7029428029876</v>
+      </c>
+      <c r="D33" s="0" t="n">
+        <v>30.1880708890118</v>
+      </c>
+      <c r="E33" s="0" t="n">
+        <v>20.8903114624938</v>
+      </c>
+      <c r="F33" s="0" t="n">
+        <v>25.4381718093105</v>
+      </c>
+      <c r="G33" s="0" t="n">
+        <v>24.6036806697697</v>
+      </c>
+      <c r="H33" s="0" t="n">
+        <v>15.6374701438564</v>
+      </c>
+      <c r="I33" s="0" t="n">
+        <v>20.9603001171262</v>
+      </c>
+      <c r="J33" s="0" t="n">
+        <v>25.8474457635566</v>
+      </c>
+      <c r="K33" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L33" s="0" t="n">
+        <v>15.2736364039478</v>
+      </c>
+      <c r="M33" s="0" t="n">
+        <v>18.2671081455166</v>
+      </c>
+      <c r="N33" s="0" t="n">
+        <v>11.7029428029876</v>
+      </c>
+      <c r="O33" s="0" t="n">
+        <v>30.1880708890118</v>
+      </c>
+      <c r="P33" s="0" t="n">
+        <v>20.8903114624938</v>
+      </c>
+      <c r="Q33" s="0" t="n">
+        <v>25.4381718093105</v>
+      </c>
+      <c r="R33" s="0" t="n">
+        <v>24.6036806697697</v>
+      </c>
+      <c r="S33" s="0" t="n">
+        <v>15.6374701438564</v>
+      </c>
+      <c r="T33" s="0" t="n">
+        <v>20.9603001171262</v>
+      </c>
+      <c r="U33" s="0" t="n">
+        <v>25.8474457635566</v>
+      </c>
+      <c r="V33" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" s="0" t="n">
+        <v>15.2736364039478</v>
+      </c>
+      <c r="X33" s="0" t="n">
+        <v>18.2671081455166</v>
+      </c>
+      <c r="Y33" s="0" t="n">
+        <v>11.7029428029876</v>
+      </c>
+      <c r="Z33" s="0" t="n">
+        <v>30.1880708890118</v>
+      </c>
+      <c r="AA33" s="0" t="n">
+        <v>20.8903114624938</v>
+      </c>
+      <c r="AB33" s="0" t="n">
+        <v>25.4381718093105</v>
+      </c>
+      <c r="AC33" s="0" t="n">
+        <v>24.6036806697697</v>
+      </c>
+      <c r="AD33" s="0" t="n">
+        <v>15.6374701438564</v>
+      </c>
+      <c r="AE33" s="0" t="n">
+        <v>20.9603001171262</v>
+      </c>
+      <c r="AF33" s="0" t="n">
+        <v>25.8474457635566</v>
+      </c>
+      <c r="AG33" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH33" s="0" t="n">
+        <v>15.2736364039478</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" s="0" t="n">
+        <v>7.95171207979766</v>
+      </c>
+      <c r="C34" s="0" t="n">
+        <v>3.91543704457114</v>
+      </c>
+      <c r="D34" s="0" t="n">
+        <v>14.935540599523</v>
+      </c>
+      <c r="E34" s="0" t="n">
+        <v>15.0107061792575</v>
+      </c>
+      <c r="F34" s="0" t="n">
+        <v>12.6305344304982</v>
+      </c>
+      <c r="G34" s="0" t="n">
+        <v>14.2320147027749</v>
+      </c>
+      <c r="H34" s="0" t="n">
+        <v>9.47841181316786</v>
+      </c>
+      <c r="I34" s="0" t="n">
+        <v>10.6977703284376</v>
+      </c>
+      <c r="J34" s="0" t="n">
+        <v>12.2778944652575</v>
+      </c>
+      <c r="K34" s="0" t="n">
+        <v>15.2736364039478</v>
+      </c>
+      <c r="L34" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="M34" s="0" t="n">
+        <v>7.95171207979766</v>
+      </c>
+      <c r="N34" s="0" t="n">
+        <v>3.91543704457114</v>
+      </c>
+      <c r="O34" s="0" t="n">
+        <v>14.935540599523</v>
+      </c>
+      <c r="P34" s="0" t="n">
+        <v>15.0107061792575</v>
+      </c>
+      <c r="Q34" s="0" t="n">
+        <v>12.6305344304982</v>
+      </c>
+      <c r="R34" s="0" t="n">
+        <v>14.2320147027749</v>
+      </c>
+      <c r="S34" s="0" t="n">
+        <v>9.47841181316786</v>
+      </c>
+      <c r="T34" s="0" t="n">
+        <v>10.6977703284376</v>
+      </c>
+      <c r="U34" s="0" t="n">
+        <v>12.2778944652575</v>
+      </c>
+      <c r="V34" s="0" t="n">
+        <v>15.2736364039478</v>
+      </c>
+      <c r="W34" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="X34" s="0" t="n">
+        <v>7.95171207979766</v>
+      </c>
+      <c r="Y34" s="0" t="n">
+        <v>3.91543704457114</v>
+      </c>
+      <c r="Z34" s="0" t="n">
+        <v>14.935540599523</v>
+      </c>
+      <c r="AA34" s="0" t="n">
+        <v>15.0107061792575</v>
+      </c>
+      <c r="AB34" s="0" t="n">
+        <v>12.6305344304982</v>
+      </c>
+      <c r="AC34" s="0" t="n">
+        <v>14.2320147027749</v>
+      </c>
+      <c r="AD34" s="0" t="n">
+        <v>9.47841181316786</v>
+      </c>
+      <c r="AE34" s="0" t="n">
+        <v>10.6977703284376</v>
+      </c>
+      <c r="AF34" s="0" t="n">
+        <v>12.2778944652575</v>
+      </c>
+      <c r="AG34" s="0" t="n">
+        <v>15.2736364039478</v>
+      </c>
+      <c r="AH34" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -2108,13 +5142,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K241"/>
+  <dimension ref="A1:K257"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A73" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B244" activeCellId="0" sqref="B244"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="1" style="0" width="8.54"/>
   </cols>
@@ -2334,10 +5368,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="3" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C7" s="3" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D7" s="3" t="n">
         <v>0</v>
@@ -2369,10 +5403,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="3" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C8" s="3" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D8" s="3" t="n">
         <v>32</v>
@@ -2404,10 +5438,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="3" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C9" s="3" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D9" s="3" t="n">
         <v>14</v>
@@ -2439,10 +5473,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="3" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C10" s="3" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D10" s="3" t="n">
         <v>198</v>
@@ -2474,10 +5508,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="3" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C11" s="3" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D11" s="3" t="n">
         <v>180</v>
@@ -2509,10 +5543,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="3" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C12" s="3" t="n">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D12" s="3" t="n">
         <v>0</v>
@@ -2544,10 +5578,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="3" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="C13" s="3" t="n">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="D13" s="3" t="n">
         <v>32</v>
@@ -2579,10 +5613,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="3" t="n">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="C14" s="3" t="n">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="D14" s="3" t="n">
         <v>14</v>
@@ -2614,10 +5648,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="3" t="n">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="C15" s="3" t="n">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D15" s="3" t="n">
         <v>198</v>
@@ -2649,10 +5683,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="3" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="C16" s="3" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D16" s="3" t="n">
         <v>180</v>
@@ -2684,10 +5718,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="3" t="n">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="C17" s="3" t="n">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="D17" s="3" t="n">
         <v>0</v>
@@ -2719,10 +5753,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="3" t="n">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="C18" s="3" t="n">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="D18" s="3" t="n">
         <v>32</v>
@@ -2754,10 +5788,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="3" t="n">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="C19" s="3" t="n">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="D19" s="3" t="n">
         <v>14</v>
@@ -2789,10 +5823,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="3" t="n">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="C20" s="3" t="n">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="D20" s="3" t="n">
         <v>198</v>
@@ -2824,10 +5858,10 @@
         <v>20</v>
       </c>
       <c r="B21" s="3" t="n">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="C21" s="3" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="D21" s="3" t="n">
         <v>180</v>
@@ -2859,10 +5893,10 @@
         <v>21</v>
       </c>
       <c r="B22" s="3" t="n">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="C22" s="3" t="n">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="D22" s="3" t="n">
         <v>0</v>
@@ -2894,10 +5928,10 @@
         <v>22</v>
       </c>
       <c r="B23" s="3" t="n">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="C23" s="3" t="n">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="D23" s="3" t="n">
         <v>32</v>
@@ -2929,10 +5963,10 @@
         <v>23</v>
       </c>
       <c r="B24" s="3" t="n">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="C24" s="3" t="n">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="D24" s="3" t="n">
         <v>14</v>
@@ -2964,10 +5998,10 @@
         <v>24</v>
       </c>
       <c r="B25" s="3" t="n">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="C25" s="3" t="n">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="D25" s="3" t="n">
         <v>198</v>
@@ -2999,10 +6033,10 @@
         <v>25</v>
       </c>
       <c r="B26" s="3" t="n">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="C26" s="3" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="D26" s="3" t="n">
         <v>180</v>
@@ -3034,10 +6068,10 @@
         <v>26</v>
       </c>
       <c r="B27" s="3" t="n">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="C27" s="3" t="n">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="D27" s="3" t="n">
         <v>0</v>
@@ -3069,10 +6103,10 @@
         <v>27</v>
       </c>
       <c r="B28" s="3" t="n">
-        <v>2</v>
+        <v>27</v>
       </c>
       <c r="C28" s="3" t="n">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="D28" s="3" t="n">
         <v>32</v>
@@ -3104,10 +6138,10 @@
         <v>28</v>
       </c>
       <c r="B29" s="3" t="n">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="C29" s="3" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D29" s="3" t="n">
         <v>14</v>
@@ -3139,10 +6173,10 @@
         <v>29</v>
       </c>
       <c r="B30" s="3" t="n">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="C30" s="3" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D30" s="3" t="n">
         <v>198</v>
@@ -3174,10 +6208,10 @@
         <v>30</v>
       </c>
       <c r="B31" s="3" t="n">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="C31" s="3" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D31" s="3" t="n">
         <v>180</v>
@@ -3209,10 +6243,10 @@
         <v>31</v>
       </c>
       <c r="B32" s="3" t="n">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="C32" s="3" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D32" s="3" t="n">
         <v>0</v>
@@ -3244,10 +6278,10 @@
         <v>32</v>
       </c>
       <c r="B33" s="3" t="n">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="C33" s="3" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D33" s="3" t="n">
         <v>32</v>
@@ -3279,10 +6313,10 @@
         <v>33</v>
       </c>
       <c r="B34" s="3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C34" s="3" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D34" s="3" t="n">
         <v>14</v>
@@ -3314,10 +6348,10 @@
         <v>34</v>
       </c>
       <c r="B35" s="3" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C35" s="3" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D35" s="3" t="n">
         <v>198</v>
@@ -3349,10 +6383,10 @@
         <v>35</v>
       </c>
       <c r="B36" s="3" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C36" s="3" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D36" s="3" t="n">
         <v>180</v>
@@ -3384,10 +6418,10 @@
         <v>36</v>
       </c>
       <c r="B37" s="3" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C37" s="3" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D37" s="3" t="n">
         <v>0</v>
@@ -3419,10 +6453,10 @@
         <v>37</v>
       </c>
       <c r="B38" s="3" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C38" s="3" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D38" s="3" t="n">
         <v>32</v>
@@ -3454,10 +6488,10 @@
         <v>38</v>
       </c>
       <c r="B39" s="3" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C39" s="3" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D39" s="3" t="n">
         <v>14</v>
@@ -3489,10 +6523,10 @@
         <v>39</v>
       </c>
       <c r="B40" s="3" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C40" s="3" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D40" s="3" t="n">
         <v>198</v>
@@ -3524,10 +6558,10 @@
         <v>40</v>
       </c>
       <c r="B41" s="3" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C41" s="3" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D41" s="3" t="n">
         <v>180</v>
@@ -3559,10 +6593,10 @@
         <v>41</v>
       </c>
       <c r="B42" s="3" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C42" s="3" t="n">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D42" s="3" t="n">
         <v>0</v>
@@ -3594,10 +6628,10 @@
         <v>42</v>
       </c>
       <c r="B43" s="3" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C43" s="3" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D43" s="3" t="n">
         <v>32</v>
@@ -3629,10 +6663,10 @@
         <v>43</v>
       </c>
       <c r="B44" s="3" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C44" s="3" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="D44" s="3" t="n">
         <v>14</v>
@@ -3664,10 +6698,10 @@
         <v>44</v>
       </c>
       <c r="B45" s="3" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="C45" s="3" t="n">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D45" s="3" t="n">
         <v>198</v>
@@ -3699,10 +6733,10 @@
         <v>45</v>
       </c>
       <c r="B46" s="3" t="n">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C46" s="3" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="D46" s="3" t="n">
         <v>180</v>
@@ -3734,10 +6768,10 @@
         <v>46</v>
       </c>
       <c r="B47" s="3" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="C47" s="3" t="n">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="D47" s="3" t="n">
         <v>0</v>
@@ -3769,10 +6803,10 @@
         <v>47</v>
       </c>
       <c r="B48" s="3" t="n">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="C48" s="3" t="n">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="D48" s="3" t="n">
         <v>32</v>
@@ -3804,10 +6838,10 @@
         <v>48</v>
       </c>
       <c r="B49" s="3" t="n">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="C49" s="3" t="n">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="D49" s="3" t="n">
         <v>14</v>
@@ -3839,10 +6873,10 @@
         <v>49</v>
       </c>
       <c r="B50" s="3" t="n">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="C50" s="3" t="n">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D50" s="3" t="n">
         <v>198</v>
@@ -3874,10 +6908,10 @@
         <v>50</v>
       </c>
       <c r="B51" s="3" t="n">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="C51" s="3" t="n">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="D51" s="3" t="n">
         <v>180</v>
@@ -3909,10 +6943,10 @@
         <v>51</v>
       </c>
       <c r="B52" s="3" t="n">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="C52" s="3" t="n">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="D52" s="3" t="n">
         <v>0</v>
@@ -3944,10 +6978,10 @@
         <v>52</v>
       </c>
       <c r="B53" s="3" t="n">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="C53" s="3" t="n">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="D53" s="3" t="n">
         <v>32</v>
@@ -3979,10 +7013,10 @@
         <v>53</v>
       </c>
       <c r="B54" s="3" t="n">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="C54" s="3" t="n">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="D54" s="3" t="n">
         <v>14</v>
@@ -4014,10 +7048,10 @@
         <v>54</v>
       </c>
       <c r="B55" s="3" t="n">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="C55" s="3" t="n">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D55" s="3" t="n">
         <v>198</v>
@@ -4049,10 +7083,10 @@
         <v>55</v>
       </c>
       <c r="B56" s="3" t="n">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="C56" s="3" t="n">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="D56" s="3" t="n">
         <v>180</v>
@@ -4084,10 +7118,10 @@
         <v>56</v>
       </c>
       <c r="B57" s="3" t="n">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="C57" s="3" t="n">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="D57" s="3" t="n">
         <v>0</v>
@@ -4119,10 +7153,10 @@
         <v>57</v>
       </c>
       <c r="B58" s="3" t="n">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="C58" s="3" t="n">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="D58" s="3" t="n">
         <v>32</v>
@@ -4154,10 +7188,10 @@
         <v>58</v>
       </c>
       <c r="B59" s="3" t="n">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="C59" s="3" t="n">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="D59" s="3" t="n">
         <v>14</v>
@@ -4189,10 +7223,10 @@
         <v>59</v>
       </c>
       <c r="B60" s="3" t="n">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="C60" s="3" t="n">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="D60" s="3" t="n">
         <v>198</v>
@@ -4224,10 +7258,10 @@
         <v>60</v>
       </c>
       <c r="B61" s="3" t="n">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="C61" s="3" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D61" s="3" t="n">
         <v>180</v>
@@ -4259,10 +7293,10 @@
         <v>61</v>
       </c>
       <c r="B62" s="3" t="n">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="C62" s="3" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D62" s="3" t="n">
         <v>0</v>
@@ -4294,10 +7328,10 @@
         <v>62</v>
       </c>
       <c r="B63" s="3" t="n">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="C63" s="3" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D63" s="3" t="n">
         <v>32</v>
@@ -4329,10 +7363,10 @@
         <v>63</v>
       </c>
       <c r="B64" s="3" t="n">
-        <v>3</v>
+        <v>31</v>
       </c>
       <c r="C64" s="3" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D64" s="3" t="n">
         <v>14</v>
@@ -4364,10 +7398,10 @@
         <v>64</v>
       </c>
       <c r="B65" s="3" t="n">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="C65" s="3" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D65" s="3" t="n">
         <v>198</v>
@@ -4399,10 +7433,10 @@
         <v>65</v>
       </c>
       <c r="B66" s="3" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C66" s="3" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D66" s="3" t="n">
         <v>180</v>
@@ -4434,10 +7468,10 @@
         <v>66</v>
       </c>
       <c r="B67" s="3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C67" s="3" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D67" s="3" t="n">
         <v>0</v>
@@ -4469,10 +7503,10 @@
         <v>67</v>
       </c>
       <c r="B68" s="3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C68" s="3" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D68" s="3" t="n">
         <v>32</v>
@@ -4504,10 +7538,10 @@
         <v>68</v>
       </c>
       <c r="B69" s="3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C69" s="3" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D69" s="3" t="n">
         <v>14</v>
@@ -4539,10 +7573,10 @@
         <v>69</v>
       </c>
       <c r="B70" s="3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C70" s="3" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D70" s="3" t="n">
         <v>198</v>
@@ -4574,10 +7608,10 @@
         <v>70</v>
       </c>
       <c r="B71" s="3" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C71" s="3" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D71" s="3" t="n">
         <v>180</v>
@@ -4609,10 +7643,10 @@
         <v>71</v>
       </c>
       <c r="B72" s="3" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C72" s="3" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D72" s="3" t="n">
         <v>0</v>
@@ -4644,10 +7678,10 @@
         <v>72</v>
       </c>
       <c r="B73" s="3" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C73" s="3" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D73" s="3" t="n">
         <v>32</v>
@@ -4679,10 +7713,10 @@
         <v>73</v>
       </c>
       <c r="B74" s="3" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C74" s="3" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D74" s="3" t="n">
         <v>14</v>
@@ -4714,10 +7748,10 @@
         <v>74</v>
       </c>
       <c r="B75" s="3" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C75" s="3" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D75" s="3" t="n">
         <v>198</v>
@@ -4749,10 +7783,10 @@
         <v>75</v>
       </c>
       <c r="B76" s="3" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C76" s="3" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D76" s="3" t="n">
         <v>180</v>
@@ -4784,10 +7818,10 @@
         <v>76</v>
       </c>
       <c r="B77" s="3" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="C77" s="3" t="n">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="D77" s="3" t="n">
         <v>0</v>
@@ -4819,10 +7853,10 @@
         <v>77</v>
       </c>
       <c r="B78" s="3" t="n">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="C78" s="3" t="n">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="D78" s="3" t="n">
         <v>32</v>
@@ -4854,10 +7888,10 @@
         <v>78</v>
       </c>
       <c r="B79" s="3" t="n">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="C79" s="3" t="n">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="D79" s="3" t="n">
         <v>14</v>
@@ -4889,10 +7923,10 @@
         <v>79</v>
       </c>
       <c r="B80" s="3" t="n">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="C80" s="3" t="n">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D80" s="3" t="n">
         <v>198</v>
@@ -4924,10 +7958,10 @@
         <v>80</v>
       </c>
       <c r="B81" s="3" t="n">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="C81" s="3" t="n">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="D81" s="3" t="n">
         <v>180</v>
@@ -4959,10 +7993,10 @@
         <v>81</v>
       </c>
       <c r="B82" s="3" t="n">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="C82" s="3" t="n">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="D82" s="3" t="n">
         <v>0</v>
@@ -4994,10 +8028,10 @@
         <v>82</v>
       </c>
       <c r="B83" s="3" t="n">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="C83" s="3" t="n">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="D83" s="3" t="n">
         <v>32</v>
@@ -5029,10 +8063,10 @@
         <v>83</v>
       </c>
       <c r="B84" s="3" t="n">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="C84" s="3" t="n">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="D84" s="3" t="n">
         <v>14</v>
@@ -5064,10 +8098,10 @@
         <v>84</v>
       </c>
       <c r="B85" s="3" t="n">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="C85" s="3" t="n">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D85" s="3" t="n">
         <v>198</v>
@@ -5099,10 +8133,10 @@
         <v>85</v>
       </c>
       <c r="B86" s="3" t="n">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="C86" s="3" t="n">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="D86" s="3" t="n">
         <v>180</v>
@@ -5134,10 +8168,10 @@
         <v>86</v>
       </c>
       <c r="B87" s="3" t="n">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="C87" s="3" t="n">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="D87" s="3" t="n">
         <v>0</v>
@@ -5169,10 +8203,10 @@
         <v>87</v>
       </c>
       <c r="B88" s="3" t="n">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="C88" s="3" t="n">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="D88" s="3" t="n">
         <v>32</v>
@@ -5204,10 +8238,10 @@
         <v>88</v>
       </c>
       <c r="B89" s="3" t="n">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="C89" s="3" t="n">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="D89" s="3" t="n">
         <v>14</v>
@@ -5239,10 +8273,10 @@
         <v>89</v>
       </c>
       <c r="B90" s="3" t="n">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="C90" s="3" t="n">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="D90" s="3" t="n">
         <v>198</v>
@@ -5274,10 +8308,10 @@
         <v>90</v>
       </c>
       <c r="B91" s="3" t="n">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="C91" s="3" t="n">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="D91" s="3" t="n">
         <v>180</v>
@@ -5309,10 +8343,10 @@
         <v>91</v>
       </c>
       <c r="B92" s="3" t="n">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="C92" s="3" t="n">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="D92" s="3" t="n">
         <v>0</v>
@@ -5344,10 +8378,10 @@
         <v>92</v>
       </c>
       <c r="B93" s="3" t="n">
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="C93" s="3" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D93" s="3" t="n">
         <v>32</v>
@@ -5379,10 +8413,10 @@
         <v>93</v>
       </c>
       <c r="B94" s="3" t="n">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="C94" s="3" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D94" s="3" t="n">
         <v>14</v>
@@ -5414,10 +8448,10 @@
         <v>94</v>
       </c>
       <c r="B95" s="3" t="n">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="C95" s="3" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D95" s="3" t="n">
         <v>198</v>
@@ -5449,10 +8483,10 @@
         <v>95</v>
       </c>
       <c r="B96" s="3" t="n">
-        <v>5</v>
+        <v>31</v>
       </c>
       <c r="C96" s="3" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D96" s="3" t="n">
         <v>180</v>
@@ -5484,10 +8518,10 @@
         <v>96</v>
       </c>
       <c r="B97" s="3" t="n">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="C97" s="3" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D97" s="3" t="n">
         <v>0</v>
@@ -5519,10 +8553,10 @@
         <v>97</v>
       </c>
       <c r="B98" s="3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C98" s="3" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D98" s="3" t="n">
         <v>32</v>
@@ -5554,10 +8588,10 @@
         <v>98</v>
       </c>
       <c r="B99" s="3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C99" s="3" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D99" s="3" t="n">
         <v>14</v>
@@ -5589,10 +8623,10 @@
         <v>99</v>
       </c>
       <c r="B100" s="3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C100" s="3" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D100" s="3" t="n">
         <v>198</v>
@@ -5624,10 +8658,10 @@
         <v>100</v>
       </c>
       <c r="B101" s="3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C101" s="3" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D101" s="3" t="n">
         <v>180</v>
@@ -5659,10 +8693,10 @@
         <v>101</v>
       </c>
       <c r="B102" s="3" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C102" s="3" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D102" s="3" t="n">
         <v>0</v>
@@ -5694,10 +8728,10 @@
         <v>102</v>
       </c>
       <c r="B103" s="3" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C103" s="3" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D103" s="3" t="n">
         <v>32</v>
@@ -5729,10 +8763,10 @@
         <v>103</v>
       </c>
       <c r="B104" s="3" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C104" s="3" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D104" s="3" t="n">
         <v>14</v>
@@ -5764,10 +8798,10 @@
         <v>104</v>
       </c>
       <c r="B105" s="3" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C105" s="3" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D105" s="3" t="n">
         <v>198</v>
@@ -5799,10 +8833,10 @@
         <v>105</v>
       </c>
       <c r="B106" s="3" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C106" s="3" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D106" s="3" t="n">
         <v>180</v>
@@ -5834,10 +8868,10 @@
         <v>106</v>
       </c>
       <c r="B107" s="3" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C107" s="3" t="n">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D107" s="3" t="n">
         <v>0</v>
@@ -5869,10 +8903,10 @@
         <v>107</v>
       </c>
       <c r="B108" s="3" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="C108" s="3" t="n">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="D108" s="3" t="n">
         <v>32</v>
@@ -5904,10 +8938,10 @@
         <v>108</v>
       </c>
       <c r="B109" s="3" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="C109" s="3" t="n">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D109" s="3" t="n">
         <v>14</v>
@@ -5939,10 +8973,10 @@
         <v>109</v>
       </c>
       <c r="B110" s="3" t="n">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="C110" s="3" t="n">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D110" s="3" t="n">
         <v>198</v>
@@ -5974,10 +9008,10 @@
         <v>110</v>
       </c>
       <c r="B111" s="3" t="n">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="C111" s="3" t="n">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="D111" s="3" t="n">
         <v>180</v>
@@ -6009,10 +9043,10 @@
         <v>111</v>
       </c>
       <c r="B112" s="3" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C112" s="3" t="n">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D112" s="3" t="n">
         <v>0</v>
@@ -6044,10 +9078,10 @@
         <v>112</v>
       </c>
       <c r="B113" s="3" t="n">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="C113" s="3" t="n">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="D113" s="3" t="n">
         <v>32</v>
@@ -6079,10 +9113,10 @@
         <v>113</v>
       </c>
       <c r="B114" s="3" t="n">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="C114" s="3" t="n">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="D114" s="3" t="n">
         <v>14</v>
@@ -6114,10 +9148,10 @@
         <v>114</v>
       </c>
       <c r="B115" s="3" t="n">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="C115" s="3" t="n">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D115" s="3" t="n">
         <v>198</v>
@@ -6149,10 +9183,10 @@
         <v>115</v>
       </c>
       <c r="B116" s="3" t="n">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="C116" s="3" t="n">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="D116" s="3" t="n">
         <v>180</v>
@@ -6184,10 +9218,10 @@
         <v>116</v>
       </c>
       <c r="B117" s="3" t="n">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="C117" s="3" t="n">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="D117" s="3" t="n">
         <v>0</v>
@@ -6219,10 +9253,10 @@
         <v>117</v>
       </c>
       <c r="B118" s="3" t="n">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="C118" s="3" t="n">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="D118" s="3" t="n">
         <v>32</v>
@@ -6254,10 +9288,10 @@
         <v>118</v>
       </c>
       <c r="B119" s="3" t="n">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="C119" s="3" t="n">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="D119" s="3" t="n">
         <v>14</v>
@@ -6289,10 +9323,10 @@
         <v>119</v>
       </c>
       <c r="B120" s="3" t="n">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="C120" s="3" t="n">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D120" s="3" t="n">
         <v>198</v>
@@ -6324,10 +9358,10 @@
         <v>120</v>
       </c>
       <c r="B121" s="3" t="n">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="C121" s="3" t="n">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="D121" s="3" t="n">
         <v>180</v>
@@ -6359,10 +9393,10 @@
         <v>121</v>
       </c>
       <c r="B122" s="3" t="n">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="C122" s="3" t="n">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="D122" s="3" t="n">
         <v>0</v>
@@ -6394,10 +9428,10 @@
         <v>122</v>
       </c>
       <c r="B123" s="3" t="n">
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="C123" s="3" t="n">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="D123" s="3" t="n">
         <v>32</v>
@@ -6429,10 +9463,10 @@
         <v>123</v>
       </c>
       <c r="B124" s="3" t="n">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="C124" s="3" t="n">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="D124" s="3" t="n">
         <v>14</v>
@@ -6464,10 +9498,10 @@
         <v>124</v>
       </c>
       <c r="B125" s="3" t="n">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="C125" s="3" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D125" s="3" t="n">
         <v>198</v>
@@ -6499,10 +9533,10 @@
         <v>125</v>
       </c>
       <c r="B126" s="3" t="n">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="C126" s="3" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D126" s="3" t="n">
         <v>180</v>
@@ -6534,10 +9568,10 @@
         <v>126</v>
       </c>
       <c r="B127" s="3" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="C127" s="3" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D127" s="3" t="n">
         <v>0</v>
@@ -6569,10 +9603,10 @@
         <v>127</v>
       </c>
       <c r="B128" s="3" t="n">
-        <v>2</v>
+        <v>31</v>
       </c>
       <c r="C128" s="3" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D128" s="3" t="n">
         <v>32</v>
@@ -6604,10 +9638,10 @@
         <v>128</v>
       </c>
       <c r="B129" s="3" t="n">
-        <v>3</v>
+        <v>32</v>
       </c>
       <c r="C129" s="3" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D129" s="3" t="n">
         <v>14</v>
@@ -6639,10 +9673,10 @@
         <v>129</v>
       </c>
       <c r="B130" s="3" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C130" s="3" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D130" s="3" t="n">
         <v>198</v>
@@ -6674,10 +9708,10 @@
         <v>130</v>
       </c>
       <c r="B131" s="3" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C131" s="3" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D131" s="3" t="n">
         <v>180</v>
@@ -6709,10 +9743,10 @@
         <v>131</v>
       </c>
       <c r="B132" s="3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C132" s="3" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D132" s="3" t="n">
         <v>0</v>
@@ -6744,10 +9778,10 @@
         <v>132</v>
       </c>
       <c r="B133" s="3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C133" s="3" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D133" s="3" t="n">
         <v>32</v>
@@ -6779,10 +9813,10 @@
         <v>133</v>
       </c>
       <c r="B134" s="3" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C134" s="3" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D134" s="3" t="n">
         <v>14</v>
@@ -6814,10 +9848,10 @@
         <v>134</v>
       </c>
       <c r="B135" s="3" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C135" s="3" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D135" s="3" t="n">
         <v>198</v>
@@ -6849,10 +9883,10 @@
         <v>135</v>
       </c>
       <c r="B136" s="3" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C136" s="3" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D136" s="3" t="n">
         <v>180</v>
@@ -6884,10 +9918,10 @@
         <v>136</v>
       </c>
       <c r="B137" s="3" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C137" s="3" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D137" s="3" t="n">
         <v>0</v>
@@ -6919,10 +9953,10 @@
         <v>137</v>
       </c>
       <c r="B138" s="3" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C138" s="3" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D138" s="3" t="n">
         <v>32</v>
@@ -6954,10 +9988,10 @@
         <v>138</v>
       </c>
       <c r="B139" s="3" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C139" s="3" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D139" s="3" t="n">
         <v>14</v>
@@ -6989,10 +10023,10 @@
         <v>139</v>
       </c>
       <c r="B140" s="3" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C140" s="3" t="n">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D140" s="3" t="n">
         <v>198</v>
@@ -7024,10 +10058,10 @@
         <v>140</v>
       </c>
       <c r="B141" s="3" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C141" s="3" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="D141" s="3" t="n">
         <v>180</v>
@@ -7059,10 +10093,10 @@
         <v>141</v>
       </c>
       <c r="B142" s="3" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="C142" s="3" t="n">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D142" s="3" t="n">
         <v>0</v>
@@ -7094,10 +10128,10 @@
         <v>142</v>
       </c>
       <c r="B143" s="3" t="n">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="C143" s="3" t="n">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="D143" s="3" t="n">
         <v>32</v>
@@ -7129,10 +10163,10 @@
         <v>143</v>
       </c>
       <c r="B144" s="3" t="n">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="C144" s="3" t="n">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="D144" s="3" t="n">
         <v>14</v>
@@ -7164,10 +10198,10 @@
         <v>144</v>
       </c>
       <c r="B145" s="3" t="n">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="C145" s="3" t="n">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D145" s="3" t="n">
         <v>198</v>
@@ -7199,10 +10233,10 @@
         <v>145</v>
       </c>
       <c r="B146" s="3" t="n">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="C146" s="3" t="n">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="D146" s="3" t="n">
         <v>180</v>
@@ -7234,10 +10268,10 @@
         <v>146</v>
       </c>
       <c r="B147" s="3" t="n">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="C147" s="3" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="D147" s="3" t="n">
         <v>0</v>
@@ -7269,10 +10303,10 @@
         <v>147</v>
       </c>
       <c r="B148" s="3" t="n">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="C148" s="3" t="n">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="D148" s="3" t="n">
         <v>32</v>
@@ -7304,10 +10338,10 @@
         <v>148</v>
       </c>
       <c r="B149" s="3" t="n">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="C149" s="3" t="n">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="D149" s="3" t="n">
         <v>14</v>
@@ -7339,10 +10373,10 @@
         <v>149</v>
       </c>
       <c r="B150" s="3" t="n">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="C150" s="3" t="n">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="D150" s="3" t="n">
         <v>198</v>
@@ -7374,10 +10408,10 @@
         <v>150</v>
       </c>
       <c r="B151" s="3" t="n">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="C151" s="3" t="n">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="D151" s="3" t="n">
         <v>180</v>
@@ -7409,10 +10443,10 @@
         <v>151</v>
       </c>
       <c r="B152" s="3" t="n">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="C152" s="3" t="n">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="D152" s="3" t="n">
         <v>0</v>
@@ -7444,10 +10478,10 @@
         <v>152</v>
       </c>
       <c r="B153" s="3" t="n">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="C153" s="3" t="n">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="D153" s="3" t="n">
         <v>32</v>
@@ -7479,10 +10513,10 @@
         <v>153</v>
       </c>
       <c r="B154" s="3" t="n">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="C154" s="3" t="n">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="D154" s="3" t="n">
         <v>14</v>
@@ -7514,10 +10548,10 @@
         <v>154</v>
       </c>
       <c r="B155" s="3" t="n">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="C155" s="3" t="n">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="D155" s="3" t="n">
         <v>198</v>
@@ -7549,10 +10583,10 @@
         <v>155</v>
       </c>
       <c r="B156" s="3" t="n">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="C156" s="3" t="n">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="D156" s="3" t="n">
         <v>180</v>
@@ -7584,10 +10618,10 @@
         <v>156</v>
       </c>
       <c r="B157" s="3" t="n">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="C157" s="3" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D157" s="3" t="n">
         <v>0</v>
@@ -7619,10 +10653,10 @@
         <v>157</v>
       </c>
       <c r="B158" s="3" t="n">
+        <v>29</v>
+      </c>
+      <c r="C158" s="3" t="n">
         <v>2</v>
-      </c>
-      <c r="C158" s="3" t="n">
-        <v>7</v>
       </c>
       <c r="D158" s="3" t="n">
         <v>32</v>
@@ -7654,10 +10688,10 @@
         <v>158</v>
       </c>
       <c r="B159" s="3" t="n">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="C159" s="3" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D159" s="3" t="n">
         <v>14</v>
@@ -7689,10 +10723,10 @@
         <v>159</v>
       </c>
       <c r="B160" s="3" t="n">
+        <v>31</v>
+      </c>
+      <c r="C160" s="3" t="n">
         <v>4</v>
-      </c>
-      <c r="C160" s="3" t="n">
-        <v>9</v>
       </c>
       <c r="D160" s="3" t="n">
         <v>198</v>
@@ -7724,10 +10758,10 @@
         <v>160</v>
       </c>
       <c r="B161" s="3" t="n">
+        <v>32</v>
+      </c>
+      <c r="C161" s="3" t="n">
         <v>5</v>
-      </c>
-      <c r="C161" s="3" t="n">
-        <v>10</v>
       </c>
       <c r="D161" s="3" t="n">
         <v>180</v>
@@ -7934,10 +10968,10 @@
         <v>166</v>
       </c>
       <c r="B167" s="3" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C167" s="3" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D167" s="3" t="n">
         <v>0</v>
@@ -7969,10 +11003,10 @@
         <v>167</v>
       </c>
       <c r="B168" s="3" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C168" s="3" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D168" s="3" t="n">
         <v>32</v>
@@ -8004,10 +11038,10 @@
         <v>168</v>
       </c>
       <c r="B169" s="3" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C169" s="3" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D169" s="3" t="n">
         <v>14</v>
@@ -8039,10 +11073,10 @@
         <v>169</v>
       </c>
       <c r="B170" s="3" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C170" s="3" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D170" s="3" t="n">
         <v>198</v>
@@ -8074,10 +11108,10 @@
         <v>170</v>
       </c>
       <c r="B171" s="3" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C171" s="3" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D171" s="3" t="n">
         <v>180</v>
@@ -8109,10 +11143,10 @@
         <v>171</v>
       </c>
       <c r="B172" s="3" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C172" s="3" t="n">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D172" s="3" t="n">
         <v>0</v>
@@ -8144,10 +11178,10 @@
         <v>172</v>
       </c>
       <c r="B173" s="3" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="C173" s="3" t="n">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="D173" s="3" t="n">
         <v>32</v>
@@ -8179,10 +11213,10 @@
         <v>173</v>
       </c>
       <c r="B174" s="3" t="n">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="C174" s="3" t="n">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="D174" s="3" t="n">
         <v>14</v>
@@ -8214,10 +11248,10 @@
         <v>174</v>
       </c>
       <c r="B175" s="3" t="n">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="C175" s="3" t="n">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D175" s="3" t="n">
         <v>198</v>
@@ -8249,10 +11283,10 @@
         <v>175</v>
       </c>
       <c r="B176" s="3" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="C176" s="3" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D176" s="3" t="n">
         <v>180</v>
@@ -8284,10 +11318,10 @@
         <v>176</v>
       </c>
       <c r="B177" s="3" t="n">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="C177" s="3" t="n">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="D177" s="3" t="n">
         <v>0</v>
@@ -8319,10 +11353,10 @@
         <v>177</v>
       </c>
       <c r="B178" s="3" t="n">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="C178" s="3" t="n">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="D178" s="3" t="n">
         <v>32</v>
@@ -8354,10 +11388,10 @@
         <v>178</v>
       </c>
       <c r="B179" s="3" t="n">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="C179" s="3" t="n">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="D179" s="3" t="n">
         <v>14</v>
@@ -8389,10 +11423,10 @@
         <v>179</v>
       </c>
       <c r="B180" s="3" t="n">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="C180" s="3" t="n">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="D180" s="3" t="n">
         <v>198</v>
@@ -8424,10 +11458,10 @@
         <v>180</v>
       </c>
       <c r="B181" s="3" t="n">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="C181" s="3" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="D181" s="3" t="n">
         <v>180</v>
@@ -8459,10 +11493,10 @@
         <v>181</v>
       </c>
       <c r="B182" s="3" t="n">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="C182" s="3" t="n">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="D182" s="3" t="n">
         <v>0</v>
@@ -8494,10 +11528,10 @@
         <v>182</v>
       </c>
       <c r="B183" s="3" t="n">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="C183" s="3" t="n">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="D183" s="3" t="n">
         <v>32</v>
@@ -8529,10 +11563,10 @@
         <v>183</v>
       </c>
       <c r="B184" s="3" t="n">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="C184" s="3" t="n">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="D184" s="3" t="n">
         <v>14</v>
@@ -8564,10 +11598,10 @@
         <v>184</v>
       </c>
       <c r="B185" s="3" t="n">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="C185" s="3" t="n">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="D185" s="3" t="n">
         <v>198</v>
@@ -8599,10 +11633,10 @@
         <v>185</v>
       </c>
       <c r="B186" s="3" t="n">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="C186" s="3" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="D186" s="3" t="n">
         <v>180</v>
@@ -8634,10 +11668,10 @@
         <v>186</v>
       </c>
       <c r="B187" s="3" t="n">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="C187" s="3" t="n">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="D187" s="3" t="n">
         <v>0</v>
@@ -8669,10 +11703,10 @@
         <v>187</v>
       </c>
       <c r="B188" s="3" t="n">
-        <v>2</v>
+        <v>27</v>
       </c>
       <c r="C188" s="3" t="n">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="D188" s="3" t="n">
         <v>32</v>
@@ -8704,10 +11738,10 @@
         <v>188</v>
       </c>
       <c r="B189" s="3" t="n">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="C189" s="3" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D189" s="3" t="n">
         <v>14</v>
@@ -8739,10 +11773,10 @@
         <v>189</v>
       </c>
       <c r="B190" s="3" t="n">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="C190" s="3" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D190" s="3" t="n">
         <v>198</v>
@@ -8774,10 +11808,10 @@
         <v>190</v>
       </c>
       <c r="B191" s="3" t="n">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="C191" s="3" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D191" s="3" t="n">
         <v>180</v>
@@ -8809,10 +11843,10 @@
         <v>191</v>
       </c>
       <c r="B192" s="3" t="n">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="C192" s="3" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D192" s="3" t="n">
         <v>0</v>
@@ -8844,10 +11878,10 @@
         <v>192</v>
       </c>
       <c r="B193" s="3" t="n">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="C193" s="3" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D193" s="3" t="n">
         <v>32</v>
@@ -8879,10 +11913,10 @@
         <v>193</v>
       </c>
       <c r="B194" s="3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C194" s="3" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D194" s="3" t="n">
         <v>14</v>
@@ -8914,10 +11948,10 @@
         <v>194</v>
       </c>
       <c r="B195" s="3" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C195" s="3" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D195" s="3" t="n">
         <v>198</v>
@@ -8949,10 +11983,10 @@
         <v>195</v>
       </c>
       <c r="B196" s="3" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C196" s="3" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D196" s="3" t="n">
         <v>180</v>
@@ -8984,10 +12018,10 @@
         <v>196</v>
       </c>
       <c r="B197" s="3" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C197" s="3" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D197" s="3" t="n">
         <v>0</v>
@@ -9019,10 +12053,10 @@
         <v>197</v>
       </c>
       <c r="B198" s="3" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C198" s="3" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D198" s="3" t="n">
         <v>32</v>
@@ -9054,10 +12088,10 @@
         <v>198</v>
       </c>
       <c r="B199" s="3" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C199" s="3" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D199" s="3" t="n">
         <v>14</v>
@@ -9089,10 +12123,10 @@
         <v>199</v>
       </c>
       <c r="B200" s="3" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C200" s="3" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D200" s="3" t="n">
         <v>198</v>
@@ -9124,10 +12158,10 @@
         <v>200</v>
       </c>
       <c r="B201" s="3" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C201" s="3" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D201" s="3" t="n">
         <v>180</v>
@@ -9159,10 +12193,10 @@
         <v>201</v>
       </c>
       <c r="B202" s="3" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C202" s="3" t="n">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D202" s="3" t="n">
         <v>0</v>
@@ -9194,10 +12228,10 @@
         <v>202</v>
       </c>
       <c r="B203" s="3" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C203" s="3" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D203" s="3" t="n">
         <v>32</v>
@@ -9229,10 +12263,10 @@
         <v>203</v>
       </c>
       <c r="B204" s="3" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C204" s="3" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="D204" s="3" t="n">
         <v>14</v>
@@ -9264,10 +12298,10 @@
         <v>204</v>
       </c>
       <c r="B205" s="3" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="C205" s="3" t="n">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D205" s="3" t="n">
         <v>198</v>
@@ -9299,10 +12333,10 @@
         <v>205</v>
       </c>
       <c r="B206" s="3" t="n">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C206" s="3" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="D206" s="3" t="n">
         <v>180</v>
@@ -9334,10 +12368,10 @@
         <v>206</v>
       </c>
       <c r="B207" s="3" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="C207" s="3" t="n">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="D207" s="3" t="n">
         <v>0</v>
@@ -9369,10 +12403,10 @@
         <v>207</v>
       </c>
       <c r="B208" s="3" t="n">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="C208" s="3" t="n">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="D208" s="3" t="n">
         <v>32</v>
@@ -9404,10 +12438,10 @@
         <v>208</v>
       </c>
       <c r="B209" s="3" t="n">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="C209" s="3" t="n">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="D209" s="3" t="n">
         <v>14</v>
@@ -9439,10 +12473,10 @@
         <v>209</v>
       </c>
       <c r="B210" s="3" t="n">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="C210" s="3" t="n">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D210" s="3" t="n">
         <v>198</v>
@@ -9474,10 +12508,10 @@
         <v>210</v>
       </c>
       <c r="B211" s="3" t="n">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="C211" s="3" t="n">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="D211" s="3" t="n">
         <v>180</v>
@@ -9509,10 +12543,10 @@
         <v>211</v>
       </c>
       <c r="B212" s="3" t="n">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="C212" s="3" t="n">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="D212" s="3" t="n">
         <v>0</v>
@@ -9544,10 +12578,10 @@
         <v>212</v>
       </c>
       <c r="B213" s="3" t="n">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="C213" s="3" t="n">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="D213" s="3" t="n">
         <v>32</v>
@@ -9579,10 +12613,10 @@
         <v>213</v>
       </c>
       <c r="B214" s="3" t="n">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="C214" s="3" t="n">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="D214" s="3" t="n">
         <v>14</v>
@@ -9614,10 +12648,10 @@
         <v>214</v>
       </c>
       <c r="B215" s="3" t="n">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="C215" s="3" t="n">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D215" s="3" t="n">
         <v>198</v>
@@ -9649,10 +12683,10 @@
         <v>215</v>
       </c>
       <c r="B216" s="3" t="n">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="C216" s="3" t="n">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="D216" s="3" t="n">
         <v>180</v>
@@ -9684,10 +12718,10 @@
         <v>216</v>
       </c>
       <c r="B217" s="3" t="n">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="C217" s="3" t="n">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="D217" s="3" t="n">
         <v>0</v>
@@ -9719,10 +12753,10 @@
         <v>217</v>
       </c>
       <c r="B218" s="3" t="n">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="C218" s="3" t="n">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="D218" s="3" t="n">
         <v>32</v>
@@ -9754,10 +12788,10 @@
         <v>218</v>
       </c>
       <c r="B219" s="3" t="n">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="C219" s="3" t="n">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="D219" s="3" t="n">
         <v>14</v>
@@ -9789,10 +12823,10 @@
         <v>219</v>
       </c>
       <c r="B220" s="3" t="n">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="C220" s="3" t="n">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="D220" s="3" t="n">
         <v>198</v>
@@ -9824,10 +12858,10 @@
         <v>220</v>
       </c>
       <c r="B221" s="3" t="n">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="C221" s="3" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D221" s="3" t="n">
         <v>180</v>
@@ -9859,10 +12893,10 @@
         <v>221</v>
       </c>
       <c r="B222" s="3" t="n">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="C222" s="3" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D222" s="3" t="n">
         <v>0</v>
@@ -9894,10 +12928,10 @@
         <v>222</v>
       </c>
       <c r="B223" s="3" t="n">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="C223" s="3" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D223" s="3" t="n">
         <v>32</v>
@@ -9929,10 +12963,10 @@
         <v>223</v>
       </c>
       <c r="B224" s="3" t="n">
-        <v>3</v>
+        <v>31</v>
       </c>
       <c r="C224" s="3" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D224" s="3" t="n">
         <v>14</v>
@@ -9964,10 +12998,10 @@
         <v>224</v>
       </c>
       <c r="B225" s="3" t="n">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="C225" s="3" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D225" s="3" t="n">
         <v>198</v>
@@ -9999,10 +13033,10 @@
         <v>225</v>
       </c>
       <c r="B226" s="3" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C226" s="3" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D226" s="3" t="n">
         <v>180</v>
@@ -10034,10 +13068,10 @@
         <v>226</v>
       </c>
       <c r="B227" s="3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C227" s="3" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D227" s="3" t="n">
         <v>0</v>
@@ -10069,10 +13103,10 @@
         <v>227</v>
       </c>
       <c r="B228" s="3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C228" s="3" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D228" s="3" t="n">
         <v>32</v>
@@ -10104,10 +13138,10 @@
         <v>228</v>
       </c>
       <c r="B229" s="3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C229" s="3" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D229" s="3" t="n">
         <v>14</v>
@@ -10139,10 +13173,10 @@
         <v>229</v>
       </c>
       <c r="B230" s="3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C230" s="3" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D230" s="3" t="n">
         <v>198</v>
@@ -10174,10 +13208,10 @@
         <v>230</v>
       </c>
       <c r="B231" s="3" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C231" s="3" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D231" s="3" t="n">
         <v>180</v>
@@ -10209,10 +13243,10 @@
         <v>231</v>
       </c>
       <c r="B232" s="3" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C232" s="3" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D232" s="3" t="n">
         <v>0</v>
@@ -10244,10 +13278,10 @@
         <v>232</v>
       </c>
       <c r="B233" s="3" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C233" s="3" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D233" s="3" t="n">
         <v>32</v>
@@ -10279,10 +13313,10 @@
         <v>233</v>
       </c>
       <c r="B234" s="3" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C234" s="3" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D234" s="3" t="n">
         <v>14</v>
@@ -10314,10 +13348,10 @@
         <v>234</v>
       </c>
       <c r="B235" s="3" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C235" s="3" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D235" s="3" t="n">
         <v>198</v>
@@ -10349,10 +13383,10 @@
         <v>235</v>
       </c>
       <c r="B236" s="3" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C236" s="3" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D236" s="3" t="n">
         <v>180</v>
@@ -10384,10 +13418,10 @@
         <v>236</v>
       </c>
       <c r="B237" s="3" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="C237" s="3" t="n">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="D237" s="3" t="n">
         <v>0</v>
@@ -10419,10 +13453,10 @@
         <v>237</v>
       </c>
       <c r="B238" s="3" t="n">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="C238" s="3" t="n">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="D238" s="3" t="n">
         <v>32</v>
@@ -10454,10 +13488,10 @@
         <v>238</v>
       </c>
       <c r="B239" s="3" t="n">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="C239" s="3" t="n">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="D239" s="3" t="n">
         <v>14</v>
@@ -10489,10 +13523,10 @@
         <v>239</v>
       </c>
       <c r="B240" s="3" t="n">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="C240" s="3" t="n">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D240" s="3" t="n">
         <v>198</v>
@@ -10524,10 +13558,10 @@
         <v>240</v>
       </c>
       <c r="B241" s="3" t="n">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="C241" s="3" t="n">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="D241" s="3" t="n">
         <v>180</v>
@@ -10553,6 +13587,70 @@
       <c r="K241" s="3" t="n">
         <v>-1</v>
       </c>
+    </row>
+    <row r="242" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B242" s="3"/>
+      <c r="C242" s="3"/>
+    </row>
+    <row r="243" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B243" s="3"/>
+      <c r="C243" s="3"/>
+    </row>
+    <row r="244" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B244" s="3"/>
+      <c r="C244" s="3"/>
+    </row>
+    <row r="245" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B245" s="3"/>
+      <c r="C245" s="3"/>
+    </row>
+    <row r="246" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B246" s="3"/>
+      <c r="C246" s="3"/>
+    </row>
+    <row r="247" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B247" s="3"/>
+      <c r="C247" s="3"/>
+    </row>
+    <row r="248" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B248" s="3"/>
+      <c r="C248" s="3"/>
+    </row>
+    <row r="249" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B249" s="3"/>
+      <c r="C249" s="3"/>
+    </row>
+    <row r="250" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B250" s="3"/>
+      <c r="C250" s="3"/>
+    </row>
+    <row r="251" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B251" s="3"/>
+      <c r="C251" s="3"/>
+    </row>
+    <row r="252" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B252" s="3"/>
+      <c r="C252" s="3"/>
+    </row>
+    <row r="253" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B253" s="3"/>
+      <c r="C253" s="3"/>
+    </row>
+    <row r="254" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B254" s="3"/>
+      <c r="C254" s="3"/>
+    </row>
+    <row r="255" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B255" s="3"/>
+      <c r="C255" s="3"/>
+    </row>
+    <row r="256" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B256" s="3"/>
+      <c r="C256" s="3"/>
+    </row>
+    <row r="257" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B257" s="3"/>
+      <c r="C257" s="3"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
